--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="164">
   <si>
     <t>归属</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,90 +72,468 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影视</t>
-  </si>
-  <si>
-    <t>购物</t>
-  </si>
-  <si>
-    <t>李璇</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Grace</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全球美妆</t>
-    </r>
-  </si>
-  <si>
-    <t>chanshi-zmz</t>
-  </si>
-  <si>
-    <t>8折，价格已打折</t>
-  </si>
-  <si>
-    <t>买了就对了</t>
-  </si>
-  <si>
-    <t>pingjia-sh</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美妆</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AKUMA</t>
-    </r>
-  </si>
-  <si>
-    <t>ibuyer520</t>
-  </si>
-  <si>
-    <t>日剧与音乐部屋</t>
-  </si>
-  <si>
-    <t>rijuyinyue</t>
-  </si>
-  <si>
-    <t>X1712181347380009</t>
-  </si>
-  <si>
-    <t>X1801301108430426</t>
+    <t>地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芜湖美食圈</t>
+  </si>
+  <si>
+    <t>msq0553</t>
+  </si>
+  <si>
+    <t>芜湖范儿</t>
+  </si>
+  <si>
+    <t>faner0553</t>
+  </si>
+  <si>
+    <t>马鞍山范儿</t>
+  </si>
+  <si>
+    <t>faner0555</t>
+  </si>
+  <si>
+    <t>马鞍山美食圈</t>
+  </si>
+  <si>
+    <t>msq0555</t>
+  </si>
+  <si>
+    <t>安庆全接触</t>
+  </si>
+  <si>
+    <t>qjc0556</t>
+  </si>
+  <si>
+    <t>泉州乐活汇</t>
+  </si>
+  <si>
+    <t>qzlhh159</t>
+  </si>
+  <si>
+    <t>泉州吃货王</t>
+  </si>
+  <si>
+    <t>qzchw123</t>
+  </si>
+  <si>
+    <t>漳州优生活</t>
+  </si>
+  <si>
+    <t>zzysh666</t>
+  </si>
+  <si>
+    <t>漳州吃货王</t>
+  </si>
+  <si>
+    <t>zzchw1</t>
+  </si>
+  <si>
+    <t>吃喝玩乐惠安</t>
+  </si>
+  <si>
+    <t>chihewanlehuian</t>
+  </si>
+  <si>
+    <t>深圳搞试情</t>
+  </si>
+  <si>
+    <t>szgsq0755</t>
+  </si>
+  <si>
+    <t>东莞全接触</t>
+  </si>
+  <si>
+    <t>dongguanquanjiechu</t>
+  </si>
+  <si>
+    <t>东莞微时光</t>
+  </si>
+  <si>
+    <t>gh_2d19f7d86</t>
+  </si>
+  <si>
+    <t>河源吃货团</t>
+  </si>
+  <si>
+    <t>hycht888</t>
+  </si>
+  <si>
+    <t>河源全接触</t>
+  </si>
+  <si>
+    <t>hyqic888</t>
+  </si>
+  <si>
+    <t>海口全接触</t>
+  </si>
+  <si>
+    <t>hkqjc0898</t>
+  </si>
+  <si>
+    <t>海口吃货团</t>
+  </si>
+  <si>
+    <t>hkcht0898</t>
+  </si>
+  <si>
+    <t>海口微旅游</t>
+  </si>
+  <si>
+    <t>hkwly0898</t>
+  </si>
+  <si>
+    <t>邯郸全接触</t>
+  </si>
+  <si>
+    <t>hdqjc0310</t>
+  </si>
+  <si>
+    <t>邯郸吃货王</t>
+  </si>
+  <si>
+    <t>hdchw0310</t>
+  </si>
+  <si>
+    <t>保定全接触</t>
+  </si>
+  <si>
+    <t>bdqjc0312</t>
+  </si>
+  <si>
+    <t>保定吃货王</t>
+  </si>
+  <si>
+    <t>bdchw0312</t>
+  </si>
+  <si>
+    <t>唐山同城会</t>
+  </si>
+  <si>
+    <t>tstch0315</t>
+  </si>
+  <si>
+    <t>唐山吃货王</t>
+  </si>
+  <si>
+    <t>tschw0315</t>
+  </si>
+  <si>
+    <t>石家庄闺蜜圈</t>
+  </si>
+  <si>
+    <t>sjzgmq</t>
+  </si>
+  <si>
+    <t>邢台优生活</t>
+  </si>
+  <si>
+    <t>xtysh0319</t>
+  </si>
+  <si>
+    <t>洛阳乐活汇</t>
+  </si>
+  <si>
+    <t>lylhh0379</t>
+  </si>
+  <si>
+    <t>南阳全接触</t>
+  </si>
+  <si>
+    <t>nyqjc0377</t>
+  </si>
+  <si>
+    <t>焦作全接触</t>
+  </si>
+  <si>
+    <t>jzqjc0391</t>
+  </si>
+  <si>
+    <t>焦作吃货王</t>
+  </si>
+  <si>
+    <t>eat0391</t>
+  </si>
+  <si>
+    <t>安阳全接触</t>
+  </si>
+  <si>
+    <t>ayqjc0372</t>
+  </si>
+  <si>
+    <t>哈尔滨派</t>
+  </si>
+  <si>
+    <t>hrbpai</t>
+  </si>
+  <si>
+    <t>大庆全接触</t>
+  </si>
+  <si>
+    <t>dqqjc01</t>
+  </si>
+  <si>
+    <t>齐齐哈尔全接触</t>
+  </si>
+  <si>
+    <t>qqheqjc01</t>
+  </si>
+  <si>
+    <t>牡丹江全接触</t>
+  </si>
+  <si>
+    <t>mdjqjc01</t>
+  </si>
+  <si>
+    <t>宜昌吃货王</t>
+  </si>
+  <si>
+    <t>ycchw100</t>
+  </si>
+  <si>
+    <t>襄阳全接触</t>
+  </si>
+  <si>
+    <t>xiangyangqjc</t>
+  </si>
+  <si>
+    <t>岳阳全接触</t>
+  </si>
+  <si>
+    <t>yyqjc0730</t>
+  </si>
+  <si>
+    <t>衡阳全接触</t>
+  </si>
+  <si>
+    <t>hyqjc0734</t>
+  </si>
+  <si>
+    <t>吉林同城会</t>
+  </si>
+  <si>
+    <t>JLTCH66</t>
+  </si>
+  <si>
+    <t>松原全接触</t>
+  </si>
+  <si>
+    <t>syqjc66</t>
+  </si>
+  <si>
+    <t>无锡吃货王</t>
+  </si>
+  <si>
+    <t>wuxchw</t>
+  </si>
+  <si>
+    <t>常州吃货王</t>
+  </si>
+  <si>
+    <t>czydnjc</t>
+  </si>
+  <si>
+    <t>常州全接触</t>
+  </si>
+  <si>
+    <t>czydnch</t>
+  </si>
+  <si>
+    <t>泰州吃货团</t>
+  </si>
+  <si>
+    <t>tzydncht</t>
+  </si>
+  <si>
+    <t>泰州优生活</t>
+  </si>
+  <si>
+    <t>tzyshuo</t>
+  </si>
+  <si>
+    <t>扬州吃货王</t>
+  </si>
+  <si>
+    <t>ayzchw</t>
+  </si>
+  <si>
+    <t>扬州微时光</t>
+  </si>
+  <si>
+    <t>ayzwsg</t>
+  </si>
+  <si>
+    <t>盐城吃货团</t>
+  </si>
+  <si>
+    <t>ycydnch</t>
+  </si>
+  <si>
+    <t>盐城全接触</t>
+  </si>
+  <si>
+    <t>ycydnjc</t>
+  </si>
+  <si>
+    <t>淮安全接触</t>
+  </si>
+  <si>
+    <t>haydnjc</t>
+  </si>
+  <si>
+    <t>南通吃货王</t>
+  </si>
+  <si>
+    <t>ntchwang</t>
+  </si>
+  <si>
+    <t>南通优生活</t>
+  </si>
+  <si>
+    <t>ntydnjc</t>
+  </si>
+  <si>
+    <t>宿迁同城会</t>
+  </si>
+  <si>
+    <t>gh_3f21542b8015</t>
+  </si>
+  <si>
+    <t>安徽 芜湖</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>安徽 马鞍山</t>
+  </si>
+  <si>
+    <t>安徽 安庆</t>
+  </si>
+  <si>
+    <t>福建 泉州</t>
+  </si>
+  <si>
+    <t>福建 漳州</t>
+  </si>
+  <si>
+    <t>福建 惠安</t>
+  </si>
+  <si>
+    <t>广东 深圳</t>
+  </si>
+  <si>
+    <t>广东 东莞</t>
+  </si>
+  <si>
+    <t>广东 河源</t>
+  </si>
+  <si>
+    <t>海南 海口</t>
+  </si>
+  <si>
+    <t>河北 邯郸</t>
+  </si>
+  <si>
+    <t>河北 保定</t>
+  </si>
+  <si>
+    <t>河北 唐山</t>
+  </si>
+  <si>
+    <t>河北 石家庄</t>
+  </si>
+  <si>
+    <t>河北 邢台</t>
+  </si>
+  <si>
+    <t>河南 洛阳</t>
+  </si>
+  <si>
+    <t>河南 南阳</t>
+  </si>
+  <si>
+    <t>河南 焦作</t>
+  </si>
+  <si>
+    <t>河南 安阳</t>
+  </si>
+  <si>
+    <t>黑龙江 哈尔滨</t>
+  </si>
+  <si>
+    <t>黑龙江 大庆</t>
+  </si>
+  <si>
+    <t>黑龙江 齐齐哈尔</t>
+  </si>
+  <si>
+    <t>黑龙江 牡丹江</t>
+  </si>
+  <si>
+    <t>湖北 宜昌</t>
+  </si>
+  <si>
+    <t>湖北 襄阳</t>
+  </si>
+  <si>
+    <t>湖南 岳阳</t>
+  </si>
+  <si>
+    <t>湖南 衡阳</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>吉林 松原</t>
+  </si>
+  <si>
+    <t>江苏 无锡</t>
+  </si>
+  <si>
+    <t>江苏 常州</t>
+  </si>
+  <si>
+    <t>江苏 泰州</t>
+  </si>
+  <si>
+    <t>江苏 扬州</t>
+  </si>
+  <si>
+    <t>江苏 盐城</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>江苏 淮安</t>
+  </si>
+  <si>
+    <t>江苏 南通</t>
+  </si>
+  <si>
+    <t>江苏宿迁</t>
+  </si>
+  <si>
+    <t>不接黑五类广告，通稿必须接受微调 不然不接</t>
+  </si>
+  <si>
+    <t>X1801050844430137</t>
+  </si>
+  <si>
+    <t>胡江超</t>
+  </si>
+  <si>
+    <t>X1712181337040001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -203,53 +581,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,12 +593,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -321,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,16 +665,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -668,15 +985,16 @@
     <col min="5" max="5" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="12.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -699,175 +1017,2240 @@
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6.3993000000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2544</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2544</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C3" s="5">
+        <v>11.540800000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4240</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4240</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.6532</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2544</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2544</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9">
-        <v>8000</v>
-      </c>
-      <c r="E2" s="9">
-        <v>8000</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.3279000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1696</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1696</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.3532999999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2544</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2544</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.4865000000000004</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1113</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1113</v>
+      </c>
+      <c r="F7" s="5">
+        <v>556.5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="9">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9">
-        <v>4800</v>
-      </c>
-      <c r="E3" s="9">
-        <v>4800</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F8" s="5">
+        <v>742</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.8535000000000004</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F9" s="5">
+        <v>742</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8.3862000000000005</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1855</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1855</v>
+      </c>
+      <c r="F10" s="5">
+        <v>927.5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="D11" s="5">
+        <v>593.6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>593.6</v>
+      </c>
+      <c r="F11" s="5">
+        <v>296.8</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2544</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2544</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5">
+        <v>33.993899999999996</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7632</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7632</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3816</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2862</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2862</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1590</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8.8890999999999991</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3710</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3710</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1060</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10.562200000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4452</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4452</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2120</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9.7065000000000001</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2597</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2597</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1558.2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.8177000000000003</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1855</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1855</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1113</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5.1849999999999996</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F19" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="9">
-        <v>40000</v>
-      </c>
-      <c r="E4" s="9">
-        <v>40000</v>
-      </c>
-      <c r="F4" s="9">
-        <v>9600</v>
-      </c>
-      <c r="G4" s="9">
-        <v>14600</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9">
-        <v>9600</v>
-      </c>
-      <c r="E5" s="9">
-        <v>9600</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3200</v>
-      </c>
-      <c r="G5" s="9">
-        <v>8200</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>24</v>
+      <c r="C20" s="5">
+        <v>9.9930000000000003</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1855</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1855</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1113</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7.3513999999999999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F21" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10.5106</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1855</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1855</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1113</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6.0502000000000002</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1855</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1855</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1113</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F24" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6.8301999999999996</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1113</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1113</v>
+      </c>
+      <c r="F25" s="5">
+        <v>667.8</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5">
+        <v>9.3675999999999995</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2226</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2226</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1335.6</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5">
+        <v>12.4968</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1855</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1855</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1113</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="5">
+        <v>11.2096</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2226</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2226</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1335.6</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8.3079999999999998</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F29" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5">
+        <v>7.6726999999999999</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F30" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6.8155999999999999</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1113</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1113</v>
+      </c>
+      <c r="F31" s="5">
+        <v>667.8</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.6061999999999999</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1113</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1113</v>
+      </c>
+      <c r="F32" s="5">
+        <v>667.8</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6307</v>
+      </c>
+      <c r="E33" s="5">
+        <v>6307</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4240</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5.5019999999999998</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F34" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7.2770000000000001</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F35" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.8458</v>
+      </c>
+      <c r="D36" s="5">
+        <v>742</v>
+      </c>
+      <c r="E36" s="5">
+        <v>742</v>
+      </c>
+      <c r="F36" s="5">
+        <v>445.2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="5">
+        <v>8.7812999999999999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1696</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1696</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="5">
+        <v>6.8221999999999996</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F38" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="D39" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="E39" s="5">
+        <v>890.4</v>
+      </c>
+      <c r="F39" s="5">
+        <v>445.2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4.9476000000000004</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F40" s="5">
+        <v>742</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5.5362999999999998</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1484</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1484</v>
+      </c>
+      <c r="F41" s="5">
+        <v>742</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.9339</v>
+      </c>
+      <c r="D42" s="5">
+        <v>742</v>
+      </c>
+      <c r="E42" s="5">
+        <v>742</v>
+      </c>
+      <c r="F42" s="5">
+        <v>445.2</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="5">
+        <v>14.847099999999999</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1590</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1590</v>
+      </c>
+      <c r="F43" s="5">
+        <v>954</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="5">
+        <v>8.4971999999999994</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F44" s="5">
+        <v>763.2</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="5">
+        <v>9.5457000000000001</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F45" s="5">
+        <v>763.2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="5">
+        <v>5.4741999999999997</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F46" s="5">
+        <v>508.8</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4.5590000000000002</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F47" s="5">
+        <v>508.8</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4.0641999999999996</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F48" s="5">
+        <v>508.8</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5.681</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F49" s="5">
+        <v>508.8</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="5">
+        <v>5.6828000000000003</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F50" s="5">
+        <v>508.8</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="5">
+        <v>7.8651999999999997</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F51" s="5">
+        <v>508.8</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.9676</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1144.8</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1144.8</v>
+      </c>
+      <c r="F52" s="5">
+        <v>763.2</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4.4169999999999998</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F53" s="5">
+        <v>508.8</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="5">
+        <v>6.2676999999999996</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1272</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F54" s="5">
+        <v>508.8</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1.6088</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1144.8</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1144.8</v>
+      </c>
+      <c r="F55" s="5">
+        <v>572.4</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:M1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="156">
   <si>
     <t>归属</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,84 +76,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>芜湖美食圈</t>
-  </si>
-  <si>
-    <t>msq0553</t>
-  </si>
-  <si>
-    <t>芜湖范儿</t>
-  </si>
-  <si>
-    <t>faner0553</t>
-  </si>
-  <si>
-    <t>马鞍山范儿</t>
-  </si>
-  <si>
-    <t>faner0555</t>
-  </si>
-  <si>
-    <t>马鞍山美食圈</t>
-  </si>
-  <si>
-    <t>msq0555</t>
-  </si>
-  <si>
-    <t>安庆全接触</t>
-  </si>
-  <si>
-    <t>qjc0556</t>
-  </si>
-  <si>
-    <t>泉州乐活汇</t>
-  </si>
-  <si>
-    <t>qzlhh159</t>
-  </si>
-  <si>
-    <t>泉州吃货王</t>
-  </si>
-  <si>
-    <t>qzchw123</t>
-  </si>
-  <si>
-    <t>漳州优生活</t>
-  </si>
-  <si>
-    <t>zzysh666</t>
-  </si>
-  <si>
-    <t>漳州吃货王</t>
-  </si>
-  <si>
-    <t>zzchw1</t>
-  </si>
-  <si>
-    <t>吃喝玩乐惠安</t>
-  </si>
-  <si>
-    <t>chihewanlehuian</t>
-  </si>
-  <si>
-    <t>深圳搞试情</t>
-  </si>
-  <si>
-    <t>szgsq0755</t>
-  </si>
-  <si>
     <t>东莞全接触</t>
   </si>
   <si>
     <t>dongguanquanjiechu</t>
   </si>
   <si>
-    <t>东莞微时光</t>
-  </si>
-  <si>
-    <t>gh_2d19f7d86</t>
-  </si>
-  <si>
     <t>河源吃货团</t>
   </si>
   <si>
@@ -163,370 +91,418 @@
     <t>河源全接触</t>
   </si>
   <si>
-    <t>hyqic888</t>
-  </si>
-  <si>
-    <t>海口全接触</t>
-  </si>
-  <si>
-    <t>hkqjc0898</t>
-  </si>
-  <si>
-    <t>海口吃货团</t>
-  </si>
-  <si>
-    <t>hkcht0898</t>
-  </si>
-  <si>
-    <t>海口微旅游</t>
-  </si>
-  <si>
-    <t>hkwly0898</t>
-  </si>
-  <si>
-    <t>邯郸全接触</t>
-  </si>
-  <si>
-    <t>hdqjc0310</t>
-  </si>
-  <si>
-    <t>邯郸吃货王</t>
-  </si>
-  <si>
-    <t>hdchw0310</t>
-  </si>
-  <si>
-    <t>保定全接触</t>
-  </si>
-  <si>
-    <t>bdqjc0312</t>
-  </si>
-  <si>
-    <t>保定吃货王</t>
-  </si>
-  <si>
-    <t>bdchw0312</t>
-  </si>
-  <si>
-    <t>唐山同城会</t>
-  </si>
-  <si>
-    <t>tstch0315</t>
-  </si>
-  <si>
-    <t>唐山吃货王</t>
-  </si>
-  <si>
-    <t>tschw0315</t>
-  </si>
-  <si>
-    <t>石家庄闺蜜圈</t>
-  </si>
-  <si>
-    <t>sjzgmq</t>
-  </si>
-  <si>
-    <t>邢台优生活</t>
-  </si>
-  <si>
-    <t>xtysh0319</t>
-  </si>
-  <si>
-    <t>洛阳乐活汇</t>
-  </si>
-  <si>
-    <t>lylhh0379</t>
-  </si>
-  <si>
-    <t>南阳全接触</t>
-  </si>
-  <si>
-    <t>nyqjc0377</t>
-  </si>
-  <si>
-    <t>焦作全接触</t>
-  </si>
-  <si>
-    <t>jzqjc0391</t>
-  </si>
-  <si>
-    <t>焦作吃货王</t>
-  </si>
-  <si>
-    <t>eat0391</t>
-  </si>
-  <si>
-    <t>安阳全接触</t>
-  </si>
-  <si>
-    <t>ayqjc0372</t>
-  </si>
-  <si>
-    <t>哈尔滨派</t>
-  </si>
-  <si>
-    <t>hrbpai</t>
-  </si>
-  <si>
-    <t>大庆全接触</t>
-  </si>
-  <si>
-    <t>dqqjc01</t>
-  </si>
-  <si>
-    <t>齐齐哈尔全接触</t>
-  </si>
-  <si>
-    <t>qqheqjc01</t>
-  </si>
-  <si>
-    <t>牡丹江全接触</t>
-  </si>
-  <si>
-    <t>mdjqjc01</t>
-  </si>
-  <si>
-    <t>宜昌吃货王</t>
-  </si>
-  <si>
-    <t>ycchw100</t>
-  </si>
-  <si>
-    <t>襄阳全接触</t>
-  </si>
-  <si>
-    <t>xiangyangqjc</t>
-  </si>
-  <si>
-    <t>岳阳全接触</t>
-  </si>
-  <si>
-    <t>yyqjc0730</t>
-  </si>
-  <si>
-    <t>衡阳全接触</t>
-  </si>
-  <si>
-    <t>hyqjc0734</t>
-  </si>
-  <si>
-    <t>吉林同城会</t>
-  </si>
-  <si>
-    <t>JLTCH66</t>
-  </si>
-  <si>
-    <t>松原全接触</t>
-  </si>
-  <si>
-    <t>syqjc66</t>
-  </si>
-  <si>
-    <t>无锡吃货王</t>
-  </si>
-  <si>
-    <t>wuxchw</t>
-  </si>
-  <si>
-    <t>常州吃货王</t>
-  </si>
-  <si>
-    <t>czydnjc</t>
-  </si>
-  <si>
-    <t>常州全接触</t>
-  </si>
-  <si>
-    <t>czydnch</t>
-  </si>
-  <si>
-    <t>泰州吃货团</t>
-  </si>
-  <si>
-    <t>tzydncht</t>
-  </si>
-  <si>
-    <t>泰州优生活</t>
-  </si>
-  <si>
-    <t>tzyshuo</t>
-  </si>
-  <si>
-    <t>扬州吃货王</t>
-  </si>
-  <si>
-    <t>ayzchw</t>
-  </si>
-  <si>
-    <t>扬州微时光</t>
-  </si>
-  <si>
-    <t>ayzwsg</t>
-  </si>
-  <si>
-    <t>盐城吃货团</t>
-  </si>
-  <si>
-    <t>ycydnch</t>
-  </si>
-  <si>
-    <t>盐城全接触</t>
-  </si>
-  <si>
-    <t>ycydnjc</t>
-  </si>
-  <si>
-    <t>淮安全接触</t>
-  </si>
-  <si>
-    <t>haydnjc</t>
-  </si>
-  <si>
-    <t>南通吃货王</t>
-  </si>
-  <si>
-    <t>ntchwang</t>
-  </si>
-  <si>
-    <t>南通优生活</t>
-  </si>
-  <si>
-    <t>ntydnjc</t>
-  </si>
-  <si>
-    <t>宿迁同城会</t>
-  </si>
-  <si>
-    <t>gh_3f21542b8015</t>
-  </si>
-  <si>
-    <t>安徽 芜湖</t>
-  </si>
-  <si>
     <t>地域</t>
   </si>
   <si>
-    <t>安徽 马鞍山</t>
-  </si>
-  <si>
-    <t>安徽 安庆</t>
-  </si>
-  <si>
-    <t>福建 泉州</t>
-  </si>
-  <si>
-    <t>福建 漳州</t>
-  </si>
-  <si>
-    <t>福建 惠安</t>
-  </si>
-  <si>
-    <t>广东 深圳</t>
-  </si>
-  <si>
-    <t>广东 东莞</t>
-  </si>
-  <si>
-    <t>广东 河源</t>
-  </si>
-  <si>
-    <t>海南 海口</t>
-  </si>
-  <si>
-    <t>河北 邯郸</t>
-  </si>
-  <si>
-    <t>河北 保定</t>
-  </si>
-  <si>
-    <t>河北 唐山</t>
-  </si>
-  <si>
-    <t>河北 石家庄</t>
-  </si>
-  <si>
-    <t>河北 邢台</t>
-  </si>
-  <si>
-    <t>河南 洛阳</t>
-  </si>
-  <si>
-    <t>河南 南阳</t>
-  </si>
-  <si>
-    <t>河南 焦作</t>
-  </si>
-  <si>
-    <t>河南 安阳</t>
-  </si>
-  <si>
-    <t>黑龙江 哈尔滨</t>
-  </si>
-  <si>
-    <t>黑龙江 大庆</t>
-  </si>
-  <si>
-    <t>黑龙江 齐齐哈尔</t>
-  </si>
-  <si>
-    <t>黑龙江 牡丹江</t>
-  </si>
-  <si>
-    <t>湖北 宜昌</t>
-  </si>
-  <si>
-    <t>湖北 襄阳</t>
-  </si>
-  <si>
-    <t>湖南 岳阳</t>
-  </si>
-  <si>
-    <t>湖南 衡阳</t>
-  </si>
-  <si>
-    <t>吉林</t>
-  </si>
-  <si>
-    <t>吉林 松原</t>
-  </si>
-  <si>
-    <t>江苏 无锡</t>
-  </si>
-  <si>
-    <t>江苏 常州</t>
-  </si>
-  <si>
-    <t>江苏 泰州</t>
-  </si>
-  <si>
-    <t>江苏 扬州</t>
-  </si>
-  <si>
-    <t>江苏 盐城</t>
-  </si>
-  <si>
-    <t>生活</t>
-  </si>
-  <si>
-    <t>江苏 淮安</t>
-  </si>
-  <si>
-    <t>江苏 南通</t>
-  </si>
-  <si>
-    <t>江苏宿迁</t>
-  </si>
-  <si>
-    <t>不接黑五类广告，通稿必须接受微调 不然不接</t>
-  </si>
-  <si>
-    <t>X1801050844430137</t>
-  </si>
-  <si>
-    <t>胡江超</t>
-  </si>
-  <si>
-    <t>X1712181337040001</t>
+    <t>广州笋野</t>
+  </si>
+  <si>
+    <t>GZJETSO</t>
+  </si>
+  <si>
+    <t>食妞广州</t>
+  </si>
+  <si>
+    <t>shiniu_gz</t>
+  </si>
+  <si>
+    <t>我们爱广州</t>
+  </si>
+  <si>
+    <t>wanle020</t>
+  </si>
+  <si>
+    <t>广州精彩生活圈</t>
+  </si>
+  <si>
+    <t>gzjc_020</t>
+  </si>
+  <si>
+    <t>广州休闲生活</t>
+  </si>
+  <si>
+    <t>hbxw88</t>
+  </si>
+  <si>
+    <t>广州玩乐推介</t>
+  </si>
+  <si>
+    <t>gzbg020</t>
+  </si>
+  <si>
+    <t>广州有D嘢</t>
+  </si>
+  <si>
+    <t>GZCKWL</t>
+  </si>
+  <si>
+    <t>番禺吃喝玩乐FUN</t>
+  </si>
+  <si>
+    <t>pysyst</t>
+  </si>
+  <si>
+    <t>广州房产</t>
+  </si>
+  <si>
+    <t>house020</t>
+  </si>
+  <si>
+    <t>妈网亲子游</t>
+  </si>
+  <si>
+    <t>mwqinziyou</t>
+  </si>
+  <si>
+    <t>广州女主</t>
+  </si>
+  <si>
+    <t>GZ-MSSHE</t>
+  </si>
+  <si>
+    <t>纳塔莉nataliee</t>
+  </si>
+  <si>
+    <t>nataliemua</t>
+  </si>
+  <si>
+    <t>广州Breaktime</t>
+  </si>
+  <si>
+    <t>gzlook020</t>
+  </si>
+  <si>
+    <t>广州女神吃喝玩乐</t>
+  </si>
+  <si>
+    <t>gzzsh020</t>
+  </si>
+  <si>
+    <t>粤咖风范</t>
+  </si>
+  <si>
+    <t>yuekafengfan</t>
+  </si>
+  <si>
+    <t>广州大城小事</t>
+  </si>
+  <si>
+    <t>wshbigbang</t>
+  </si>
+  <si>
+    <t>粤焦点</t>
+  </si>
+  <si>
+    <t>focusGZ</t>
+  </si>
+  <si>
+    <t>广州日报本地通</t>
+  </si>
+  <si>
+    <t>gzdailybl</t>
+  </si>
+  <si>
+    <t>广州参考</t>
+  </si>
+  <si>
+    <t>gzcankao</t>
+  </si>
+  <si>
+    <t>广州天河客运站</t>
+  </si>
+  <si>
+    <t>gzthkyz</t>
+  </si>
+  <si>
+    <t>增城着数</t>
+  </si>
+  <si>
+    <t>zc77zc</t>
+  </si>
+  <si>
+    <t>佛山吃货</t>
+  </si>
+  <si>
+    <t>fsch0757</t>
+  </si>
+  <si>
+    <t>佛山爱玩俱乐部</t>
+  </si>
+  <si>
+    <t>aiwanfsl</t>
+  </si>
+  <si>
+    <t>我们爱佛山</t>
+  </si>
+  <si>
+    <t>at0757</t>
+  </si>
+  <si>
+    <t>佛山吃喝玩乐推介</t>
+  </si>
+  <si>
+    <t>fsshanbawangcan</t>
+  </si>
+  <si>
+    <t>佛山美食最前线</t>
+  </si>
+  <si>
+    <t>fsmszqx8</t>
+  </si>
+  <si>
+    <t>女神吃喝玩乐</t>
+  </si>
+  <si>
+    <t>lovefs0757</t>
+  </si>
+  <si>
+    <t>深圳城事</t>
+  </si>
+  <si>
+    <t>szcsh0755</t>
+  </si>
+  <si>
+    <t>吃喝玩乐在深圳</t>
+  </si>
+  <si>
+    <t>SZ_2015 </t>
+  </si>
+  <si>
+    <t>鹏城深圳</t>
+  </si>
+  <si>
+    <t>pcsz365</t>
+  </si>
+  <si>
+    <t>深圳房产在线</t>
+  </si>
+  <si>
+    <t>szfcczx0755</t>
+  </si>
+  <si>
+    <t>看深圳</t>
+  </si>
+  <si>
+    <t>ud0755</t>
+  </si>
+  <si>
+    <t>深圳生活美食圈</t>
+  </si>
+  <si>
+    <t>life0755</t>
+  </si>
+  <si>
+    <t>深圳大城小事</t>
+  </si>
+  <si>
+    <t>the0755</t>
+  </si>
+  <si>
+    <t>开心深圳</t>
+  </si>
+  <si>
+    <t>sz9945</t>
+  </si>
+  <si>
+    <t>我们的东莞</t>
+  </si>
+  <si>
+    <t>OurDongguan</t>
+  </si>
+  <si>
+    <t>莞易网</t>
+  </si>
+  <si>
+    <t>cn07691</t>
+  </si>
+  <si>
+    <t>东莞大城小事</t>
+  </si>
+  <si>
+    <t>DG2231</t>
+  </si>
+  <si>
+    <t>最潮东莞</t>
+  </si>
+  <si>
+    <t>DG3359</t>
+  </si>
+  <si>
+    <t>东莞生活</t>
+  </si>
+  <si>
+    <t>dgsh66</t>
+  </si>
+  <si>
+    <t>爆料中山</t>
+  </si>
+  <si>
+    <t>sanxiangquan</t>
+  </si>
+  <si>
+    <t>江门汇声汇色</t>
+  </si>
+  <si>
+    <t>SingSe</t>
+  </si>
+  <si>
+    <t>江门吃喝玩乐</t>
+  </si>
+  <si>
+    <t>jmchihewanle</t>
+  </si>
+  <si>
+    <t>西枝江畔</t>
+  </si>
+  <si>
+    <t>gh_f63c5abcf18a</t>
+  </si>
+  <si>
+    <t>西子惠东</t>
+  </si>
+  <si>
+    <t>hdtong</t>
+  </si>
+  <si>
+    <t>惠阳早知道</t>
+  </si>
+  <si>
+    <t>xizihy</t>
+  </si>
+  <si>
+    <t>百川网</t>
+  </si>
+  <si>
+    <t>qybccom </t>
+  </si>
+  <si>
+    <t>hyqjc888</t>
+  </si>
+  <si>
+    <t>河源东江网</t>
+  </si>
+  <si>
+    <t>heyuan77_com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湛江资讯 </t>
+  </si>
+  <si>
+    <t>zjwb0759</t>
+  </si>
+  <si>
+    <t>徐闻生活</t>
+  </si>
+  <si>
+    <t>xuwen567</t>
+  </si>
+  <si>
+    <t>掌上徐闻</t>
+  </si>
+  <si>
+    <t>ZSxuwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阳江通 </t>
+  </si>
+  <si>
+    <t>wshyj0662</t>
+  </si>
+  <si>
+    <t>家在潮汕</t>
+  </si>
+  <si>
+    <t>jiazcs</t>
+  </si>
+  <si>
+    <t>揭阳大城小事</t>
+  </si>
+  <si>
+    <t>is0663</t>
+  </si>
+  <si>
+    <t>揭阳吃喝玩乐</t>
+  </si>
+  <si>
+    <t>pw0663</t>
+  </si>
+  <si>
+    <t>揭阳吃货</t>
+  </si>
+  <si>
+    <t>chihuo663</t>
+  </si>
+  <si>
+    <t>饶平通</t>
+  </si>
+  <si>
+    <t>raopingmeizhi</t>
+  </si>
+  <si>
+    <t>香港有乜睇</t>
+  </si>
+  <si>
+    <t>hkok666</t>
+  </si>
+  <si>
+    <t>香港最前线</t>
+  </si>
+  <si>
+    <t>hkspot</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>江门</t>
+  </si>
+  <si>
+    <t>惠州</t>
+  </si>
+  <si>
+    <t>清远</t>
+  </si>
+  <si>
+    <t>河源</t>
+  </si>
+  <si>
+    <t>湛江</t>
+  </si>
+  <si>
+    <t>阳江</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>揭阳</t>
+  </si>
+  <si>
+    <t>潮州</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>X1801151611340108</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>X1712181338330003</t>
   </si>
 </sst>
 </file>
@@ -970,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1037,1252 +1013,1162 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5">
-        <v>6.3993000000000002</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5">
-        <v>2544</v>
+        <v>7225</v>
       </c>
       <c r="E2" s="5">
-        <v>2544</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>6141.25</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5">
-        <v>11.540800000000001</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5">
-        <v>4240</v>
+        <v>10880</v>
       </c>
       <c r="E3" s="5">
-        <v>4240</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>9248</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5">
-        <v>5.6532</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5">
-        <v>2544</v>
+        <v>10200</v>
       </c>
       <c r="E4" s="5">
-        <v>2544</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>8670</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5">
-        <v>3.3279000000000001</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5">
-        <v>1696</v>
+        <v>11050</v>
       </c>
       <c r="E5" s="5">
-        <v>1696</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>9392.5</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5">
-        <v>4.3532999999999999</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5">
-        <v>2544</v>
+        <v>9350</v>
       </c>
       <c r="E6" s="5">
-        <v>2544</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>7947.5</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5">
-        <v>4.4865000000000004</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
-        <v>1113</v>
+        <v>2550</v>
       </c>
       <c r="E7" s="5">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>556.5</v>
+        <v>2167.5</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5">
-        <v>6.7530000000000001</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5">
-        <v>1484</v>
+        <v>4250</v>
       </c>
       <c r="E8" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>742</v>
+        <v>3612.5</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5">
-        <v>5.8535000000000004</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5">
-        <v>1484</v>
+        <v>1275</v>
       </c>
       <c r="E9" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>742</v>
+        <v>1083.75</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5">
-        <v>8.3862000000000005</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5">
-        <v>1855</v>
+        <v>34000</v>
       </c>
       <c r="E10" s="5">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>927.5</v>
+        <v>28900</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5">
-        <v>1.1623000000000001</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5">
-        <v>593.6</v>
+        <v>13600</v>
       </c>
       <c r="E11" s="5">
-        <v>593.6</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>296.8</v>
+        <v>11560</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5">
-        <v>2544</v>
+        <v>22100</v>
       </c>
       <c r="E12" s="5">
-        <v>2544</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <v>18785</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>33.993899999999996</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5">
-        <v>7632</v>
+        <v>25500</v>
       </c>
       <c r="E13" s="5">
-        <v>7632</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>3816</v>
+        <v>21675</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
-        <v>2862</v>
+        <v>3400</v>
       </c>
       <c r="E14" s="5">
-        <v>2862</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>1590</v>
+        <v>2890</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5">
-        <v>8.8890999999999991</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
-        <v>3710</v>
+        <v>2550</v>
       </c>
       <c r="E15" s="5">
-        <v>3710</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>1060</v>
+        <v>2167.5</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5">
-        <v>10.562200000000001</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5">
-        <v>4452</v>
+        <v>2550</v>
       </c>
       <c r="E16" s="5">
-        <v>4452</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>2120</v>
+        <v>2167.5</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>9.7065000000000001</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5">
-        <v>2597</v>
+        <v>1700</v>
       </c>
       <c r="E17" s="5">
-        <v>2597</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>1558.2</v>
+        <v>1445</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
-        <v>6.8177000000000003</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5">
-        <v>1855</v>
+        <v>1275</v>
       </c>
       <c r="E18" s="5">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>1113</v>
+        <v>1083.75</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5">
-        <v>5.1849999999999996</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>890.4</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5">
-        <v>9.9930000000000003</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5">
-        <v>7.3513999999999999</v>
+        <v>272</v>
       </c>
       <c r="D21" s="5">
-        <v>1484</v>
+        <v>46750</v>
       </c>
       <c r="E21" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>890.4</v>
+        <v>39737.5</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5">
-        <v>10.5106</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5">
-        <v>1855</v>
+        <v>3825</v>
       </c>
       <c r="E22" s="5">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>1113</v>
+        <v>3251.25</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5">
-        <v>6.0502000000000002</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5">
-        <v>1855</v>
+        <v>2380</v>
       </c>
       <c r="E23" s="5">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>1113</v>
+        <v>2023</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5">
-        <v>10.18</v>
+        <v>10</v>
       </c>
       <c r="D24" s="5">
-        <v>1484</v>
+        <v>4250</v>
       </c>
       <c r="E24" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>890.4</v>
+        <v>3612.5</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5">
-        <v>6.8301999999999996</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5">
-        <v>1113</v>
+        <v>5100</v>
       </c>
       <c r="E25" s="5">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5">
-        <v>667.8</v>
+        <v>4335</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C26" s="5">
-        <v>9.3675999999999995</v>
+        <v>13</v>
       </c>
       <c r="D26" s="5">
-        <v>2226</v>
+        <v>4080</v>
       </c>
       <c r="E26" s="5">
-        <v>2226</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>1335.6</v>
+        <v>3468</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5">
-        <v>12.4968</v>
+        <v>7</v>
       </c>
       <c r="D27" s="5">
-        <v>1855</v>
+        <v>2380</v>
       </c>
       <c r="E27" s="5">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5">
-        <v>1113</v>
+        <v>2023</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C28" s="5">
-        <v>11.2096</v>
+        <v>6</v>
       </c>
       <c r="D28" s="5">
-        <v>2226</v>
+        <v>2550</v>
       </c>
       <c r="E28" s="5">
-        <v>2226</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>1335.6</v>
+        <v>2167.5</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C29" s="5">
-        <v>8.3079999999999998</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5">
-        <v>1484</v>
+        <v>17000</v>
       </c>
       <c r="E29" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F29" s="5">
-        <v>890.4</v>
+        <v>14450</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C30" s="5">
-        <v>7.6726999999999999</v>
+        <v>52</v>
       </c>
       <c r="D30" s="5">
-        <v>1484</v>
+        <v>15300</v>
       </c>
       <c r="E30" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5">
-        <v>890.4</v>
+        <v>13005</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C31" s="5">
-        <v>6.8155999999999999</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5">
-        <v>1113</v>
+        <v>8500</v>
       </c>
       <c r="E31" s="5">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
-        <v>667.8</v>
+        <v>7225</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C32" s="5">
-        <v>2.6061999999999999</v>
+        <v>21</v>
       </c>
       <c r="D32" s="5">
-        <v>1113</v>
+        <v>7225</v>
       </c>
       <c r="E32" s="5">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>667.8</v>
+        <v>6141.25</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
@@ -2291,962 +2177,1194 @@
         <v>140</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C33" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D33" s="5">
-        <v>6307</v>
+        <v>2975</v>
       </c>
       <c r="E33" s="5">
-        <v>6307</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>4240</v>
+        <v>2528.75</v>
       </c>
       <c r="G33" s="5">
         <v>0</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C34" s="5">
-        <v>5.5019999999999998</v>
+        <v>17</v>
       </c>
       <c r="D34" s="5">
-        <v>1484</v>
+        <v>2890</v>
       </c>
       <c r="E34" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F34" s="5">
-        <v>890.4</v>
+        <v>2456.5</v>
       </c>
       <c r="G34" s="5">
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C35" s="5">
-        <v>7.2770000000000001</v>
+        <v>11</v>
       </c>
       <c r="D35" s="5">
-        <v>1484</v>
+        <v>2550</v>
       </c>
       <c r="E35" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F35" s="5">
-        <v>890.4</v>
+        <v>2167.5</v>
       </c>
       <c r="G35" s="5">
         <v>0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C36" s="5">
-        <v>0.8458</v>
+        <v>4</v>
       </c>
       <c r="D36" s="5">
-        <v>742</v>
+        <v>1955</v>
       </c>
       <c r="E36" s="5">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>445.2</v>
+        <v>1661.75</v>
       </c>
       <c r="G36" s="5">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5">
-        <v>8.7812999999999999</v>
+        <v>55</v>
       </c>
       <c r="D37" s="5">
-        <v>1696</v>
+        <v>34000</v>
       </c>
       <c r="E37" s="5">
-        <v>1696</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>28900</v>
       </c>
       <c r="G37" s="5">
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C38" s="5">
-        <v>6.8221999999999996</v>
+        <v>30</v>
       </c>
       <c r="D38" s="5">
-        <v>1484</v>
+        <v>10200</v>
       </c>
       <c r="E38" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>890.4</v>
+        <v>8670</v>
       </c>
       <c r="G38" s="5">
         <v>0</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C39" s="5">
-        <v>2.5950000000000002</v>
+        <v>29</v>
       </c>
       <c r="D39" s="5">
-        <v>890.4</v>
+        <v>6800</v>
       </c>
       <c r="E39" s="5">
-        <v>890.4</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5">
-        <v>445.2</v>
+        <v>5780</v>
       </c>
       <c r="G39" s="5">
         <v>0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C40" s="5">
-        <v>4.9476000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="D40" s="5">
-        <v>1484</v>
+        <v>2635</v>
       </c>
       <c r="E40" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5">
-        <v>742</v>
+        <v>2239.75</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5">
-        <v>5.5362999999999998</v>
+        <v>4</v>
       </c>
       <c r="D41" s="5">
-        <v>1484</v>
+        <v>1955</v>
       </c>
       <c r="E41" s="5">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F41" s="5">
-        <v>742</v>
+        <v>1661.75</v>
       </c>
       <c r="G41" s="5">
         <v>0</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C42" s="5">
-        <v>2.9339</v>
+        <v>4</v>
       </c>
       <c r="D42" s="5">
-        <v>742</v>
+        <v>1615</v>
       </c>
       <c r="E42" s="5">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <v>445.2</v>
+        <v>1372.75</v>
       </c>
       <c r="G42" s="5">
         <v>0</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C43" s="5">
-        <v>14.847099999999999</v>
+        <v>10</v>
       </c>
       <c r="D43" s="5">
-        <v>1590</v>
+        <v>5780</v>
       </c>
       <c r="E43" s="5">
-        <v>1590</v>
+        <v>0</v>
       </c>
       <c r="F43" s="5">
-        <v>954</v>
+        <v>4913</v>
       </c>
       <c r="G43" s="5">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C44" s="5">
-        <v>8.4971999999999994</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5">
-        <v>1272</v>
+        <v>10030</v>
       </c>
       <c r="E44" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5">
-        <v>763.2</v>
+        <v>8525.5</v>
       </c>
       <c r="G44" s="5">
         <v>0</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C45" s="5">
-        <v>9.5457000000000001</v>
+        <v>0</v>
       </c>
       <c r="D45" s="5">
-        <v>1272</v>
+        <v>5780</v>
       </c>
       <c r="E45" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F45" s="5">
-        <v>763.2</v>
+        <v>4913</v>
       </c>
       <c r="G45" s="5">
         <v>0</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C46" s="5">
-        <v>5.4741999999999997</v>
+        <v>0</v>
       </c>
       <c r="D46" s="5">
-        <v>1272</v>
+        <v>25500</v>
       </c>
       <c r="E46" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F46" s="5">
-        <v>508.8</v>
+        <v>21675</v>
       </c>
       <c r="G46" s="5">
         <v>0</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C47" s="5">
-        <v>4.5590000000000002</v>
+        <v>0</v>
       </c>
       <c r="D47" s="5">
-        <v>1272</v>
+        <v>17000</v>
       </c>
       <c r="E47" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F47" s="5">
-        <v>508.8</v>
+        <v>14450</v>
       </c>
       <c r="G47" s="5">
         <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C48" s="5">
-        <v>4.0641999999999996</v>
+        <v>0</v>
       </c>
       <c r="D48" s="5">
-        <v>1272</v>
+        <v>12750</v>
       </c>
       <c r="E48" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F48" s="5">
-        <v>508.8</v>
+        <v>10837.5</v>
       </c>
       <c r="G48" s="5">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C49" s="5">
-        <v>5.681</v>
+        <v>0</v>
       </c>
       <c r="D49" s="5">
-        <v>1272</v>
+        <v>13175</v>
       </c>
       <c r="E49" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F49" s="5">
-        <v>508.8</v>
+        <v>11198.75</v>
       </c>
       <c r="G49" s="5">
         <v>0</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C50" s="5">
-        <v>5.6828000000000003</v>
+        <v>0</v>
       </c>
       <c r="D50" s="5">
-        <v>1272</v>
+        <v>3570</v>
       </c>
       <c r="E50" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F50" s="5">
-        <v>508.8</v>
+        <v>3034.5</v>
       </c>
       <c r="G50" s="5">
         <v>0</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="C51" s="5">
-        <v>7.8651999999999997</v>
+        <v>0</v>
       </c>
       <c r="D51" s="5">
-        <v>1272</v>
+        <v>2975</v>
       </c>
       <c r="E51" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F51" s="5">
-        <v>508.8</v>
+        <v>2528.75</v>
       </c>
       <c r="G51" s="5">
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" s="5">
-        <v>2.9676</v>
+        <v>0</v>
       </c>
       <c r="D52" s="5">
-        <v>1144.8</v>
+        <v>5525</v>
       </c>
       <c r="E52" s="5">
-        <v>1144.8</v>
+        <v>0</v>
       </c>
       <c r="F52" s="5">
-        <v>763.2</v>
+        <v>4696.25</v>
       </c>
       <c r="G52" s="5">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" s="5">
-        <v>4.4169999999999998</v>
+        <v>0</v>
       </c>
       <c r="D53" s="5">
-        <v>1272</v>
+        <v>2278</v>
       </c>
       <c r="E53" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F53" s="5">
-        <v>508.8</v>
+        <v>1936.3</v>
       </c>
       <c r="G53" s="5">
         <v>0</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="5">
-        <v>6.2676999999999996</v>
+        <v>0</v>
       </c>
       <c r="D54" s="5">
-        <v>1272</v>
+        <v>2278</v>
       </c>
       <c r="E54" s="5">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="F54" s="5">
-        <v>508.8</v>
+        <v>1936.3</v>
       </c>
       <c r="G54" s="5">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" s="5">
-        <v>1.6088</v>
+        <v>0</v>
       </c>
       <c r="D55" s="5">
-        <v>1144.8</v>
+        <v>1683</v>
       </c>
       <c r="E55" s="5">
-        <v>1144.8</v>
+        <v>0</v>
       </c>
       <c r="F55" s="5">
-        <v>572.4</v>
+        <v>1430.55</v>
       </c>
       <c r="G55" s="5">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J55" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>163</v>
+      <c r="B56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5100</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>4335</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4462.5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>3793.125</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4462.5</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3793.125</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3315</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2817.75</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2932.5</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2492.625</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2932.5</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2492.625</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>10200</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>8670</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>12750</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>10837.5</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="174">
   <si>
     <t>名称</t>
   </si>
@@ -66,382 +66,484 @@
     <t>校园</t>
   </si>
   <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>中农微生活</t>
-  </si>
-  <si>
-    <t>zhongnongmoon</t>
-  </si>
-  <si>
-    <t>北林助手Pro</t>
-  </si>
-  <si>
-    <t>bjfu_hand</t>
-  </si>
-  <si>
-    <t>微北航</t>
-  </si>
-  <si>
-    <t>jndxlwz</t>
-  </si>
-  <si>
-    <t>青年北师</t>
-  </si>
-  <si>
-    <t>youth_bjnu</t>
-  </si>
-  <si>
-    <t>北交助手</t>
-  </si>
-  <si>
-    <t>bjtu-assistant</t>
-  </si>
-  <si>
-    <t>梦起央财</t>
-  </si>
-  <si>
-    <t>yangcai759</t>
-  </si>
-  <si>
-    <t>北体联盟</t>
-  </si>
-  <si>
-    <t>beitilianmeng</t>
-  </si>
-  <si>
-    <t>中传小萌</t>
-  </si>
-  <si>
-    <t>gh_eecfl16fd4278</t>
-  </si>
-  <si>
-    <t>gh_d41f1c8e688a </t>
-  </si>
-  <si>
-    <t>北工小助手</t>
-  </si>
-  <si>
-    <t>beigongxiaozhushou</t>
-  </si>
-  <si>
-    <t>中传之声</t>
-  </si>
-  <si>
-    <t>zczs2004</t>
-  </si>
-  <si>
-    <t>北邮小管家</t>
-  </si>
-  <si>
-    <t>beiyouxiaoguanjia</t>
-  </si>
-  <si>
-    <t>北交微生活</t>
-  </si>
-  <si>
-    <t>muqing_LDQ</t>
-  </si>
-  <si>
-    <t>北交小灯神</t>
-  </si>
-  <si>
-    <t>bj--xds</t>
-  </si>
-  <si>
-    <t>口袋北航</t>
-  </si>
-  <si>
-    <t>xfj-bh</t>
-  </si>
-  <si>
-    <t>青春北理工</t>
-  </si>
-  <si>
-    <t>YouthBeili</t>
-  </si>
-  <si>
-    <t>北工大助手</t>
-  </si>
-  <si>
-    <t>gh_10416f7110b7</t>
-  </si>
-  <si>
-    <t>北建筑大助手</t>
-  </si>
-  <si>
-    <t>gh_b60591cfa529</t>
-  </si>
-  <si>
-    <t>北印小生</t>
-  </si>
-  <si>
-    <t>gh_a5ebe433d7aa</t>
-  </si>
-  <si>
-    <t>北工大的小栈</t>
-  </si>
-  <si>
-    <t>beigongdadexiaozhan</t>
-  </si>
-  <si>
-    <t>北理微资讯</t>
-  </si>
-  <si>
-    <t>beiliweizixun</t>
-  </si>
-  <si>
-    <t>北航小狐狸</t>
-  </si>
-  <si>
-    <t>yhw945525029</t>
-  </si>
-  <si>
-    <t>青春华师</t>
-  </si>
-  <si>
-    <t>HuaShiYouth</t>
-  </si>
-  <si>
-    <t>青春上大</t>
-  </si>
-  <si>
-    <t>YouthVitality</t>
-  </si>
-  <si>
-    <t>上电助手</t>
-  </si>
-  <si>
-    <t>gh_0c0238ac2d60</t>
-  </si>
-  <si>
-    <t>邯郸路220号</t>
-  </si>
-  <si>
-    <t>handanlu220hao</t>
-  </si>
-  <si>
-    <t>东华青年</t>
-  </si>
-  <si>
-    <t>donghuaqingnian</t>
-  </si>
-  <si>
-    <t>华东理工咨询台</t>
-  </si>
-  <si>
-    <t>hdlgzxt</t>
-  </si>
-  <si>
-    <t>上交助手</t>
-  </si>
-  <si>
-    <t>zhangyueaifeng1314</t>
-  </si>
-  <si>
-    <t>上交大瞭望站</t>
-  </si>
-  <si>
-    <t>hongahei_</t>
-  </si>
-  <si>
-    <t>上大助手</t>
-  </si>
-  <si>
-    <t>shu-assistant</t>
-  </si>
-  <si>
-    <t>华东师大小助手</t>
-  </si>
-  <si>
-    <t>huadongshifan123</t>
-  </si>
-  <si>
-    <t>广州高校恋爱脱单</t>
-  </si>
-  <si>
-    <t>lovegzxz</t>
-  </si>
-  <si>
-    <t>青年广大</t>
-  </si>
-  <si>
-    <t>qingnianguangda</t>
-  </si>
-  <si>
-    <t>中大微生活Pro</t>
-  </si>
-  <si>
-    <t>zdwshpro</t>
-  </si>
-  <si>
-    <t>i广大</t>
-  </si>
-  <si>
-    <t>tllwta</t>
-  </si>
-  <si>
-    <t>浙大Uknow</t>
-  </si>
-  <si>
-    <t>ko15845789801</t>
-  </si>
-  <si>
-    <t>助力南开</t>
-  </si>
-  <si>
-    <t>zhulinankai</t>
-  </si>
-  <si>
-    <t>印象南大</t>
-  </si>
-  <si>
-    <t>yinxiangnanda</t>
-  </si>
-  <si>
-    <t>武传小助手</t>
-  </si>
-  <si>
-    <t>hangshixzs</t>
-  </si>
-  <si>
-    <t>湖大助手</t>
-  </si>
-  <si>
-    <t>hudazhushou</t>
-  </si>
-  <si>
-    <t>川媒小助手</t>
-  </si>
-  <si>
-    <t>XIYEMYSTICWE</t>
-  </si>
-  <si>
-    <t>西南交大加油站</t>
-  </si>
-  <si>
-    <t>xnjd2017</t>
-  </si>
-  <si>
-    <t>成电瞭望者</t>
-  </si>
-  <si>
-    <t>xida_liaowang</t>
-  </si>
-  <si>
-    <t>西大社联</t>
-  </si>
-  <si>
-    <t>xdsl521314</t>
-  </si>
-  <si>
-    <t>黑大大喇叭</t>
-  </si>
-  <si>
-    <t>heida1942</t>
-  </si>
-  <si>
-    <t>理工小火车</t>
-  </si>
-  <si>
-    <t>gh_236c563d0633</t>
-  </si>
-  <si>
-    <t>东农Yooooo</t>
-  </si>
-  <si>
-    <t>gh_32040d53e365</t>
-  </si>
-  <si>
-    <t>吉大小助手</t>
-  </si>
-  <si>
-    <t>zhushoujida</t>
-  </si>
-  <si>
-    <t>厦大小喇叭</t>
-  </si>
-  <si>
-    <t>xdxlb</t>
-  </si>
-  <si>
-    <t>东师小邮箱</t>
-  </si>
-  <si>
-    <t>dbsd521</t>
-  </si>
-  <si>
-    <t>i山大pro</t>
-  </si>
-  <si>
-    <t>xiaohuochetututu1</t>
-  </si>
-  <si>
-    <t>南昌小灵通</t>
-  </si>
-  <si>
-    <t>nanczn</t>
-  </si>
-  <si>
     <t>北京</t>
   </si>
   <si>
     <t>上海</t>
   </si>
   <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
     <t>天津</t>
   </si>
   <si>
     <t>武汉</t>
   </si>
   <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>哈尔滨</t>
-  </si>
-  <si>
-    <t>长春</t>
-  </si>
-  <si>
-    <t>厦门</t>
-  </si>
-  <si>
-    <t>吉林</t>
-  </si>
-  <si>
-    <t>济南</t>
-  </si>
-  <si>
-    <t>南昌</t>
-  </si>
-  <si>
-    <t>X1809171735396046</t>
-  </si>
-  <si>
-    <t>八折不删搞</t>
-  </si>
-  <si>
-    <t>BUAA小天地</t>
-  </si>
-  <si>
-    <t>郭艺婷</t>
-  </si>
-  <si>
-    <t>X1712181337340002</t>
+    <t>西大那点事</t>
+  </si>
+  <si>
+    <t>nwu029</t>
+  </si>
+  <si>
+    <t>西交大那点事</t>
+  </si>
+  <si>
+    <t>xjtu029</t>
+  </si>
+  <si>
+    <t>西工大那点事</t>
+  </si>
+  <si>
+    <t>nwpu_welife</t>
+  </si>
+  <si>
+    <t>西邮那点事</t>
+  </si>
+  <si>
+    <t>xiyou029</t>
+  </si>
+  <si>
+    <t>西法大那点事</t>
+  </si>
+  <si>
+    <t>nwupl029</t>
+  </si>
+  <si>
+    <t>西外那点事</t>
+  </si>
+  <si>
+    <t>xisu029</t>
+  </si>
+  <si>
+    <t>陕科大那点事</t>
+  </si>
+  <si>
+    <t>sust029</t>
+  </si>
+  <si>
+    <t>西建大那点事</t>
+  </si>
+  <si>
+    <t>xauat029</t>
+  </si>
+  <si>
+    <t>西理工那点事</t>
+  </si>
+  <si>
+    <t>xaut029</t>
+  </si>
+  <si>
+    <t>西财那点事</t>
+  </si>
+  <si>
+    <t>xaufe029</t>
+  </si>
+  <si>
+    <t>闪star那点事</t>
+  </si>
+  <si>
+    <t>snnu029</t>
+  </si>
+  <si>
+    <t>西科大那点事</t>
+  </si>
+  <si>
+    <t>xust029</t>
+  </si>
+  <si>
+    <t>武大微生活</t>
+  </si>
+  <si>
+    <t>whu008</t>
+  </si>
+  <si>
+    <t>中南民大微生活</t>
+  </si>
+  <si>
+    <t>scuec001</t>
+  </si>
+  <si>
+    <t>天师大微生活</t>
+  </si>
+  <si>
+    <t>tjnu001</t>
+  </si>
+  <si>
+    <t>天财微生活</t>
+  </si>
+  <si>
+    <t>tjufe001</t>
+  </si>
+  <si>
+    <t>天科大微生活</t>
+  </si>
+  <si>
+    <t>tuli888</t>
+  </si>
+  <si>
+    <t>天大微生活</t>
+  </si>
+  <si>
+    <t>tju100</t>
+  </si>
+  <si>
+    <t>河工大微生活</t>
+  </si>
+  <si>
+    <t>hebut001</t>
+  </si>
+  <si>
+    <t>中航大微生活</t>
+  </si>
+  <si>
+    <t>cauc001</t>
+  </si>
+  <si>
+    <t>南开微生活</t>
+  </si>
+  <si>
+    <t>nankai008</t>
+  </si>
+  <si>
+    <t>华东师大微生活</t>
+  </si>
+  <si>
+    <t>ecnu001</t>
+  </si>
+  <si>
+    <t>上海交大微生活</t>
+  </si>
+  <si>
+    <t>sjtu008</t>
+  </si>
+  <si>
+    <t>上大微生活</t>
+  </si>
+  <si>
+    <t>shu-006</t>
+  </si>
+  <si>
+    <t>上财微生活</t>
+  </si>
+  <si>
+    <t>shufe001</t>
+  </si>
+  <si>
+    <t>同济微生活</t>
+  </si>
+  <si>
+    <t>tongji006</t>
+  </si>
+  <si>
+    <t>复旦微生活</t>
+  </si>
+  <si>
+    <t>fudan009</t>
+  </si>
+  <si>
+    <t>北理微生活</t>
+  </si>
+  <si>
+    <t>bit_welife</t>
+  </si>
+  <si>
+    <t>中央民大微生活</t>
+  </si>
+  <si>
+    <t>muc_welife</t>
+  </si>
+  <si>
+    <t>法大微生活</t>
+  </si>
+  <si>
+    <t>cupl_welife</t>
+  </si>
+  <si>
+    <t>清华微生活</t>
+  </si>
+  <si>
+    <t>tsinghua_welife</t>
+  </si>
+  <si>
+    <t>北大微生活</t>
+  </si>
+  <si>
+    <t>pku_welife</t>
+  </si>
+  <si>
+    <t>北交大微生活</t>
+  </si>
+  <si>
+    <t>bjtu_welife</t>
+  </si>
+  <si>
+    <t>北工大微生活</t>
+  </si>
+  <si>
+    <t>bjut_welife</t>
+  </si>
+  <si>
+    <t>RUC微生活</t>
+  </si>
+  <si>
+    <t>ruc_welife</t>
+  </si>
+  <si>
+    <t>北化微生活</t>
+  </si>
+  <si>
+    <t>buct_welife</t>
+  </si>
+  <si>
+    <t>中国农大微生活</t>
+  </si>
+  <si>
+    <t>cau_welife</t>
+  </si>
+  <si>
+    <t>北航微生活</t>
+  </si>
+  <si>
+    <t>buaa_welife</t>
+  </si>
+  <si>
+    <t>北林微生活</t>
+  </si>
+  <si>
+    <t>bjfu-welife</t>
+  </si>
+  <si>
+    <t>地大微生活</t>
+  </si>
+  <si>
+    <t>cugb_welife</t>
+  </si>
+  <si>
+    <t>北城微生活</t>
+  </si>
+  <si>
+    <t>bcu008</t>
+  </si>
+  <si>
+    <t>首经贸微生活</t>
+  </si>
+  <si>
+    <t>cueb001</t>
+  </si>
+  <si>
+    <t>华电微生活</t>
+  </si>
+  <si>
+    <t>ncepu001</t>
+  </si>
+  <si>
+    <t>北邮微生活</t>
+  </si>
+  <si>
+    <t>bupt_welife</t>
+  </si>
+  <si>
+    <t>北师大微心语</t>
+  </si>
+  <si>
+    <t>bnu-we-life</t>
+  </si>
+  <si>
+    <t>贸大微生活</t>
+  </si>
+  <si>
+    <t>uibe_welife</t>
+  </si>
+  <si>
+    <t>宁大生活服务信息小秘书</t>
+  </si>
+  <si>
+    <t>nxu-fuwu</t>
+  </si>
+  <si>
+    <t>浙大校园助手</t>
+  </si>
+  <si>
+    <t>zju006</t>
+  </si>
+  <si>
+    <t>暨大小喇叭</t>
+  </si>
+  <si>
+    <t>jnu000</t>
+  </si>
+  <si>
+    <t>中大人er</t>
+  </si>
+  <si>
+    <t>sysu006</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>西北大学</t>
+  </si>
+  <si>
+    <t>西安交通大学</t>
+  </si>
+  <si>
+    <t>西北工业大学</t>
+  </si>
+  <si>
+    <t>西安邮电大学</t>
+  </si>
+  <si>
+    <t>西北政法大学</t>
+  </si>
+  <si>
+    <t>西安外国语大学</t>
+  </si>
+  <si>
+    <t>陕西科技大学</t>
+  </si>
+  <si>
+    <t>西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>西安理工大学</t>
+  </si>
+  <si>
+    <t>西安财经学院</t>
+  </si>
+  <si>
+    <t>陕西师范大学</t>
+  </si>
+  <si>
+    <t>西安科技大学</t>
+  </si>
+  <si>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>中南民族大学</t>
+  </si>
+  <si>
+    <t>天津师范大学</t>
+  </si>
+  <si>
+    <t>天津财经大学</t>
+  </si>
+  <si>
+    <t>天津科技大学</t>
+  </si>
+  <si>
+    <t>天津大学</t>
+  </si>
+  <si>
+    <t>河北工业大学</t>
+  </si>
+  <si>
+    <t>中国民航大学</t>
+  </si>
+  <si>
+    <t>南开大学</t>
+  </si>
+  <si>
+    <t>华东师范大学</t>
+  </si>
+  <si>
+    <t>上海交通大学</t>
+  </si>
+  <si>
+    <t>上海大学</t>
+  </si>
+  <si>
+    <t>上海财经大学</t>
+  </si>
+  <si>
+    <t>同济大学</t>
+  </si>
+  <si>
+    <t>复旦大学</t>
+  </si>
+  <si>
+    <t>北京理工大学</t>
+  </si>
+  <si>
+    <t>中央民族大学</t>
+  </si>
+  <si>
+    <t>中国政法大学</t>
+  </si>
+  <si>
+    <t>清华大学</t>
+  </si>
+  <si>
+    <t>北京大学</t>
+  </si>
+  <si>
+    <t>北京交通大学</t>
+  </si>
+  <si>
+    <t>北京工业大学</t>
+  </si>
+  <si>
+    <t>中国人民大学</t>
+  </si>
+  <si>
+    <t>北京化工大学</t>
+  </si>
+  <si>
+    <t>中国农业大学</t>
+  </si>
+  <si>
+    <t>北京航空航天大学</t>
+  </si>
+  <si>
+    <t>北京林业大学</t>
+  </si>
+  <si>
+    <t>北京中国地质大学</t>
+  </si>
+  <si>
+    <t>北京城市学院</t>
+  </si>
+  <si>
+    <t>首都经济贸易大学</t>
+  </si>
+  <si>
+    <t>华北电力大学</t>
+  </si>
+  <si>
+    <t>北京邮电大学</t>
+  </si>
+  <si>
+    <t>北京师范大学</t>
+  </si>
+  <si>
+    <t>对外经济贸易大学</t>
+  </si>
+  <si>
+    <t>宁夏大学</t>
+  </si>
+  <si>
+    <t>浙江大学</t>
+  </si>
+  <si>
+    <t>暨南大学</t>
+  </si>
+  <si>
+    <t>中山大学</t>
+  </si>
+  <si>
+    <t>X1809201014471195</t>
+  </si>
+  <si>
+    <t>刘汉梅</t>
+  </si>
+  <si>
+    <t>X1712181403400031</t>
   </si>
 </sst>
 </file>
@@ -884,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -951,643 +1053,643 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>560</v>
+        <v>850</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>560</v>
+        <v>318</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>490</v>
+        <v>372</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>490</v>
+        <v>270</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>480</v>
+        <v>770</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>560</v>
+        <v>650</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>640</v>
+        <v>450</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>560</v>
+        <v>270</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>560</v>
+        <v>670</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>490</v>
+        <v>402</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>630</v>
+        <v>444</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>640</v>
+        <v>1030</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>720</v>
+        <v>860</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>630</v>
+        <v>516</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>480</v>
+        <v>710</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>13</v>
@@ -1596,935 +1698,935 @@
         <v>136</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>480</v>
+        <v>670</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>480</v>
+        <v>1070</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>420</v>
+        <v>642</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>560</v>
+        <v>740</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>560</v>
+        <v>930</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>490</v>
+        <v>348</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>640</v>
+        <v>870</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>320</v>
+        <v>530</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>560</v>
+        <v>1010</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>490</v>
+        <v>606</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>560</v>
+        <v>930</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>480</v>
+        <v>1050</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>420</v>
+        <v>630</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>560</v>
+        <v>790</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>480</v>
+        <v>670</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>480</v>
+        <v>1260</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>420</v>
+        <v>756</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>640</v>
+        <v>1120</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>560</v>
+        <v>672</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>640</v>
+        <v>870</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>480</v>
+        <v>810</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>480</v>
+        <v>1040</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>420</v>
+        <v>624</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>560</v>
+        <v>438</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>480</v>
+        <v>1180</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>420</v>
+        <v>708</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>480</v>
+        <v>850</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2536,590 +2638,461 @@
         <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>420</v>
+        <v>312</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>560</v>
+        <v>444</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>560</v>
+        <v>1140</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>490</v>
+        <v>684</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>560</v>
+        <v>950</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
+        <v>800</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>480</v>
       </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>420</v>
-      </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>400</v>
+        <v>1060</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>350</v>
+        <v>636</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>560</v>
+        <v>318</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="I50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>560</v>
+        <v>490</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>490</v>
+        <v>294</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>480</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>420</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="D53" s="1">
-        <v>640</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>560</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D54" s="1">
-        <v>480</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>420</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
   <si>
     <t>名称</t>
   </si>
@@ -63,223 +63,347 @@
     <t>归属2</t>
   </si>
   <si>
-    <t>ZEZ9394</t>
-  </si>
-  <si>
-    <t>木汁</t>
-  </si>
-  <si>
-    <t>sakusaku0610</t>
-  </si>
-  <si>
-    <t>糖罐小妈</t>
-  </si>
-  <si>
-    <t>Sugartchi</t>
-  </si>
-  <si>
-    <t>长腿欧妈</t>
-  </si>
-  <si>
-    <t>changtuiouma</t>
-  </si>
-  <si>
-    <t>喃喃麻麻</t>
-  </si>
-  <si>
-    <t>nannanmamij</t>
-  </si>
-  <si>
-    <t>Miumiu妈</t>
-  </si>
-  <si>
-    <t>miumiuMom_</t>
-  </si>
-  <si>
-    <t>爆灯TV</t>
-  </si>
-  <si>
-    <t>baodengtv</t>
-  </si>
-  <si>
-    <t>妖猴电影</t>
-  </si>
-  <si>
-    <t>yaohoumovie</t>
-  </si>
-  <si>
-    <t>三个影评人</t>
-  </si>
-  <si>
-    <t>sangeyingpingren</t>
-  </si>
-  <si>
-    <t>由这性子</t>
-  </si>
-  <si>
-    <t>u-self</t>
-  </si>
-  <si>
-    <t>晒北一美</t>
-  </si>
-  <si>
-    <t>shaibeiyimei</t>
-  </si>
-  <si>
-    <t>丝带儿缝纫机</t>
-  </si>
-  <si>
-    <t>stylesewing</t>
-  </si>
-  <si>
-    <t>西里小黑裙</t>
-  </si>
-  <si>
-    <t>SIRIY_Lee</t>
-  </si>
-  <si>
-    <t>doumiaodiantai</t>
-  </si>
-  <si>
-    <t>shizipeini</t>
-  </si>
-  <si>
-    <t>daibanli520</t>
-  </si>
-  <si>
-    <t>南叙先生</t>
-  </si>
-  <si>
-    <t>nanxu668</t>
-  </si>
-  <si>
-    <t>喵姐札记</t>
-  </si>
-  <si>
-    <t>miaojiezhaji</t>
-  </si>
-  <si>
-    <t>少年怒马</t>
-  </si>
-  <si>
-    <t>numa0827</t>
-  </si>
-  <si>
-    <t>桂公梓</t>
-  </si>
-  <si>
-    <t>guigongzi930</t>
-  </si>
-  <si>
-    <t>剑圣喵大师</t>
-  </si>
-  <si>
-    <t>swordpain</t>
-  </si>
-  <si>
-    <t>有故事的桌子</t>
-  </si>
-  <si>
-    <t>zhuozigushi</t>
-  </si>
-  <si>
-    <t>牛头耿</t>
-  </si>
-  <si>
-    <t>nakaji22</t>
-  </si>
-  <si>
-    <t>胡呜昂</t>
-  </si>
-  <si>
-    <t>hoowooah</t>
-  </si>
-  <si>
-    <t>OhBoyDaily</t>
-  </si>
-  <si>
-    <t>ohboydaily</t>
-  </si>
-  <si>
-    <t>执翻剂</t>
-  </si>
-  <si>
-    <t>ZFZ9395</t>
-  </si>
-  <si>
-    <t>唐绮阳看星星</t>
-  </si>
-  <si>
-    <t>JesseTang11</t>
-  </si>
-  <si>
-    <t>楚老板</t>
-  </si>
-  <si>
-    <t>chulaobanbb</t>
-  </si>
-  <si>
-    <t>影视，娱乐</t>
-  </si>
-  <si>
-    <t>情感，娱乐，女性时尚，生活</t>
-  </si>
-  <si>
-    <t>母婴，女性时尚，情感</t>
-  </si>
-  <si>
-    <t>影视，娱乐，女性时尚</t>
-  </si>
-  <si>
-    <t>女性时尚，生活</t>
-  </si>
-  <si>
-    <t>文学文化，情感，生活</t>
-  </si>
-  <si>
-    <t>生活，情感，美食</t>
-  </si>
-  <si>
-    <t>文学文化，生活，女性时尚</t>
-  </si>
-  <si>
-    <t>文学文化，生活，财经</t>
-  </si>
-  <si>
-    <t>文学文化，情感，段子手，漫画</t>
-  </si>
-  <si>
     <t>生活</t>
   </si>
   <si>
-    <t>星座，文学文化，情感，生活</t>
-  </si>
-  <si>
-    <t>财经，生活，文学文化</t>
-  </si>
-  <si>
-    <t>9折折后价</t>
-  </si>
-  <si>
-    <t>X1801162014460015</t>
-  </si>
-  <si>
-    <t>胡江超</t>
-  </si>
-  <si>
-    <t>X1712181337040001</t>
-  </si>
-  <si>
-    <t>蒲街坊</t>
-  </si>
-  <si>
-    <t>豆苗呀</t>
-  </si>
-  <si>
-    <t>狮子陪我</t>
-  </si>
-  <si>
-    <t>呆板栗</t>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>今日财经资讯榜</t>
+  </si>
+  <si>
+    <t>todaycjzx</t>
+  </si>
+  <si>
+    <t>财经扒一扒</t>
+  </si>
+  <si>
+    <t>cjbyib </t>
+  </si>
+  <si>
+    <t>财经热话题</t>
+  </si>
+  <si>
+    <t>caijrhti</t>
+  </si>
+  <si>
+    <t>财经扒爷</t>
+  </si>
+  <si>
+    <t>caijquan</t>
+  </si>
+  <si>
+    <t>成都吃喝玩乐圈</t>
+  </si>
+  <si>
+    <t>cdchwlq</t>
+  </si>
+  <si>
+    <t>成都热门生活圈</t>
+  </si>
+  <si>
+    <t>cdrmshq</t>
+  </si>
+  <si>
+    <t>校园潮流热点</t>
+  </si>
+  <si>
+    <t>xyclrd</t>
+  </si>
+  <si>
+    <t>校园那一些事</t>
+  </si>
+  <si>
+    <t>xiaoynyxshi</t>
+  </si>
+  <si>
+    <t>武汉热门生活圏</t>
+  </si>
+  <si>
+    <t>whrmshq</t>
+  </si>
+  <si>
+    <t>武汉热门生活</t>
+  </si>
+  <si>
+    <t>jkresh </t>
+  </si>
+  <si>
+    <t>重庆吃喝玩乐圏</t>
+  </si>
+  <si>
+    <t>chongqchwlq</t>
+  </si>
+  <si>
+    <t>重庆微热点</t>
+  </si>
+  <si>
+    <t>chongqwrdian</t>
+  </si>
+  <si>
+    <t>天津热生活</t>
+  </si>
+  <si>
+    <t>tianjreshuo</t>
+  </si>
+  <si>
+    <t>天津潮流热点</t>
+  </si>
+  <si>
+    <t>tianjchlrdian</t>
+  </si>
+  <si>
+    <t>南京生活圏</t>
+  </si>
+  <si>
+    <t>nanjshhquan</t>
+  </si>
+  <si>
+    <t>南京生活那些事</t>
+  </si>
+  <si>
+    <t>nanjshnxshi</t>
+  </si>
+  <si>
+    <t>佛山生活热门资讯</t>
+  </si>
+  <si>
+    <t>fosshrmzxun</t>
+  </si>
+  <si>
+    <t>佛山生活圏</t>
+  </si>
+  <si>
+    <t>huanqrshpin</t>
+  </si>
+  <si>
+    <t>游戏动漫聚焦</t>
+  </si>
+  <si>
+    <t>youxdmjjiao</t>
+  </si>
+  <si>
+    <t>动漫游戏乐园</t>
+  </si>
+  <si>
+    <t>dmyxlyuan</t>
+  </si>
+  <si>
+    <t>动漫游戏基地</t>
+  </si>
+  <si>
+    <t>dongmyxjdi</t>
+  </si>
+  <si>
+    <t>体育热点聚焦</t>
+  </si>
+  <si>
+    <t>tiyrdjj</t>
+  </si>
+  <si>
+    <t>全球体育快讯</t>
+  </si>
+  <si>
+    <t>qqtykxun</t>
+  </si>
+  <si>
+    <t>西安热点资讯</t>
+  </si>
+  <si>
+    <t>xiardzxun</t>
+  </si>
+  <si>
+    <t>美食生活圏</t>
+  </si>
+  <si>
+    <t>meishquan</t>
+  </si>
+  <si>
+    <t>热美食热生活</t>
+  </si>
+  <si>
+    <t>todayrsh</t>
+  </si>
+  <si>
+    <t>厦门吃喝玩乐圏</t>
+  </si>
+  <si>
+    <t>xiamchwlq</t>
+  </si>
+  <si>
+    <t>厦门生活圏</t>
+  </si>
+  <si>
+    <t>rdzxsd</t>
+  </si>
+  <si>
+    <t>青岛热门资讯</t>
+  </si>
+  <si>
+    <t>qingdrmzxun</t>
+  </si>
+  <si>
+    <t>青岛吃喝玩乐圏</t>
+  </si>
+  <si>
+    <t>shzxsd</t>
+  </si>
+  <si>
+    <t>长沙潮流圏</t>
+  </si>
+  <si>
+    <t>cshclquan</t>
+  </si>
+  <si>
+    <t>长沙热资讯</t>
+  </si>
+  <si>
+    <t>hqdy888</t>
+  </si>
+  <si>
+    <t>哈尔滨吃喝玩乐游</t>
+  </si>
+  <si>
+    <t>yulrht </t>
+  </si>
+  <si>
+    <t>杭州吃喝玩乐游</t>
+  </si>
+  <si>
+    <t>hangzchwlyou</t>
+  </si>
+  <si>
+    <t>经典热音乐</t>
+  </si>
+  <si>
+    <t>redygc</t>
+  </si>
+  <si>
+    <t>汽车热门精选</t>
+  </si>
+  <si>
+    <t>qcrmjx</t>
+  </si>
+  <si>
+    <t>上海热门生活圈</t>
+  </si>
+  <si>
+    <t>shrmshq</t>
+  </si>
+  <si>
+    <t>深圳热门生活圈</t>
+  </si>
+  <si>
+    <t>szemshq</t>
+  </si>
+  <si>
+    <t>广州热门生活圈</t>
+  </si>
+  <si>
+    <t>gzrmshq</t>
+  </si>
+  <si>
+    <t>北京生活热点资讯</t>
+  </si>
+  <si>
+    <t>bjshrdzx</t>
+  </si>
+  <si>
+    <t>香港潮流资讯</t>
+  </si>
+  <si>
+    <t>gzdyzix</t>
+  </si>
+  <si>
+    <t>上海新鲜资讯</t>
+  </si>
+  <si>
+    <t>shxxzix</t>
+  </si>
+  <si>
+    <t>创意热家居</t>
+  </si>
+  <si>
+    <t>cyrjju</t>
+  </si>
+  <si>
+    <t>全球潮流圈</t>
+  </si>
+  <si>
+    <t>qqcliuquan </t>
+  </si>
+  <si>
+    <t>爱美白爱护肤</t>
+  </si>
+  <si>
+    <t>ambahf </t>
+  </si>
+  <si>
+    <t>全球流行热点</t>
+  </si>
+  <si>
+    <t>qqlxred </t>
+  </si>
+  <si>
+    <t>女郎微时尚</t>
+  </si>
+  <si>
+    <t> nvlwss </t>
+  </si>
+  <si>
+    <t>时尚热门生活</t>
+  </si>
+  <si>
+    <t>ssremsh </t>
+  </si>
+  <si>
+    <t>热门生活大搜罗</t>
+  </si>
+  <si>
+    <t> rmshdsl </t>
+  </si>
+  <si>
+    <t>北京热闻快讯</t>
+  </si>
+  <si>
+    <t>bjrwkx010</t>
+  </si>
+  <si>
+    <t>财经</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>校园</t>
+  </si>
+  <si>
+    <t>动画漫画</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>家居</t>
+  </si>
+  <si>
+    <t>时尚</t>
+  </si>
+  <si>
+    <t>X1712181738370070</t>
+  </si>
+  <si>
+    <t>刘汉梅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1712181403400031</t>
   </si>
 </sst>
 </file>
@@ -722,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -789,434 +913,401 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
-        <v>117000</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1">
-        <v>54000</v>
+        <v>2000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1">
-        <v>72000</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="D9" s="1">
-        <v>27000</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1228,627 +1319,1346 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>16200</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="D15" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1">
-        <v>10800</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="D18" s="1">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
-        <v>63000</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1">
-        <v>31500</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1">
-        <v>31500</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>25200</v>
+        <v>2000</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1">
-        <v>27000</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D28" s="1">
-        <v>36000</v>
+        <v>2000</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1">
+        <v>138</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="C33" s="1">
+        <v>73</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="C34" s="1">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1">
+        <v>254</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1">
+        <v>66</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1">
+        <v>168</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1">
+        <v>85</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="1">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="1">
+        <v>105</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1">
+        <v>95</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="104">
   <si>
     <t>名称</t>
   </si>
@@ -66,344 +66,274 @@
     <t>生活</t>
   </si>
   <si>
-    <t>美食</t>
-  </si>
-  <si>
-    <t>今日财经资讯榜</t>
-  </si>
-  <si>
-    <t>todaycjzx</t>
-  </si>
-  <si>
-    <t>财经扒一扒</t>
-  </si>
-  <si>
-    <t>cjbyib </t>
-  </si>
-  <si>
-    <t>财经热话题</t>
-  </si>
-  <si>
-    <t>caijrhti</t>
-  </si>
-  <si>
-    <t>财经扒爷</t>
-  </si>
-  <si>
-    <t>caijquan</t>
-  </si>
-  <si>
-    <t>成都吃喝玩乐圈</t>
-  </si>
-  <si>
-    <t>cdchwlq</t>
-  </si>
-  <si>
-    <t>成都热门生活圈</t>
-  </si>
-  <si>
-    <t>cdrmshq</t>
-  </si>
-  <si>
-    <t>校园潮流热点</t>
-  </si>
-  <si>
-    <t>xyclrd</t>
-  </si>
-  <si>
-    <t>校园那一些事</t>
-  </si>
-  <si>
-    <t>xiaoynyxshi</t>
-  </si>
-  <si>
-    <t>武汉热门生活圏</t>
-  </si>
-  <si>
-    <t>whrmshq</t>
-  </si>
-  <si>
-    <t>武汉热门生活</t>
-  </si>
-  <si>
-    <t>jkresh </t>
-  </si>
-  <si>
-    <t>重庆吃喝玩乐圏</t>
-  </si>
-  <si>
-    <t>chongqchwlq</t>
-  </si>
-  <si>
-    <t>重庆微热点</t>
-  </si>
-  <si>
-    <t>chongqwrdian</t>
-  </si>
-  <si>
-    <t>天津热生活</t>
-  </si>
-  <si>
-    <t>tianjreshuo</t>
-  </si>
-  <si>
-    <t>天津潮流热点</t>
-  </si>
-  <si>
-    <t>tianjchlrdian</t>
-  </si>
-  <si>
-    <t>南京生活圏</t>
-  </si>
-  <si>
-    <t>nanjshhquan</t>
-  </si>
-  <si>
-    <t>南京生活那些事</t>
-  </si>
-  <si>
-    <t>nanjshnxshi</t>
-  </si>
-  <si>
-    <t>佛山生活热门资讯</t>
-  </si>
-  <si>
-    <t>fosshrmzxun</t>
-  </si>
-  <si>
-    <t>佛山生活圏</t>
-  </si>
-  <si>
-    <t>huanqrshpin</t>
-  </si>
-  <si>
-    <t>游戏动漫聚焦</t>
-  </si>
-  <si>
-    <t>youxdmjjiao</t>
-  </si>
-  <si>
-    <t>动漫游戏乐园</t>
-  </si>
-  <si>
-    <t>dmyxlyuan</t>
-  </si>
-  <si>
-    <t>动漫游戏基地</t>
-  </si>
-  <si>
-    <t>dongmyxjdi</t>
-  </si>
-  <si>
-    <t>体育热点聚焦</t>
-  </si>
-  <si>
-    <t>tiyrdjj</t>
-  </si>
-  <si>
-    <t>全球体育快讯</t>
-  </si>
-  <si>
-    <t>qqtykxun</t>
-  </si>
-  <si>
-    <t>西安热点资讯</t>
-  </si>
-  <si>
-    <t>xiardzxun</t>
-  </si>
-  <si>
-    <t>美食生活圏</t>
-  </si>
-  <si>
-    <t>meishquan</t>
-  </si>
-  <si>
-    <t>热美食热生活</t>
-  </si>
-  <si>
-    <t>todayrsh</t>
-  </si>
-  <si>
-    <t>厦门吃喝玩乐圏</t>
-  </si>
-  <si>
-    <t>xiamchwlq</t>
-  </si>
-  <si>
-    <t>厦门生活圏</t>
-  </si>
-  <si>
-    <t>rdzxsd</t>
-  </si>
-  <si>
-    <t>青岛热门资讯</t>
-  </si>
-  <si>
-    <t>qingdrmzxun</t>
-  </si>
-  <si>
-    <t>青岛吃喝玩乐圏</t>
-  </si>
-  <si>
-    <t>shzxsd</t>
-  </si>
-  <si>
-    <t>长沙潮流圏</t>
-  </si>
-  <si>
-    <t>cshclquan</t>
-  </si>
-  <si>
-    <t>长沙热资讯</t>
-  </si>
-  <si>
-    <t>hqdy888</t>
-  </si>
-  <si>
-    <t>哈尔滨吃喝玩乐游</t>
-  </si>
-  <si>
-    <t>yulrht </t>
-  </si>
-  <si>
-    <t>杭州吃喝玩乐游</t>
-  </si>
-  <si>
-    <t>hangzchwlyou</t>
-  </si>
-  <si>
-    <t>经典热音乐</t>
-  </si>
-  <si>
-    <t>redygc</t>
-  </si>
-  <si>
-    <t>汽车热门精选</t>
-  </si>
-  <si>
-    <t>qcrmjx</t>
-  </si>
-  <si>
-    <t>上海热门生活圈</t>
-  </si>
-  <si>
-    <t>shrmshq</t>
-  </si>
-  <si>
-    <t>深圳热门生活圈</t>
-  </si>
-  <si>
-    <t>szemshq</t>
-  </si>
-  <si>
-    <t>广州热门生活圈</t>
-  </si>
-  <si>
-    <t>gzrmshq</t>
-  </si>
-  <si>
-    <t>北京生活热点资讯</t>
-  </si>
-  <si>
-    <t>bjshrdzx</t>
-  </si>
-  <si>
-    <t>香港潮流资讯</t>
-  </si>
-  <si>
-    <t>gzdyzix</t>
-  </si>
-  <si>
-    <t>上海新鲜资讯</t>
-  </si>
-  <si>
-    <t>shxxzix</t>
-  </si>
-  <si>
-    <t>创意热家居</t>
-  </si>
-  <si>
-    <t>cyrjju</t>
-  </si>
-  <si>
-    <t>全球潮流圈</t>
-  </si>
-  <si>
-    <t>qqcliuquan </t>
-  </si>
-  <si>
-    <t>爱美白爱护肤</t>
-  </si>
-  <si>
-    <t>ambahf </t>
-  </si>
-  <si>
-    <t>全球流行热点</t>
-  </si>
-  <si>
-    <t>qqlxred </t>
-  </si>
-  <si>
-    <t>女郎微时尚</t>
-  </si>
-  <si>
-    <t> nvlwss </t>
-  </si>
-  <si>
-    <t>时尚热门生活</t>
-  </si>
-  <si>
-    <t>ssremsh </t>
-  </si>
-  <si>
-    <t>热门生活大搜罗</t>
-  </si>
-  <si>
-    <t> rmshdsl </t>
-  </si>
-  <si>
-    <t>北京热闻快讯</t>
-  </si>
-  <si>
-    <t>bjrwkx010</t>
-  </si>
-  <si>
-    <t>财经</t>
-  </si>
-  <si>
     <t>地域</t>
   </si>
   <si>
-    <t>校园</t>
-  </si>
-  <si>
-    <t>动画漫画</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
     <t>汽车</t>
   </si>
   <si>
-    <t>家居</t>
-  </si>
-  <si>
-    <t>时尚</t>
-  </si>
-  <si>
-    <t>X1712181738370070</t>
+    <t>X1712181403400031</t>
+  </si>
+  <si>
+    <t>精彩广告</t>
+  </si>
+  <si>
+    <t>Jcaiad</t>
+  </si>
+  <si>
+    <t>广告也震惊</t>
+  </si>
+  <si>
+    <t>ADshock</t>
+  </si>
+  <si>
+    <t>上海吃喝玩乐</t>
+  </si>
+  <si>
+    <t>shch361</t>
+  </si>
+  <si>
+    <t>全球热门排行榜</t>
+  </si>
+  <si>
+    <t>savitop</t>
+  </si>
+  <si>
+    <t>全球娱乐八卦</t>
+  </si>
+  <si>
+    <t>yulebg88</t>
+  </si>
+  <si>
+    <t>娱乐热点</t>
+  </si>
+  <si>
+    <t>yulehotd</t>
+  </si>
+  <si>
+    <t>育儿亲子乐园</t>
+  </si>
+  <si>
+    <t>yueqzly</t>
+  </si>
+  <si>
+    <t>北京微生活</t>
+  </si>
+  <si>
+    <t>Bjwshuo</t>
+  </si>
+  <si>
+    <t>北京头条</t>
+  </si>
+  <si>
+    <t>bj-tt001</t>
+  </si>
+  <si>
+    <t>娱乐没有圈</t>
+  </si>
+  <si>
+    <t>yulemy000</t>
+  </si>
+  <si>
+    <t>全球热门事件</t>
+  </si>
+  <si>
+    <t>Hotevents</t>
+  </si>
+  <si>
+    <t>互联网新资讯</t>
+  </si>
+  <si>
+    <t>hlwnin</t>
+  </si>
+  <si>
+    <t>互联网分析沙龙</t>
+  </si>
+  <si>
+    <t>hlwsalon</t>
+  </si>
+  <si>
+    <t>健康养生秘诀</t>
+  </si>
+  <si>
+    <t>jkyszsv</t>
+  </si>
+  <si>
+    <t>电影风云榜</t>
+  </si>
+  <si>
+    <t>ayfybv</t>
+  </si>
+  <si>
+    <t>创意生活</t>
+  </si>
+  <si>
+    <t>cyshenghuo</t>
+  </si>
+  <si>
+    <t>今日热门话题</t>
+  </si>
+  <si>
+    <t>jrrmhot</t>
+  </si>
+  <si>
+    <t>北京生活圈</t>
+  </si>
+  <si>
+    <t>BJLife001</t>
+  </si>
+  <si>
+    <t>全球热门搜罗</t>
+  </si>
+  <si>
+    <t>Topgather</t>
+  </si>
+  <si>
+    <t>女人天生爱美丽</t>
+  </si>
+  <si>
+    <t>nramli</t>
+  </si>
+  <si>
+    <t>娱乐圈爆料</t>
+  </si>
+  <si>
+    <t>ylqburst</t>
+  </si>
+  <si>
+    <t>全球热门推荐</t>
+  </si>
+  <si>
+    <t>Hottuj</t>
+  </si>
+  <si>
+    <t>全球新鲜资讯</t>
+  </si>
+  <si>
+    <t>Freshinf</t>
+  </si>
+  <si>
+    <t>全球热门收集</t>
+  </si>
+  <si>
+    <t>Hotcollec</t>
+  </si>
+  <si>
+    <t>微女人</t>
+  </si>
+  <si>
+    <t>Tiwoman</t>
+  </si>
+  <si>
+    <t>实用小贴士</t>
+  </si>
+  <si>
+    <t>Pratips</t>
+  </si>
+  <si>
+    <t>生活小窍门</t>
+  </si>
+  <si>
+    <t>Lifexqm</t>
+  </si>
+  <si>
+    <t>创意家居收集</t>
+  </si>
+  <si>
+    <t>cyfhco</t>
+  </si>
+  <si>
+    <t>微汽车</t>
+  </si>
+  <si>
+    <t>vautom</t>
+  </si>
+  <si>
+    <t>互联网最前线</t>
+  </si>
+  <si>
+    <t>webfore</t>
+  </si>
+  <si>
+    <t>电商资讯</t>
+  </si>
+  <si>
+    <t>dszx001</t>
+  </si>
+  <si>
+    <t>史上热门榜</t>
+  </si>
+  <si>
+    <t>shotlist</t>
+  </si>
+  <si>
+    <t>生活热门推荐</t>
+  </si>
+  <si>
+    <t>shottj</t>
+  </si>
+  <si>
+    <t>辣妈育儿</t>
+  </si>
+  <si>
+    <t>lamayuerv</t>
+  </si>
+  <si>
+    <t>生活热门榜</t>
+  </si>
+  <si>
+    <t>shtopb</t>
+  </si>
+  <si>
+    <t>老中医健康养生堂</t>
+  </si>
+  <si>
+    <t>lzyjkystv</t>
+  </si>
+  <si>
+    <t>健康养生知识</t>
+  </si>
+  <si>
+    <t>jkyszs</t>
+  </si>
+  <si>
+    <t>娱乐圈</t>
+  </si>
+  <si>
+    <t>yulequanv</t>
+  </si>
+  <si>
+    <t>广告营销</t>
+  </si>
+  <si>
+    <t>新闻资讯</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>it互联网</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>电商</t>
+  </si>
+  <si>
+    <t>X1801050844491059</t>
   </si>
   <si>
     <t>刘汉梅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>X1712181403400031</t>
   </si>
 </sst>
 </file>
@@ -846,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -913,16 +843,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <v>2000</v>
+        <v>8100</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -934,30 +864,30 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1">
-        <v>2000</v>
+        <v>8100</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -969,30 +899,30 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1004,30 +934,30 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1039,30 +969,30 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1074,30 +1004,30 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1109,30 +1039,30 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1">
-        <v>2000</v>
+        <v>5400</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1144,30 +1074,30 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1179,30 +1109,30 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1214,30 +1144,30 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1249,30 +1179,30 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1284,30 +1214,30 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1319,30 +1249,30 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1354,30 +1284,30 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1389,30 +1319,30 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1424,30 +1354,30 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1">
-        <v>2000</v>
+        <v>16200</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1459,30 +1389,30 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1494,30 +1424,30 @@
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1529,30 +1459,30 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1564,30 +1494,30 @@
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D21" s="1">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1599,30 +1529,30 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1634,30 +1564,30 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1669,30 +1599,30 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1704,30 +1634,30 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="D25" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1739,30 +1669,30 @@
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1774,30 +1704,30 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1809,30 +1739,30 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1844,30 +1774,30 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1879,30 +1809,30 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1914,30 +1844,30 @@
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1949,30 +1879,30 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1984,30 +1914,30 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2019,30 +1949,30 @@
         <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D34" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2054,65 +1984,65 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2124,30 +2054,30 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2159,30 +2089,30 @@
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2194,30 +2124,30 @@
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2229,436 +2159,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="1">
-        <v>66</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="1">
-        <v>98</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="1">
-        <v>168</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="1">
-        <v>75</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="1">
-        <v>105</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="1">
-        <v>88</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="1">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="1">
-        <v>85</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="1">
-        <v>65</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="1">
-        <v>54</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="1">
-        <v>105</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="1">
-        <v>95</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>名称</t>
   </si>
@@ -66,274 +66,238 @@
     <t>生活</t>
   </si>
   <si>
-    <t>地域</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>X1712181403400031</t>
-  </si>
-  <si>
-    <t>精彩广告</t>
-  </si>
-  <si>
-    <t>Jcaiad</t>
-  </si>
-  <si>
-    <t>广告也震惊</t>
-  </si>
-  <si>
-    <t>ADshock</t>
-  </si>
-  <si>
-    <t>上海吃喝玩乐</t>
-  </si>
-  <si>
-    <t>shch361</t>
-  </si>
-  <si>
-    <t>全球热门排行榜</t>
-  </si>
-  <si>
-    <t>savitop</t>
-  </si>
-  <si>
-    <t>全球娱乐八卦</t>
-  </si>
-  <si>
-    <t>yulebg88</t>
-  </si>
-  <si>
-    <t>娱乐热点</t>
-  </si>
-  <si>
-    <t>yulehotd</t>
-  </si>
-  <si>
-    <t>育儿亲子乐园</t>
-  </si>
-  <si>
-    <t>yueqzly</t>
-  </si>
-  <si>
-    <t>北京微生活</t>
-  </si>
-  <si>
-    <t>Bjwshuo</t>
-  </si>
-  <si>
-    <t>北京头条</t>
-  </si>
-  <si>
-    <t>bj-tt001</t>
-  </si>
-  <si>
-    <t>娱乐没有圈</t>
-  </si>
-  <si>
-    <t>yulemy000</t>
-  </si>
-  <si>
-    <t>全球热门事件</t>
-  </si>
-  <si>
-    <t>Hotevents</t>
-  </si>
-  <si>
-    <t>互联网新资讯</t>
-  </si>
-  <si>
-    <t>hlwnin</t>
-  </si>
-  <si>
-    <t>互联网分析沙龙</t>
-  </si>
-  <si>
-    <t>hlwsalon</t>
-  </si>
-  <si>
-    <t>健康养生秘诀</t>
-  </si>
-  <si>
-    <t>jkyszsv</t>
-  </si>
-  <si>
-    <t>电影风云榜</t>
-  </si>
-  <si>
-    <t>ayfybv</t>
-  </si>
-  <si>
-    <t>创意生活</t>
-  </si>
-  <si>
-    <t>cyshenghuo</t>
-  </si>
-  <si>
-    <t>今日热门话题</t>
-  </si>
-  <si>
-    <t>jrrmhot</t>
-  </si>
-  <si>
-    <t>北京生活圈</t>
-  </si>
-  <si>
-    <t>BJLife001</t>
-  </si>
-  <si>
-    <t>全球热门搜罗</t>
-  </si>
-  <si>
-    <t>Topgather</t>
-  </si>
-  <si>
-    <t>女人天生爱美丽</t>
-  </si>
-  <si>
-    <t>nramli</t>
-  </si>
-  <si>
-    <t>娱乐圈爆料</t>
-  </si>
-  <si>
-    <t>ylqburst</t>
-  </si>
-  <si>
-    <t>全球热门推荐</t>
-  </si>
-  <si>
-    <t>Hottuj</t>
-  </si>
-  <si>
-    <t>全球新鲜资讯</t>
-  </si>
-  <si>
-    <t>Freshinf</t>
-  </si>
-  <si>
-    <t>全球热门收集</t>
-  </si>
-  <si>
-    <t>Hotcollec</t>
-  </si>
-  <si>
-    <t>微女人</t>
-  </si>
-  <si>
-    <t>Tiwoman</t>
-  </si>
-  <si>
-    <t>实用小贴士</t>
-  </si>
-  <si>
-    <t>Pratips</t>
-  </si>
-  <si>
-    <t>生活小窍门</t>
-  </si>
-  <si>
-    <t>Lifexqm</t>
-  </si>
-  <si>
-    <t>创意家居收集</t>
-  </si>
-  <si>
-    <t>cyfhco</t>
-  </si>
-  <si>
-    <t>微汽车</t>
-  </si>
-  <si>
-    <t>vautom</t>
-  </si>
-  <si>
-    <t>互联网最前线</t>
-  </si>
-  <si>
-    <t>webfore</t>
-  </si>
-  <si>
-    <t>电商资讯</t>
-  </si>
-  <si>
-    <t>dszx001</t>
-  </si>
-  <si>
-    <t>史上热门榜</t>
-  </si>
-  <si>
-    <t>shotlist</t>
-  </si>
-  <si>
-    <t>生活热门推荐</t>
-  </si>
-  <si>
-    <t>shottj</t>
-  </si>
-  <si>
-    <t>辣妈育儿</t>
-  </si>
-  <si>
-    <t>lamayuerv</t>
-  </si>
-  <si>
-    <t>生活热门榜</t>
-  </si>
-  <si>
-    <t>shtopb</t>
-  </si>
-  <si>
-    <t>老中医健康养生堂</t>
-  </si>
-  <si>
-    <t>lzyjkystv</t>
-  </si>
-  <si>
-    <t>健康养生知识</t>
-  </si>
-  <si>
-    <t>jkyszs</t>
-  </si>
-  <si>
-    <t>娱乐圈</t>
-  </si>
-  <si>
-    <t>yulequanv</t>
-  </si>
-  <si>
     <t>广告营销</t>
   </si>
   <si>
-    <t>新闻资讯</t>
-  </si>
-  <si>
     <t>娱乐</t>
   </si>
   <si>
     <t>母婴</t>
   </si>
   <si>
-    <t>it互联网</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>影视</t>
-  </si>
-  <si>
     <t>女性时尚</t>
   </si>
   <si>
-    <t>电商</t>
-  </si>
-  <si>
-    <t>X1801050844491059</t>
-  </si>
-  <si>
-    <t>刘汉梅</t>
+    <t>木木严选</t>
+  </si>
+  <si>
+    <t>mumufangun</t>
+  </si>
+  <si>
+    <t>广告大师兄</t>
+  </si>
+  <si>
+    <t>adbigbrother</t>
+  </si>
+  <si>
+    <t>广告卡夫卡</t>
+  </si>
+  <si>
+    <t>ggkafuka</t>
+  </si>
+  <si>
+    <t>广告玩家</t>
+  </si>
+  <si>
+    <t>adplayers</t>
+  </si>
+  <si>
+    <t>AD研究所</t>
+  </si>
+  <si>
+    <t>adyanjiusuo</t>
+  </si>
+  <si>
+    <t>拉面少女</t>
+  </si>
+  <si>
+    <t>lamiangirl</t>
+  </si>
+  <si>
+    <t>少年派爱奇旅</t>
+  </si>
+  <si>
+    <t>life-of-pai</t>
+  </si>
+  <si>
+    <t>没有杂货店</t>
+  </si>
+  <si>
+    <t>thereisnoshop</t>
+  </si>
+  <si>
+    <t>柚子妈妈不是超人</t>
+  </si>
+  <si>
+    <t>youzisupermom</t>
+  </si>
+  <si>
+    <t>奶茶妈妈进阶手册</t>
+  </si>
+  <si>
+    <t>milkteamom</t>
+  </si>
+  <si>
+    <t>蜻蜓队长事务所</t>
+  </si>
+  <si>
+    <t>qingtingshiwusuo</t>
+  </si>
+  <si>
+    <t>桃茶肆</t>
+  </si>
+  <si>
+    <t>taochasi</t>
+  </si>
+  <si>
+    <t>生活daily志</t>
+  </si>
+  <si>
+    <t>shenghuodaily</t>
+  </si>
+  <si>
+    <t>fashion姐的种草日记</t>
+  </si>
+  <si>
+    <t>fashion_zhongcao</t>
+  </si>
+  <si>
+    <t>乌龙茶的碎碎念</t>
+  </si>
+  <si>
+    <t>wulongchassn123</t>
+  </si>
+  <si>
+    <t>一只口红走地球</t>
+  </si>
+  <si>
+    <t>lipearth123</t>
+  </si>
+  <si>
+    <t>momo的种草日记</t>
+  </si>
+  <si>
+    <t>momozhongcao</t>
+  </si>
+  <si>
+    <t>小仙女收割机</t>
+  </si>
+  <si>
+    <t>xiaoxiannvsgj</t>
+  </si>
+  <si>
+    <t>糖糖随行记</t>
+  </si>
+  <si>
+    <t>tangtangsxj</t>
+  </si>
+  <si>
+    <t>周八皮酱</t>
+  </si>
+  <si>
+    <t>bapichowww</t>
+  </si>
+  <si>
+    <t>私人兆赫HZ</t>
+  </si>
+  <si>
+    <t>sirenzhaoheHz</t>
+  </si>
+  <si>
+    <t>肉松的非凡之旅</t>
+  </si>
+  <si>
+    <t>rousongffzl</t>
+  </si>
+  <si>
+    <t>朝九姑娘</t>
+  </si>
+  <si>
+    <t>zhaojiuguniang</t>
+  </si>
+  <si>
+    <t>幽默的挑食君</t>
+  </si>
+  <si>
+    <t>xxzuotan</t>
+  </si>
+  <si>
+    <t>AuntieBig</t>
+  </si>
+  <si>
+    <t>包小姐MsBag</t>
+  </si>
+  <si>
+    <t>bagsbaoxiaojie</t>
+  </si>
+  <si>
+    <t>回忆专用小马甲</t>
+  </si>
+  <si>
+    <t>xiaomajia999</t>
+  </si>
+  <si>
+    <t>食点十分</t>
+  </si>
+  <si>
+    <t>imsdsf</t>
+  </si>
+  <si>
+    <t>剧毒少年</t>
+  </si>
+  <si>
+    <t>JuduBoy</t>
+  </si>
+  <si>
+    <t>长腿大妞爱运动</t>
+  </si>
+  <si>
+    <t>sportygirls</t>
+  </si>
+  <si>
+    <t>游戏那些事</t>
+  </si>
+  <si>
+    <t>aboutgames</t>
+  </si>
+  <si>
+    <t>辣妈必修课</t>
+  </si>
+  <si>
+    <t>lamabxk</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>文学文化</t>
+  </si>
+  <si>
+    <t>种草</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>X1811301424044631</t>
+  </si>
+  <si>
+    <t>胡江超</t>
+  </si>
+  <si>
+    <t>X1712181337040001</t>
   </si>
 </sst>
 </file>
@@ -776,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -843,92 +807,92 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>23000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
-        <v>88</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8100</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1">
-        <v>8100</v>
+        <v>35500</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1">
-        <v>7200</v>
+        <v>32000</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -937,783 +901,783 @@
         <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>7200</v>
+        <v>32000</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>7200</v>
+        <v>35000</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1">
-        <v>7200</v>
+        <v>38000</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1">
-        <v>5400</v>
+        <v>40000</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1">
-        <v>7200</v>
+        <v>40000</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1">
-        <v>3600</v>
+        <v>35000</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1">
-        <v>4500</v>
+        <v>32000</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1">
-        <v>4500</v>
+        <v>45000</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1">
-        <v>3600</v>
+        <v>60000</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1">
-        <v>4500</v>
+        <v>30000</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
-        <v>3600</v>
+        <v>30000</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1">
-        <v>3600</v>
+        <v>32000</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>16200</v>
+        <v>40000</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1">
-        <v>3600</v>
+        <v>30000</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1">
-        <v>3600</v>
+        <v>32000</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1">
-        <v>1800</v>
+        <v>28000</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1">
-        <v>128</v>
-      </c>
       <c r="D21" s="1">
-        <v>2700</v>
+        <v>45000</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1">
-        <v>2700</v>
+        <v>25000</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
-        <v>2700</v>
+        <v>28000</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1">
-        <v>85</v>
-      </c>
       <c r="D24" s="1">
-        <v>3600</v>
+        <v>35000</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
-        <v>3600</v>
+        <v>30000</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1">
-        <v>3600</v>
+        <v>65000</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1724,31 +1688,31 @@
         <v>68</v>
       </c>
       <c r="C27" s="1">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1">
-        <v>3600</v>
+        <v>35000</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1759,31 +1723,31 @@
         <v>70</v>
       </c>
       <c r="C28" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1">
-        <v>3600</v>
+        <v>125000</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>84000</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1794,31 +1758,31 @@
         <v>72</v>
       </c>
       <c r="C29" s="1">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1">
-        <v>3600</v>
+        <v>36000</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1829,16 +1793,16 @@
         <v>74</v>
       </c>
       <c r="C30" s="1">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>3600</v>
+        <v>40000</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1847,13 +1811,13 @@
         <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1864,31 +1828,31 @@
         <v>76</v>
       </c>
       <c r="C31" s="1">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1">
-        <v>4500</v>
+        <v>35000</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1899,31 +1863,31 @@
         <v>78</v>
       </c>
       <c r="C32" s="1">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1">
-        <v>3600</v>
+        <v>35000</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1934,241 +1898,31 @@
         <v>80</v>
       </c>
       <c r="C33" s="1">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1">
-        <v>3600</v>
+        <v>35000</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="1">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="1">
-        <v>101</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="1">
-        <v>110</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1">
-        <v>87</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="1">
-        <v>85</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="1">
-        <v>118</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="127">
   <si>
     <t>名称</t>
   </si>
@@ -69,235 +69,340 @@
     <t>广告营销</t>
   </si>
   <si>
-    <t>娱乐</t>
-  </si>
-  <si>
-    <t>母婴</t>
-  </si>
-  <si>
     <t>女性时尚</t>
   </si>
   <si>
-    <t>木木严选</t>
-  </si>
-  <si>
-    <t>mumufangun</t>
-  </si>
-  <si>
-    <t>广告大师兄</t>
-  </si>
-  <si>
-    <t>adbigbrother</t>
-  </si>
-  <si>
-    <t>广告卡夫卡</t>
-  </si>
-  <si>
-    <t>ggkafuka</t>
-  </si>
-  <si>
-    <t>广告玩家</t>
-  </si>
-  <si>
-    <t>adplayers</t>
-  </si>
-  <si>
-    <t>AD研究所</t>
-  </si>
-  <si>
-    <t>adyanjiusuo</t>
-  </si>
-  <si>
-    <t>拉面少女</t>
-  </si>
-  <si>
-    <t>lamiangirl</t>
-  </si>
-  <si>
-    <t>少年派爱奇旅</t>
-  </si>
-  <si>
-    <t>life-of-pai</t>
-  </si>
-  <si>
-    <t>没有杂货店</t>
-  </si>
-  <si>
-    <t>thereisnoshop</t>
-  </si>
-  <si>
-    <t>柚子妈妈不是超人</t>
-  </si>
-  <si>
-    <t>youzisupermom</t>
-  </si>
-  <si>
-    <t>奶茶妈妈进阶手册</t>
-  </si>
-  <si>
-    <t>milkteamom</t>
-  </si>
-  <si>
-    <t>蜻蜓队长事务所</t>
-  </si>
-  <si>
-    <t>qingtingshiwusuo</t>
-  </si>
-  <si>
-    <t>桃茶肆</t>
-  </si>
-  <si>
-    <t>taochasi</t>
-  </si>
-  <si>
-    <t>生活daily志</t>
-  </si>
-  <si>
-    <t>shenghuodaily</t>
-  </si>
-  <si>
-    <t>fashion姐的种草日记</t>
-  </si>
-  <si>
-    <t>fashion_zhongcao</t>
-  </si>
-  <si>
-    <t>乌龙茶的碎碎念</t>
-  </si>
-  <si>
-    <t>wulongchassn123</t>
-  </si>
-  <si>
-    <t>一只口红走地球</t>
-  </si>
-  <si>
-    <t>lipearth123</t>
-  </si>
-  <si>
-    <t>momo的种草日记</t>
-  </si>
-  <si>
-    <t>momozhongcao</t>
-  </si>
-  <si>
-    <t>小仙女收割机</t>
-  </si>
-  <si>
-    <t>xiaoxiannvsgj</t>
-  </si>
-  <si>
-    <t>糖糖随行记</t>
-  </si>
-  <si>
-    <t>tangtangsxj</t>
-  </si>
-  <si>
-    <t>周八皮酱</t>
-  </si>
-  <si>
-    <t>bapichowww</t>
-  </si>
-  <si>
-    <t>私人兆赫HZ</t>
-  </si>
-  <si>
-    <t>sirenzhaoheHz</t>
-  </si>
-  <si>
-    <t>肉松的非凡之旅</t>
-  </si>
-  <si>
-    <t>rousongffzl</t>
-  </si>
-  <si>
-    <t>朝九姑娘</t>
-  </si>
-  <si>
-    <t>zhaojiuguniang</t>
-  </si>
-  <si>
-    <t>幽默的挑食君</t>
-  </si>
-  <si>
-    <t>xxzuotan</t>
-  </si>
-  <si>
-    <t>AuntieBig</t>
-  </si>
-  <si>
-    <t>包小姐MsBag</t>
-  </si>
-  <si>
-    <t>bagsbaoxiaojie</t>
-  </si>
-  <si>
-    <t>回忆专用小马甲</t>
-  </si>
-  <si>
-    <t>xiaomajia999</t>
-  </si>
-  <si>
-    <t>食点十分</t>
-  </si>
-  <si>
-    <t>imsdsf</t>
-  </si>
-  <si>
-    <t>剧毒少年</t>
-  </si>
-  <si>
-    <t>JuduBoy</t>
-  </si>
-  <si>
-    <t>长腿大妞爱运动</t>
-  </si>
-  <si>
-    <t>sportygirls</t>
-  </si>
-  <si>
-    <t>游戏那些事</t>
-  </si>
-  <si>
-    <t>aboutgames</t>
-  </si>
-  <si>
-    <t>辣妈必修课</t>
-  </si>
-  <si>
-    <t>lamabxk</t>
-  </si>
-  <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>情感</t>
-  </si>
-  <si>
-    <t>文学文化</t>
-  </si>
-  <si>
-    <t>种草</t>
-  </si>
-  <si>
     <t>美食</t>
   </si>
   <si>
-    <t>宠物</t>
-  </si>
-  <si>
-    <t>运动</t>
-  </si>
-  <si>
     <t>游戏</t>
   </si>
   <si>
-    <t>X1811301424044631</t>
-  </si>
-  <si>
-    <t>胡江超</t>
-  </si>
-  <si>
-    <t>X1712181337040001</t>
+    <t>精致潮生活</t>
+  </si>
+  <si>
+    <t>jzilife</t>
+  </si>
+  <si>
+    <t>爱尚潮生活</t>
+  </si>
+  <si>
+    <t>aisclife</t>
+  </si>
+  <si>
+    <t>抖热门生活</t>
+  </si>
+  <si>
+    <t>idoulife</t>
+  </si>
+  <si>
+    <t>热门潮生活圈</t>
+  </si>
+  <si>
+    <t>rmcaolife</t>
+  </si>
+  <si>
+    <t>抖时尚生活</t>
+  </si>
+  <si>
+    <t>dosslife</t>
+  </si>
+  <si>
+    <t>吃喝玩乐研究中心</t>
+  </si>
+  <si>
+    <t>lifeyjzx</t>
+  </si>
+  <si>
+    <t>热门生活百科</t>
+  </si>
+  <si>
+    <t>rmslife</t>
+  </si>
+  <si>
+    <t>创意优生活</t>
+  </si>
+  <si>
+    <t>cyiylife</t>
+  </si>
+  <si>
+    <t>第一生活资讯</t>
+  </si>
+  <si>
+    <t>lifezix</t>
+  </si>
+  <si>
+    <t>美容时尚女性</t>
+  </si>
+  <si>
+    <t>meirongssnx</t>
+  </si>
+  <si>
+    <t>美妆潮人</t>
+  </si>
+  <si>
+    <t>Meizcr</t>
+  </si>
+  <si>
+    <t>健康与养生</t>
+  </si>
+  <si>
+    <t>jkyvys</t>
+  </si>
+  <si>
+    <t>美食健康养生</t>
+  </si>
+  <si>
+    <t>meisjkys</t>
+  </si>
+  <si>
+    <t>健康微刊报</t>
+  </si>
+  <si>
+    <t>jkwikb</t>
+  </si>
+  <si>
+    <t>旅行美食探秘</t>
+  </si>
+  <si>
+    <t>lxmstmi</t>
+  </si>
+  <si>
+    <t>家居优创意</t>
+  </si>
+  <si>
+    <t>jjycyi</t>
+  </si>
+  <si>
+    <t>家智能生活</t>
+  </si>
+  <si>
+    <t>jznkji</t>
+  </si>
+  <si>
+    <t>第一家居资讯</t>
+  </si>
+  <si>
+    <t>jiajvzx</t>
+  </si>
+  <si>
+    <t>家居资讯百科</t>
+  </si>
+  <si>
+    <t>jjzxbke</t>
+  </si>
+  <si>
+    <t>职场人微刊</t>
+  </si>
+  <si>
+    <t>zcrwik</t>
+  </si>
+  <si>
+    <t>风尙志</t>
+  </si>
+  <si>
+    <t>fenszi</t>
+  </si>
+  <si>
+    <t>生活旅行资讯</t>
+  </si>
+  <si>
+    <t>lifelxzx</t>
+  </si>
+  <si>
+    <t>科学育儿版报</t>
+  </si>
+  <si>
+    <t>kxyebb</t>
+  </si>
+  <si>
+    <t>第一育儿资讯</t>
+  </si>
+  <si>
+    <t>dyyezx</t>
+  </si>
+  <si>
+    <t>创意广告控</t>
+  </si>
+  <si>
+    <t>creativeggk</t>
+  </si>
+  <si>
+    <t>校园奇葩事儿</t>
+  </si>
+  <si>
+    <t>xyqpser</t>
+  </si>
+  <si>
+    <t>北京微热门</t>
+  </si>
+  <si>
+    <t>bjwrem</t>
+  </si>
+  <si>
+    <t>上海热门资讯</t>
+  </si>
+  <si>
+    <t>shanghaizrmzx</t>
+  </si>
+  <si>
+    <t>上海生活热点</t>
+  </si>
+  <si>
+    <t>Shanghaishrd</t>
+  </si>
+  <si>
+    <t>上海微热门</t>
+  </si>
+  <si>
+    <t>hulife021</t>
+  </si>
+  <si>
+    <t>广州微热门</t>
+  </si>
+  <si>
+    <t>gzwrem</t>
+  </si>
+  <si>
+    <t>广州热搜看点</t>
+  </si>
+  <si>
+    <t>gzrskd</t>
+  </si>
+  <si>
+    <t>深圳微热门</t>
+  </si>
+  <si>
+    <t>szwrem</t>
+  </si>
+  <si>
+    <t>成都早资讯</t>
+  </si>
+  <si>
+    <t>chengdouzx</t>
+  </si>
+  <si>
+    <t>杭州微热门</t>
+  </si>
+  <si>
+    <t>chwlsh0571</t>
+  </si>
+  <si>
+    <t>吃喝玩乐生活IN重庆</t>
+  </si>
+  <si>
+    <t>chwllife023</t>
+  </si>
+  <si>
+    <t>重庆生活资讯通</t>
+  </si>
+  <si>
+    <t>cqlifezx023</t>
+  </si>
+  <si>
+    <t>厦门头条播报</t>
+  </si>
+  <si>
+    <t>Xiamentoutiao</t>
+  </si>
+  <si>
+    <t>财经新闻</t>
+  </si>
+  <si>
+    <t>caijnews</t>
+  </si>
+  <si>
+    <t>每日财经头条</t>
+  </si>
+  <si>
+    <t>CaiJingtout</t>
+  </si>
+  <si>
+    <t>财经金融头条</t>
+  </si>
+  <si>
+    <t>cjjrtt</t>
+  </si>
+  <si>
+    <t>3C数码IT汇</t>
+  </si>
+  <si>
+    <t>scitsmh</t>
+  </si>
+  <si>
+    <t>互联网热点资讯</t>
+  </si>
+  <si>
+    <t>hlwrdzx</t>
+  </si>
+  <si>
+    <t>互联网热点全资讯</t>
+  </si>
+  <si>
+    <t>hlwrdzix</t>
+  </si>
+  <si>
+    <t>IT数码安卓汇</t>
+  </si>
+  <si>
+    <t>itsumahui</t>
+  </si>
+  <si>
+    <t>这次玩真的</t>
+  </si>
+  <si>
+    <t>sizende</t>
+  </si>
+  <si>
+    <t>万万没想到</t>
+  </si>
+  <si>
+    <t>wwanmxd</t>
+  </si>
+  <si>
+    <t>搞笑集中营</t>
+  </si>
+  <si>
+    <t>gaoxiaojzing</t>
+  </si>
+  <si>
+    <t>游戏动漫资讯</t>
+  </si>
+  <si>
+    <t>gameanimation</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>家居</t>
+  </si>
+  <si>
+    <t>职场</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>财经</t>
+  </si>
+  <si>
+    <t>IT互联网</t>
+  </si>
+  <si>
+    <t>段子手</t>
+  </si>
+  <si>
+    <t>X1801121650180008</t>
+  </si>
+  <si>
+    <t>黄芳</t>
+  </si>
+  <si>
+    <t>X1712181221160001</t>
   </si>
 </sst>
 </file>
@@ -740,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -813,31 +918,25 @@
         <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>25</v>
+        <v>98.288399999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>23000</v>
+        <v>1750</v>
       </c>
       <c r="F2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -848,31 +947,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>95</v>
+        <v>103.2941</v>
       </c>
       <c r="D3" s="1">
-        <v>35500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>38500</v>
+        <v>1750</v>
       </c>
       <c r="F3" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -883,31 +976,25 @@
         <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>78</v>
+        <v>93.198400000000007</v>
       </c>
       <c r="D4" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>35000</v>
+        <v>1750</v>
       </c>
       <c r="F4" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -918,31 +1005,25 @@
         <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>70</v>
+        <v>89.861500000000007</v>
       </c>
       <c r="D5" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>35000</v>
+        <v>1400</v>
       </c>
       <c r="F5" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -953,31 +1034,25 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>85</v>
+        <v>107.5821</v>
       </c>
       <c r="D6" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>38000</v>
+        <v>1400</v>
       </c>
       <c r="F6" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -988,31 +1063,25 @@
         <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>102</v>
+        <v>104.9378</v>
       </c>
       <c r="D7" s="1">
-        <v>38000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>41000</v>
+        <v>1750</v>
       </c>
       <c r="F7" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1023,31 +1092,25 @@
         <v>31</v>
       </c>
       <c r="C8" s="1">
-        <v>117</v>
+        <v>96.362499999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43000</v>
+        <v>1750</v>
       </c>
       <c r="F8" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1058,31 +1121,25 @@
         <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>120</v>
+        <v>96.075100000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43000</v>
+        <v>1750</v>
       </c>
       <c r="F9" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1093,31 +1150,25 @@
         <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>99</v>
+        <v>115.5423</v>
       </c>
       <c r="D10" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>38000</v>
+        <v>1750</v>
       </c>
       <c r="F10" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1128,31 +1179,25 @@
         <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>79</v>
+        <v>117.1421</v>
       </c>
       <c r="D11" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>35000</v>
+        <v>1120</v>
       </c>
       <c r="F11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1163,31 +1208,25 @@
         <v>39</v>
       </c>
       <c r="C12" s="1">
-        <v>132</v>
+        <v>50.214700000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>45000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>48000</v>
+        <v>1120</v>
       </c>
       <c r="F12" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1198,31 +1237,25 @@
         <v>41</v>
       </c>
       <c r="C13" s="1">
-        <v>110</v>
+        <v>57.213500000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>63000</v>
+        <v>1400</v>
       </c>
       <c r="F13" s="1">
-        <v>36000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1233,31 +1266,25 @@
         <v>43</v>
       </c>
       <c r="C14" s="1">
-        <v>59</v>
+        <v>53.217399999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>33000</v>
+        <v>1120</v>
       </c>
       <c r="F14" s="1">
-        <v>21000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1268,31 +1295,25 @@
         <v>45</v>
       </c>
       <c r="C15" s="1">
-        <v>52</v>
+        <v>107.8124</v>
       </c>
       <c r="D15" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>33000</v>
+        <v>1610</v>
       </c>
       <c r="F15" s="1">
-        <v>21000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1303,31 +1324,25 @@
         <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>93</v>
+        <v>72.398399999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>35000</v>
+        <v>1400</v>
       </c>
       <c r="F16" s="1">
-        <v>21000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1338,31 +1353,25 @@
         <v>49</v>
       </c>
       <c r="C17" s="1">
-        <v>79</v>
+        <v>93.567099999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>43000</v>
+        <v>1750</v>
       </c>
       <c r="F17" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1373,31 +1382,25 @@
         <v>51</v>
       </c>
       <c r="C18" s="1">
-        <v>52</v>
+        <v>98.732399999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>33000</v>
+        <v>1610</v>
       </c>
       <c r="F18" s="1">
-        <v>21000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1408,31 +1411,25 @@
         <v>53</v>
       </c>
       <c r="C19" s="1">
-        <v>102</v>
+        <v>105.1934</v>
       </c>
       <c r="D19" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>35000</v>
+        <v>1750</v>
       </c>
       <c r="F19" s="1">
-        <v>21000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1443,31 +1440,25 @@
         <v>55</v>
       </c>
       <c r="C20" s="1">
-        <v>59</v>
+        <v>65.321700000000007</v>
       </c>
       <c r="D20" s="1">
-        <v>28000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>31000</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1478,31 +1469,25 @@
         <v>57</v>
       </c>
       <c r="C21" s="1">
-        <v>55</v>
+        <v>67.053399999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>45000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>48000</v>
+        <v>1610</v>
       </c>
       <c r="F21" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1513,31 +1498,25 @@
         <v>59</v>
       </c>
       <c r="C22" s="1">
-        <v>60</v>
+        <v>89.851600000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>25000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>28000</v>
+        <v>1750</v>
       </c>
       <c r="F22" s="1">
-        <v>17500</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1548,31 +1527,25 @@
         <v>61</v>
       </c>
       <c r="C23" s="1">
-        <v>52</v>
+        <v>108.7324</v>
       </c>
       <c r="D23" s="1">
-        <v>28000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>31000</v>
+        <v>1750</v>
       </c>
       <c r="F23" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1583,31 +1556,25 @@
         <v>63</v>
       </c>
       <c r="C24" s="1">
-        <v>61</v>
+        <v>107.53870000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>38000</v>
+        <v>1750</v>
       </c>
       <c r="F24" s="1">
-        <v>23000</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1618,31 +1585,25 @@
         <v>65</v>
       </c>
       <c r="C25" s="1">
-        <v>55</v>
+        <v>109.37860000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E25" s="1">
-        <v>33000</v>
+        <v>1750</v>
       </c>
       <c r="F25" s="1">
-        <v>21000</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1650,279 +1611,724 @@
         <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1">
-        <v>75</v>
+        <v>59.751199999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>65000</v>
-      </c>
-      <c r="E26" s="1">
-        <v>68000</v>
+        <v>1260</v>
       </c>
       <c r="F26" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1">
-        <v>59</v>
+        <v>39.0124</v>
       </c>
       <c r="D27" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>38000</v>
+        <v>1260</v>
       </c>
       <c r="F27" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1">
-        <v>100</v>
+        <v>66.253399999999999</v>
       </c>
       <c r="D28" s="1">
-        <v>125000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F28" s="1">
-        <v>84000</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1">
-        <v>13</v>
+        <v>80.351600000000005</v>
       </c>
       <c r="D29" s="1">
-        <v>36000</v>
-      </c>
-      <c r="E29" s="1">
-        <v>39000</v>
+        <v>1750</v>
       </c>
       <c r="F29" s="1">
-        <v>25200</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1">
-        <v>10</v>
+        <v>55.542299999999997</v>
       </c>
       <c r="D30" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E30" s="1">
-        <v>43000</v>
+        <v>1400</v>
       </c>
       <c r="F30" s="1">
-        <v>28000</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
-        <v>15</v>
+        <v>87.538700000000006</v>
       </c>
       <c r="D31" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>38000</v>
+        <v>1400</v>
       </c>
       <c r="F31" s="1">
-        <v>17500</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1">
-        <v>14</v>
+        <v>67.931600000000003</v>
       </c>
       <c r="D32" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E32" s="1">
-        <v>38000</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="1">
-        <v>17500</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1">
-        <v>14</v>
+        <v>59.317500000000003</v>
       </c>
       <c r="D33" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E33" s="1">
-        <v>38000</v>
+        <v>1400</v>
       </c>
       <c r="F33" s="1">
-        <v>23000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1">
+        <v>67.283500000000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1">
+        <v>57.236400000000003</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1260</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1">
+        <v>66.3874</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="C37" s="1">
+        <v>52.527500000000003</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1610</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="C38" s="1">
+        <v>72.873599999999996</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="1">
+        <v>23.5671</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1">
+        <v>117.5217</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1">
+        <v>59.627400000000002</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1260</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1">
+        <v>55.371400000000001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1260</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1">
+        <v>105.37139999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1750</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1750</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1">
+        <v>82.147900000000007</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1750</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1750</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="1">
+        <v>70.921700000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="1">
+        <v>87.924700000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="1">
+        <v>87.873599999999996</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1610</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="1">
+        <v>59.852699999999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1260</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="1">
+        <v>100.7865</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1260</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="1">
+        <v>73.719399999999993</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1260</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="116">
   <si>
     <t>名称</t>
   </si>
@@ -63,151 +63,313 @@
     <t>归属2</t>
   </si>
   <si>
-    <t>美食</t>
-  </si>
-  <si>
-    <t>地域</t>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>老板大思维</t>
+  </si>
+  <si>
+    <t>laobandasiwei</t>
+  </si>
+  <si>
+    <t>老板大圈子</t>
+  </si>
+  <si>
+    <t>laobandaquanzi</t>
+  </si>
+  <si>
+    <t>商人天地</t>
+  </si>
+  <si>
+    <t>shangrentiandi</t>
+  </si>
+  <si>
+    <t>老板杂志</t>
+  </si>
+  <si>
+    <t>laobanzazhi0</t>
+  </si>
+  <si>
+    <t>老板智慧宝库</t>
+  </si>
+  <si>
+    <t>laobanzhihuibaoku</t>
+  </si>
+  <si>
+    <t>商场精英圈</t>
+  </si>
+  <si>
+    <t>scjingyingquan</t>
+  </si>
+  <si>
+    <t>商人思维秘籍</t>
+  </si>
+  <si>
+    <t>shangrensiweimiji</t>
+  </si>
+  <si>
+    <t>商人智库</t>
+  </si>
+  <si>
+    <t>shangrenzhiku</t>
+  </si>
+  <si>
+    <t>老板精英荟萃</t>
+  </si>
+  <si>
+    <t>laobanjyhc</t>
+  </si>
+  <si>
+    <t>解读老板</t>
+  </si>
+  <si>
+    <t>jiedulaoban</t>
+  </si>
+  <si>
+    <t>老板智慧精选</t>
+  </si>
+  <si>
+    <t>laobanzhihuijingxuan</t>
+  </si>
+  <si>
+    <t>股市看点</t>
+  </si>
+  <si>
+    <t>gushikandian</t>
+  </si>
+  <si>
+    <t>股市的那点事</t>
+  </si>
+  <si>
+    <t>gushidenadianshi</t>
+  </si>
+  <si>
+    <t>A股行情</t>
+  </si>
+  <si>
+    <t>aguhangqing</t>
+  </si>
+  <si>
+    <t>股市热点资讯</t>
+  </si>
+  <si>
+    <t>gushiredianzixun</t>
+  </si>
+  <si>
+    <t>股市行情速递</t>
+  </si>
+  <si>
+    <t>gushihangqingsudi</t>
+  </si>
+  <si>
+    <t>股市大盘点</t>
+  </si>
+  <si>
+    <t>gushidapandian</t>
+  </si>
+  <si>
+    <t>每日养身技巧</t>
+  </si>
+  <si>
+    <t>mrysjq</t>
+  </si>
+  <si>
+    <t>养身手册</t>
+  </si>
+  <si>
+    <t>yangshenshouce</t>
+  </si>
+  <si>
+    <t>养身日记</t>
+  </si>
+  <si>
+    <t>yangshenriji</t>
+  </si>
+  <si>
+    <t>快乐养身</t>
+  </si>
+  <si>
+    <t>kuaileyangsheng123</t>
+  </si>
+  <si>
+    <t>天天看养身</t>
+  </si>
+  <si>
+    <t>tiantiankanyangshen</t>
+  </si>
+  <si>
+    <t>养身秘决</t>
+  </si>
+  <si>
+    <t>ysyjvip</t>
+  </si>
+  <si>
+    <t>养身秘籍</t>
+  </si>
+  <si>
+    <t>yangshenmiji15</t>
+  </si>
+  <si>
+    <t>女神杂志社</t>
+  </si>
+  <si>
+    <t>xgnrvip</t>
+  </si>
+  <si>
+    <t>女神期刊</t>
+  </si>
+  <si>
+    <t>nsqkvip</t>
+  </si>
+  <si>
+    <t>艳丽女神</t>
+  </si>
+  <si>
+    <t>YLNS6688</t>
+  </si>
+  <si>
+    <t>女神刊物</t>
+  </si>
+  <si>
+    <t>nvshenkanwu</t>
+  </si>
+  <si>
+    <t>妈妈育儿百科大全</t>
+  </si>
+  <si>
+    <t>mamayuerbaikedaquan</t>
+  </si>
+  <si>
+    <t>幽默动态搞笑图</t>
+  </si>
+  <si>
+    <t>ymdongtaigaoxiaotu</t>
+  </si>
+  <si>
+    <t>动图天天看</t>
+  </si>
+  <si>
+    <t>dongtutiantiankan</t>
+  </si>
+  <si>
+    <t>精选搞笑动图</t>
+  </si>
+  <si>
+    <t>jxgaoxiaodongtu</t>
+  </si>
+  <si>
+    <t>每日精选动图</t>
+  </si>
+  <si>
+    <t>meirijingxuandongtu</t>
+  </si>
+  <si>
+    <t>幽默视频动态图</t>
+  </si>
+  <si>
+    <t>nvrenzhoukan</t>
+  </si>
+  <si>
+    <t>超爱精选视频</t>
+  </si>
+  <si>
+    <t>caoaijingxuanshipin</t>
+  </si>
+  <si>
+    <t>热辣精短视频</t>
+  </si>
+  <si>
+    <t>kuaileyizhan201312</t>
+  </si>
+  <si>
+    <t>掌上精选视频</t>
+  </si>
+  <si>
+    <t>zsjingxuanshipin</t>
+  </si>
+  <si>
+    <t>热门精品视频</t>
+  </si>
+  <si>
+    <t>remenjingpinshipin</t>
+  </si>
+  <si>
+    <t>小学经典语文</t>
+  </si>
+  <si>
+    <t>jjjyuwen</t>
+  </si>
+  <si>
+    <t>小学语文站</t>
+  </si>
+  <si>
+    <t>tttyuwen</t>
+  </si>
+  <si>
+    <t>语文小状元</t>
+  </si>
+  <si>
+    <t>yuwenzy</t>
+  </si>
+  <si>
+    <t>甜甜读绘本</t>
+  </si>
+  <si>
+    <t>TTDhuiben</t>
+  </si>
+  <si>
+    <t>甜甜读童书</t>
+  </si>
+  <si>
+    <t>Tttongshu</t>
+  </si>
+  <si>
+    <t>十点家教</t>
+  </si>
+  <si>
+    <t>Gjiajiao</t>
+  </si>
+  <si>
+    <t>职场</t>
   </si>
   <si>
     <t>财经</t>
   </si>
   <si>
-    <t>吃喝玩乐在北京</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibeijing5203344  </t>
-  </si>
-  <si>
-    <t>茶文化</t>
-  </si>
-  <si>
-    <t>cwh001</t>
-  </si>
-  <si>
-    <t>政商参评</t>
-  </si>
-  <si>
-    <t>hlwrm888</t>
-  </si>
-  <si>
-    <t>实用经济学</t>
-  </si>
-  <si>
-    <t>mglcx888</t>
-  </si>
-  <si>
-    <t>诡匠</t>
-  </si>
-  <si>
-    <t>guijiang96</t>
-  </si>
-  <si>
-    <t>机智大夫</t>
-  </si>
-  <si>
-    <t>jizhidafu</t>
-  </si>
-  <si>
-    <t>情话笔录</t>
-  </si>
-  <si>
-    <t>QingHuab888</t>
-  </si>
-  <si>
-    <t>张逗张花</t>
-  </si>
-  <si>
-    <t>zhangdouzhanghua</t>
-  </si>
-  <si>
-    <t>北美报告</t>
-  </si>
-  <si>
-    <t>Canadanews</t>
-  </si>
-  <si>
-    <t>中新经纬</t>
-  </si>
-  <si>
-    <t>jwview</t>
-  </si>
-  <si>
-    <t>财经连环话</t>
-  </si>
-  <si>
-    <t>cjlhh888</t>
-  </si>
-  <si>
-    <t>大鱼漫画</t>
-  </si>
-  <si>
-    <t>dayumanhua</t>
-  </si>
-  <si>
-    <t>凤凰网读书</t>
-  </si>
-  <si>
-    <t>ifengbook</t>
-  </si>
-  <si>
-    <t>凤凰网视频</t>
-  </si>
-  <si>
-    <t>ifeng_video</t>
-  </si>
-  <si>
-    <t>发现澳大利亚</t>
-  </si>
-  <si>
-    <t>GO_Aussie</t>
-  </si>
-  <si>
-    <t>温哥华头条</t>
-  </si>
-  <si>
-    <t>lahoobignews</t>
-  </si>
-  <si>
-    <t>乐尚她乡</t>
-  </si>
-  <si>
-    <t>chicvancouver</t>
-  </si>
-  <si>
-    <t>温哥华生活快递</t>
-  </si>
-  <si>
-    <t>lahoovancouver</t>
-  </si>
-  <si>
-    <t>留通社</t>
-  </si>
-  <si>
-    <t>liutongNews</t>
-  </si>
-  <si>
-    <t>多伦多头条</t>
-  </si>
-  <si>
-    <t>Torontonews</t>
-  </si>
-  <si>
-    <t>情感</t>
-  </si>
-  <si>
-    <t>X1801050845162960</t>
-  </si>
-  <si>
-    <t>X1801050845152882</t>
-  </si>
-  <si>
-    <t>X1812171542313774</t>
-  </si>
-  <si>
-    <t>刘玲</t>
-  </si>
-  <si>
-    <t>X1712181338330003</t>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>时尚女性</t>
+  </si>
+  <si>
+    <t>母婴育儿</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>头条9折，按粉丝数，保留时间看文案</t>
+  </si>
+  <si>
+    <t>85折，已打折，硬广价格翻一倍，原创加3000</t>
+  </si>
+  <si>
+    <t>X1801050855064634</t>
+  </si>
+  <si>
+    <t>X1801050855034297</t>
+  </si>
+  <si>
+    <t>李璇</t>
+  </si>
+  <si>
+    <t>X1712181347380009</t>
+  </si>
+  <si>
+    <t>甜甜睡前故事</t>
+  </si>
+  <si>
+    <t>ttshuiqiangushi</t>
   </si>
 </sst>
 </file>
@@ -650,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -667,7 +829,7 @@
     <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
@@ -717,621 +879,1691 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>6500</v>
+        <v>2700</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5000</v>
+        <v>1350</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4250</v>
+        <v>2160</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>3250</v>
+        <v>1080</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>8000</v>
+        <v>5940</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>5500</v>
+        <v>2970</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>5000</v>
+        <v>5400</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>2500</v>
+        <v>2700</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>5000</v>
+        <v>2970</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>3000</v>
+        <v>1485</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>8000</v>
+        <v>3510</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>6000</v>
+        <v>1755</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1600</v>
+        <v>4860</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1000</v>
+        <v>2430</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>96000</v>
+        <v>6210</v>
       </c>
       <c r="E9" s="1">
-        <v>101000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>64000</v>
+        <v>3105</v>
       </c>
       <c r="G9" s="1">
-        <v>101000</v>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="E10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="G10" s="1">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>20000</v>
+        <v>3240</v>
       </c>
       <c r="E11" s="1">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>10000</v>
+        <v>1620</v>
       </c>
       <c r="G11" s="1">
-        <v>25000</v>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>60000</v>
+        <v>1080</v>
       </c>
       <c r="G12" s="1">
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>200000</v>
+        <v>6300</v>
       </c>
       <c r="E13" s="1">
-        <v>205000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>160000</v>
+        <v>3150</v>
       </c>
       <c r="G13" s="1">
-        <v>205000</v>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>27000</v>
+        <v>3150</v>
       </c>
       <c r="G14" s="1">
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>8000</v>
+        <v>3150</v>
       </c>
       <c r="G15" s="1">
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="E16" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>2000</v>
+        <v>1350</v>
       </c>
       <c r="G16" s="1">
-        <v>9000</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>15000</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>10000</v>
+        <v>900</v>
       </c>
       <c r="G17" s="1">
-        <v>20000</v>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>4000</v>
+        <v>450</v>
       </c>
       <c r="E18" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="G18" s="1">
-        <v>9000</v>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>3000</v>
+        <v>2430</v>
       </c>
       <c r="E19" s="1">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>2000</v>
+        <v>1215</v>
       </c>
       <c r="G19" s="1">
-        <v>8000</v>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>3000</v>
+        <v>2295</v>
       </c>
       <c r="E20" s="1">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>2000</v>
+        <v>1147.5</v>
       </c>
       <c r="G20" s="1">
-        <v>8000</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>675</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>378</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>189</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>270</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>135</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>297</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>148.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>378</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>189</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1269</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>634.5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>837</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>418.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>594</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>297</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>594</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>297</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2106</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1053</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>270</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>135</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>297</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>148.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>837</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>418.5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>270</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>135</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>459</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>351</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>175.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>648</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>324</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>270</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>135</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>783</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>391.5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14280</v>
+      </c>
+      <c r="E40" s="1">
+        <v>17280</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9800</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="1">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10200</v>
+      </c>
+      <c r="E41" s="1">
+        <v>13200</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7250</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="1">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1">
+        <v>11900</v>
+      </c>
+      <c r="E42" s="1">
+        <v>14900</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7250</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9945</v>
+      </c>
+      <c r="E43" s="1">
+        <v>12945</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6315</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1530</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4530</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3510</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4250</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7250</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4402.5</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="1">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1">
+        <v>25500</v>
+      </c>
+      <c r="E46" s="1">
+        <v>28500</v>
+      </c>
+      <c r="F46" s="1">
+        <v>13200</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="173">
   <si>
     <t>名称</t>
   </si>
@@ -63,313 +63,484 @@
     <t>归属2</t>
   </si>
   <si>
-    <t>幽默搞笑</t>
-  </si>
-  <si>
-    <t>老板大思维</t>
-  </si>
-  <si>
-    <t>laobandasiwei</t>
-  </si>
-  <si>
-    <t>老板大圈子</t>
-  </si>
-  <si>
-    <t>laobandaquanzi</t>
-  </si>
-  <si>
-    <t>商人天地</t>
-  </si>
-  <si>
-    <t>shangrentiandi</t>
-  </si>
-  <si>
-    <t>老板杂志</t>
-  </si>
-  <si>
-    <t>laobanzazhi0</t>
-  </si>
-  <si>
-    <t>老板智慧宝库</t>
-  </si>
-  <si>
-    <t>laobanzhihuibaoku</t>
-  </si>
-  <si>
-    <t>商场精英圈</t>
-  </si>
-  <si>
-    <t>scjingyingquan</t>
-  </si>
-  <si>
-    <t>商人思维秘籍</t>
-  </si>
-  <si>
-    <t>shangrensiweimiji</t>
-  </si>
-  <si>
-    <t>商人智库</t>
-  </si>
-  <si>
-    <t>shangrenzhiku</t>
-  </si>
-  <si>
-    <t>老板精英荟萃</t>
-  </si>
-  <si>
-    <t>laobanjyhc</t>
-  </si>
-  <si>
-    <t>解读老板</t>
-  </si>
-  <si>
-    <t>jiedulaoban</t>
-  </si>
-  <si>
-    <t>老板智慧精选</t>
-  </si>
-  <si>
-    <t>laobanzhihuijingxuan</t>
-  </si>
-  <si>
-    <t>股市看点</t>
-  </si>
-  <si>
-    <t>gushikandian</t>
-  </si>
-  <si>
-    <t>股市的那点事</t>
-  </si>
-  <si>
-    <t>gushidenadianshi</t>
-  </si>
-  <si>
-    <t>A股行情</t>
-  </si>
-  <si>
-    <t>aguhangqing</t>
-  </si>
-  <si>
-    <t>股市热点资讯</t>
-  </si>
-  <si>
-    <t>gushiredianzixun</t>
-  </si>
-  <si>
-    <t>股市行情速递</t>
-  </si>
-  <si>
-    <t>gushihangqingsudi</t>
-  </si>
-  <si>
-    <t>股市大盘点</t>
-  </si>
-  <si>
-    <t>gushidapandian</t>
-  </si>
-  <si>
-    <t>每日养身技巧</t>
-  </si>
-  <si>
-    <t>mrysjq</t>
-  </si>
-  <si>
-    <t>养身手册</t>
-  </si>
-  <si>
-    <t>yangshenshouce</t>
-  </si>
-  <si>
-    <t>养身日记</t>
-  </si>
-  <si>
-    <t>yangshenriji</t>
-  </si>
-  <si>
-    <t>快乐养身</t>
-  </si>
-  <si>
-    <t>kuaileyangsheng123</t>
-  </si>
-  <si>
-    <t>天天看养身</t>
-  </si>
-  <si>
-    <t>tiantiankanyangshen</t>
-  </si>
-  <si>
-    <t>养身秘决</t>
-  </si>
-  <si>
-    <t>ysyjvip</t>
-  </si>
-  <si>
-    <t>养身秘籍</t>
-  </si>
-  <si>
-    <t>yangshenmiji15</t>
-  </si>
-  <si>
-    <t>女神杂志社</t>
-  </si>
-  <si>
-    <t>xgnrvip</t>
-  </si>
-  <si>
-    <t>女神期刊</t>
-  </si>
-  <si>
-    <t>nsqkvip</t>
-  </si>
-  <si>
-    <t>艳丽女神</t>
-  </si>
-  <si>
-    <t>YLNS6688</t>
-  </si>
-  <si>
-    <t>女神刊物</t>
-  </si>
-  <si>
-    <t>nvshenkanwu</t>
-  </si>
-  <si>
-    <t>妈妈育儿百科大全</t>
-  </si>
-  <si>
-    <t>mamayuerbaikedaquan</t>
-  </si>
-  <si>
-    <t>幽默动态搞笑图</t>
-  </si>
-  <si>
-    <t>ymdongtaigaoxiaotu</t>
-  </si>
-  <si>
-    <t>动图天天看</t>
-  </si>
-  <si>
-    <t>dongtutiantiankan</t>
-  </si>
-  <si>
-    <t>精选搞笑动图</t>
-  </si>
-  <si>
-    <t>jxgaoxiaodongtu</t>
-  </si>
-  <si>
-    <t>每日精选动图</t>
-  </si>
-  <si>
-    <t>meirijingxuandongtu</t>
-  </si>
-  <si>
-    <t>幽默视频动态图</t>
-  </si>
-  <si>
-    <t>nvrenzhoukan</t>
-  </si>
-  <si>
-    <t>超爱精选视频</t>
-  </si>
-  <si>
-    <t>caoaijingxuanshipin</t>
-  </si>
-  <si>
-    <t>热辣精短视频</t>
-  </si>
-  <si>
-    <t>kuaileyizhan201312</t>
-  </si>
-  <si>
-    <t>掌上精选视频</t>
-  </si>
-  <si>
-    <t>zsjingxuanshipin</t>
-  </si>
-  <si>
-    <t>热门精品视频</t>
-  </si>
-  <si>
-    <t>remenjingpinshipin</t>
-  </si>
-  <si>
-    <t>小学经典语文</t>
-  </si>
-  <si>
-    <t>jjjyuwen</t>
-  </si>
-  <si>
-    <t>小学语文站</t>
-  </si>
-  <si>
-    <t>tttyuwen</t>
-  </si>
-  <si>
-    <t>语文小状元</t>
-  </si>
-  <si>
-    <t>yuwenzy</t>
-  </si>
-  <si>
-    <t>甜甜读绘本</t>
-  </si>
-  <si>
-    <t>TTDhuiben</t>
-  </si>
-  <si>
-    <t>甜甜读童书</t>
-  </si>
-  <si>
-    <t>Tttongshu</t>
-  </si>
-  <si>
-    <t>十点家教</t>
-  </si>
-  <si>
-    <t>Gjiajiao</t>
-  </si>
-  <si>
-    <t>职场</t>
-  </si>
-  <si>
-    <t>财经</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>时尚女性</t>
-  </si>
-  <si>
-    <t>母婴育儿</t>
-  </si>
-  <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>头条9折，按粉丝数，保留时间看文案</t>
-  </si>
-  <si>
-    <t>85折，已打折，硬广价格翻一倍，原创加3000</t>
-  </si>
-  <si>
-    <t>X1801050855064634</t>
-  </si>
-  <si>
-    <t>X1801050855034297</t>
-  </si>
-  <si>
-    <t>李璇</t>
-  </si>
-  <si>
-    <t>X1712181347380009</t>
-  </si>
-  <si>
-    <t>甜甜睡前故事</t>
-  </si>
-  <si>
-    <t>ttshuiqiangushi</t>
+    <t>深圳吃货团</t>
+  </si>
+  <si>
+    <t>szcht6</t>
+  </si>
+  <si>
+    <t>食妞广州</t>
+  </si>
+  <si>
+    <t>gmgzgm </t>
+  </si>
+  <si>
+    <t>河源全接触</t>
+  </si>
+  <si>
+    <t>hyqjc888 </t>
+  </si>
+  <si>
+    <t>珠海吃货团</t>
+  </si>
+  <si>
+    <t>zhuhaichihuotuan</t>
+  </si>
+  <si>
+    <t>接触佛山</t>
+  </si>
+  <si>
+    <t>ydnmlfs</t>
+  </si>
+  <si>
+    <t>佛山吃货圈</t>
+  </si>
+  <si>
+    <t>fschqydn</t>
+  </si>
+  <si>
+    <t>安庆吃货团</t>
+  </si>
+  <si>
+    <t>aqcht0556</t>
+  </si>
+  <si>
+    <t>贵阳微时光</t>
+  </si>
+  <si>
+    <t>gydays</t>
+  </si>
+  <si>
+    <t>丹东全接触</t>
+  </si>
+  <si>
+    <t>ddqjc666</t>
+  </si>
+  <si>
+    <t>九江优生活</t>
+  </si>
+  <si>
+    <t>jiujiangysh</t>
+  </si>
+  <si>
+    <t>九江吃货王</t>
+  </si>
+  <si>
+    <t>jiujiangchw</t>
+  </si>
+  <si>
+    <t>赣州优生活</t>
+  </si>
+  <si>
+    <t>gzysh7788</t>
+  </si>
+  <si>
+    <t>赣州吃货王</t>
+  </si>
+  <si>
+    <t>gzchihuo666</t>
+  </si>
+  <si>
+    <t>营口全接触</t>
+  </si>
+  <si>
+    <t>ykqjc666</t>
+  </si>
+  <si>
+    <t>锦州全接触</t>
+  </si>
+  <si>
+    <t>jzqjc0416</t>
+  </si>
+  <si>
+    <t>东营全接触</t>
+  </si>
+  <si>
+    <t>dongyingquanjiechu</t>
+  </si>
+  <si>
+    <t>淄博全接触</t>
+  </si>
+  <si>
+    <t>zbqjc01</t>
+  </si>
+  <si>
+    <t>淄博吃货王</t>
+  </si>
+  <si>
+    <t>zbchw01</t>
+  </si>
+  <si>
+    <t>德州全接触</t>
+  </si>
+  <si>
+    <t>dzqjc01</t>
+  </si>
+  <si>
+    <t>聊城全接触</t>
+  </si>
+  <si>
+    <t>lcqjc01</t>
+  </si>
+  <si>
+    <t>滨州全接触</t>
+  </si>
+  <si>
+    <t>bzqjc01</t>
+  </si>
+  <si>
+    <t>大同乐活汇</t>
+  </si>
+  <si>
+    <t>dtlhh0352</t>
+  </si>
+  <si>
+    <t>大同吃货王</t>
+  </si>
+  <si>
+    <t>dtchw0352</t>
+  </si>
+  <si>
+    <t>运城全接触</t>
+  </si>
+  <si>
+    <t>ycqjc0359</t>
+  </si>
+  <si>
+    <t>临汾全接触</t>
+  </si>
+  <si>
+    <t>lfqjc0357</t>
+  </si>
+  <si>
+    <t>宝鸡吃货团</t>
+  </si>
+  <si>
+    <t>baoji916</t>
+  </si>
+  <si>
+    <t>宝鸡全接触</t>
+  </si>
+  <si>
+    <t>baoji988</t>
+  </si>
+  <si>
+    <t>天津食探</t>
+  </si>
+  <si>
+    <t>tj-wlh</t>
+  </si>
+  <si>
+    <t>昆明闺蜜圈</t>
+  </si>
+  <si>
+    <t>gmq0871</t>
+  </si>
+  <si>
+    <t>玉溪同城会</t>
+  </si>
+  <si>
+    <t>yxtch01</t>
+  </si>
+  <si>
+    <t>普洱全接触</t>
+  </si>
+  <si>
+    <t>pl-qjc</t>
+  </si>
+  <si>
+    <t>温州全接触</t>
+  </si>
+  <si>
+    <t>wzqjc0577</t>
+  </si>
+  <si>
+    <t>嘉兴吃货团</t>
+  </si>
+  <si>
+    <t>jxcht666</t>
+  </si>
+  <si>
+    <t>湖州全接触</t>
+  </si>
+  <si>
+    <t>huzhouqjc</t>
+  </si>
+  <si>
+    <t>汇美食V</t>
+  </si>
+  <si>
+    <t>huimeishiV</t>
+  </si>
+  <si>
+    <t>听觉记</t>
+  </si>
+  <si>
+    <t>tingjueji</t>
+  </si>
+  <si>
+    <t>城市书屋</t>
+  </si>
+  <si>
+    <t>chshshw</t>
+  </si>
+  <si>
+    <t>草根书屋</t>
+  </si>
+  <si>
+    <t>caogenshuwu668</t>
+  </si>
+  <si>
+    <t>春秋读物</t>
+  </si>
+  <si>
+    <t>chunqiuduwu</t>
+  </si>
+  <si>
+    <t>日常实用小常识</t>
+  </si>
+  <si>
+    <t>mtzykc</t>
+  </si>
+  <si>
+    <t>深夜不发呆</t>
+  </si>
+  <si>
+    <t>shenyebfd</t>
+  </si>
+  <si>
+    <t>天下刊物</t>
+  </si>
+  <si>
+    <t>TXGW11</t>
+  </si>
+  <si>
+    <t>趣闻馆</t>
+  </si>
+  <si>
+    <t>HMQWG11</t>
+  </si>
+  <si>
+    <t>天天故事精选</t>
+  </si>
+  <si>
+    <t>TTGS11</t>
+  </si>
+  <si>
+    <t>全球文化馆</t>
+  </si>
+  <si>
+    <t>QQWHG11</t>
+  </si>
+  <si>
+    <t>热点书刊</t>
+  </si>
+  <si>
+    <t>tianxiapindao</t>
+  </si>
+  <si>
+    <t>晚间必看阅读</t>
+  </si>
+  <si>
+    <t>wjbikanyuedu</t>
+  </si>
+  <si>
+    <t>家长育儿手册</t>
+  </si>
+  <si>
+    <t>jiazhangyuer</t>
+  </si>
+  <si>
+    <t>老北京说故事</t>
+  </si>
+  <si>
+    <t>lbjgushi</t>
+  </si>
+  <si>
+    <t>懒熊阅读</t>
+  </si>
+  <si>
+    <t>lanxiongyd</t>
+  </si>
+  <si>
+    <t>老王段子馆</t>
+  </si>
+  <si>
+    <t>laowangduanziguan</t>
+  </si>
+  <si>
+    <t>猪精大叔</t>
+  </si>
+  <si>
+    <t>gh_1735ef343086</t>
+  </si>
+  <si>
+    <t>脑洞档案室</t>
+  </si>
+  <si>
+    <t>jiemidanganshi</t>
+  </si>
+  <si>
+    <t>大咖追剧</t>
+  </si>
+  <si>
+    <t>dakazhuiju</t>
+  </si>
+  <si>
+    <t>闺书</t>
+  </si>
+  <si>
+    <t>KYGSP11</t>
+  </si>
+  <si>
+    <t>带书香的女人</t>
+  </si>
+  <si>
+    <t>dsxdnr</t>
+  </si>
+  <si>
+    <t>每晚睡前一个故事</t>
+  </si>
+  <si>
+    <t>mwsqyggs</t>
+  </si>
+  <si>
+    <t>花贞阁</t>
+  </si>
+  <si>
+    <t>qznebd</t>
+  </si>
+  <si>
+    <t>全球娱乐精选</t>
+  </si>
+  <si>
+    <t>qqyljx123</t>
+  </si>
+  <si>
+    <t>人生悦读</t>
+  </si>
+  <si>
+    <t>hongxiuxiren668</t>
+  </si>
+  <si>
+    <t>趣精选</t>
+  </si>
+  <si>
+    <t>qujingxuan01</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>文学文化</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>X1801050844430137</t>
+  </si>
+  <si>
+    <t>X1803091111264802</t>
+  </si>
+  <si>
+    <t>胡江超</t>
+  </si>
+  <si>
+    <t>X1712181337040001</t>
+  </si>
+  <si>
+    <t>广东深圳</t>
+  </si>
+  <si>
+    <t>广东广州</t>
+  </si>
+  <si>
+    <t>广东河源</t>
+  </si>
+  <si>
+    <t>广东珠海</t>
+  </si>
+  <si>
+    <t>广东佛山</t>
+  </si>
+  <si>
+    <t>安徽安庆</t>
+  </si>
+  <si>
+    <t>贵州贵阳</t>
+  </si>
+  <si>
+    <t>辽宁丹东</t>
+  </si>
+  <si>
+    <t>江西九江</t>
+  </si>
+  <si>
+    <t>江西赣州</t>
+  </si>
+  <si>
+    <t>辽宁营口</t>
+  </si>
+  <si>
+    <t>辽宁锦州</t>
+  </si>
+  <si>
+    <t>山东东营</t>
+  </si>
+  <si>
+    <t>山东淄博</t>
+  </si>
+  <si>
+    <t>山东德州</t>
+  </si>
+  <si>
+    <t>山东聊城</t>
+  </si>
+  <si>
+    <t>山东滨州</t>
+  </si>
+  <si>
+    <t>山西大同</t>
+  </si>
+  <si>
+    <t>山西运城</t>
+  </si>
+  <si>
+    <t>山西临汾</t>
+  </si>
+  <si>
+    <t>陕西宝鸡</t>
+  </si>
+  <si>
+    <t>云南昆明</t>
+  </si>
+  <si>
+    <t>云南玉溪</t>
+  </si>
+  <si>
+    <t>浙江温州</t>
+  </si>
+  <si>
+    <t>浙江嘉兴</t>
+  </si>
+  <si>
+    <t>浙江湖州</t>
   </si>
 </sst>
 </file>
@@ -812,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -879,1691 +1050,2137 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>104.7649</v>
       </c>
       <c r="D2" s="1">
-        <v>2700</v>
+        <v>19080</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>19080</v>
       </c>
       <c r="F2" s="1">
-        <v>1350</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
+        <v>8586</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>159.81</v>
       </c>
       <c r="D3" s="1">
-        <v>2160</v>
+        <v>25440</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>25440</v>
       </c>
       <c r="F3" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>10.1266</v>
       </c>
       <c r="D4" s="1">
-        <v>5940</v>
+        <v>4240</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>4240</v>
       </c>
       <c r="F4" s="1">
-        <v>2970</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
+        <v>2120</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>18.324400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>5400</v>
+        <v>5088</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>5088</v>
       </c>
       <c r="F5" s="1">
-        <v>2700</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
+        <v>2544</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>19.877300000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>2970</v>
+        <v>3561.6</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>3561.6</v>
       </c>
       <c r="F6" s="1">
-        <v>1485</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
+        <v>1780.8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>14.7468</v>
       </c>
       <c r="D7" s="1">
-        <v>3510</v>
+        <v>2628.8</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>2628.8</v>
       </c>
       <c r="F7" s="1">
-        <v>1755</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>2.5689000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>4860</v>
+        <v>1696</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="F8" s="1">
-        <v>2430</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>2.2465999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>6210</v>
+        <v>424</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="F9" s="1">
-        <v>3105</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
+        <v>169.6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>4.7634999999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>3240</v>
+        <v>848</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F10" s="1">
-        <v>1620</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
+        <v>339.2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>5.5808</v>
       </c>
       <c r="D11" s="1">
-        <v>3240</v>
+        <v>848</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F11" s="1">
-        <v>1620</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
+        <v>339.2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>7.4314</v>
       </c>
       <c r="D12" s="1">
-        <v>2160</v>
+        <v>848</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F12" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
+        <v>339.2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>7.8282999999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>6300</v>
+        <v>1272</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="F13" s="1">
-        <v>3150</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
+        <v>508.8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>5.6737000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>6300</v>
+        <v>848</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F14" s="1">
-        <v>3150</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>339.2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>6.9874000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>6300</v>
+        <v>848</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F15" s="1">
-        <v>3150</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
+        <v>339.2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>4.4958</v>
       </c>
       <c r="D16" s="1">
-        <v>2700</v>
+        <v>678.4</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F16" s="1">
-        <v>1350</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>4.3531000000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>1800</v>
+        <v>678.4</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F17" s="1">
-        <v>900</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>7.0075000000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>450</v>
+        <v>1272</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="F18" s="1">
-        <v>450</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
+        <v>508.8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>4.8647999999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>2430</v>
+        <v>678.4</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F19" s="1">
-        <v>1215</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>4.0290999999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>2295</v>
+        <v>678.4</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F20" s="1">
-        <v>1147.5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>3.9943</v>
       </c>
       <c r="D21" s="1">
-        <v>1350</v>
+        <v>678.4</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F21" s="1">
-        <v>675</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>3.9828000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>378</v>
+        <v>678.4</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F22" s="1">
-        <v>189</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>8.6462000000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>270</v>
+        <v>1272</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="F23" s="1">
-        <v>135</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
+        <v>508.8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>6.1055999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>297</v>
+        <v>848</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F24" s="1">
-        <v>148.5</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
+        <v>339.2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>2.4516</v>
       </c>
       <c r="D25" s="1">
-        <v>378</v>
+        <v>678.4</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F25" s="1">
-        <v>189</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>3.5798999999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>1269</v>
+        <v>678.4</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F26" s="1">
-        <v>634.5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>3.7208000000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>837</v>
+        <v>678.4</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F27" s="1">
-        <v>418.5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
+        <v>271.36</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>5.2925000000000004</v>
       </c>
       <c r="D28" s="1">
-        <v>594</v>
+        <v>1017.6</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1017.6</v>
       </c>
       <c r="F28" s="1">
-        <v>297</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
+        <v>407.04</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>17.332699999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>594</v>
+        <v>5936</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>5936</v>
       </c>
       <c r="F29" s="1">
-        <v>297</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
+        <v>2968</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>1.5241</v>
       </c>
       <c r="D30" s="1">
-        <v>2106</v>
+        <v>424</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="F30" s="1">
-        <v>1053</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
+        <v>169.6</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>14.711600000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>270</v>
+        <v>1272</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="F31" s="1">
-        <v>135</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
+        <v>508.8</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>10.870799999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>297</v>
+        <v>1696</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="F32" s="1">
-        <v>148.5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
+        <v>678.4</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>8.2879000000000005</v>
       </c>
       <c r="D33" s="1">
-        <v>837</v>
+        <v>3392</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>3392</v>
       </c>
       <c r="F33" s="1">
-        <v>418.5</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
+        <v>2544</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>5.9687999999999999</v>
       </c>
       <c r="D34" s="1">
-        <v>270</v>
+        <v>1272</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="F34" s="1">
-        <v>135</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
+        <v>508.8</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>3.7801</v>
       </c>
       <c r="D35" s="1">
-        <v>459</v>
+        <v>848</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F35" s="1">
-        <v>229.5</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
+        <v>339.2</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>53.389499999999998</v>
       </c>
       <c r="D36" s="1">
-        <v>351</v>
+        <v>5400</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>175.5</v>
+        <v>2400</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>31.745699999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>648</v>
+        <v>4200</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>324</v>
+        <v>1200</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>11.1228</v>
       </c>
       <c r="D38" s="1">
-        <v>270</v>
+        <v>1680</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>135</v>
+        <v>1080</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>11.0143</v>
       </c>
       <c r="D39" s="1">
-        <v>783</v>
+        <v>1680</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>391.5</v>
+        <v>1080</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C40" s="1">
-        <v>28</v>
+        <v>12.1396</v>
       </c>
       <c r="D40" s="1">
-        <v>14280</v>
+        <v>1800</v>
       </c>
       <c r="E40" s="1">
-        <v>17280</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>9800</v>
+        <v>900</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C41" s="1">
-        <v>12</v>
+        <v>8.6684999999999999</v>
       </c>
       <c r="D41" s="1">
-        <v>10200</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="1">
-        <v>13200</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>7250</v>
+        <v>960</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C42" s="1">
-        <v>14</v>
+        <v>10.508699999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>11900</v>
+        <v>1800</v>
       </c>
       <c r="E42" s="1">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>7250</v>
+        <v>1080</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1">
-        <v>26</v>
+        <v>11.219200000000001</v>
       </c>
       <c r="D43" s="1">
-        <v>9945</v>
+        <v>1620</v>
       </c>
       <c r="E43" s="1">
-        <v>12945</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>6315</v>
+        <v>1020</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>11.7113</v>
       </c>
       <c r="D44" s="1">
-        <v>1530</v>
+        <v>1500</v>
       </c>
       <c r="E44" s="1">
-        <v>4530</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>3510</v>
+        <v>900</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1">
-        <v>11</v>
+        <v>11.355</v>
       </c>
       <c r="D45" s="1">
-        <v>4250</v>
+        <v>1440</v>
       </c>
       <c r="E45" s="1">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>4402.5</v>
+        <v>780</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1">
-        <v>21</v>
+        <v>11.6469</v>
       </c>
       <c r="D46" s="1">
-        <v>25500</v>
+        <v>1860</v>
       </c>
       <c r="E46" s="1">
-        <v>28500</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>13200</v>
+        <v>1320</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7.5229999999999997</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1080</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.7457</v>
+      </c>
+      <c r="D48" s="1">
+        <v>600</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>360</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.8230999999999999</v>
+      </c>
+      <c r="D49" s="1">
+        <v>600</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>360</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.6969000000000001</v>
+      </c>
+      <c r="D50" s="1">
+        <v>600</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>360</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="C51" s="1">
+        <v>1.7013</v>
+      </c>
+      <c r="D51" s="1">
+        <v>600</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>360</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>113</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="1">
+        <v>21.057099999999998</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5160</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3480</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="1">
+        <v>9.2889999999999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1680</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1">
+        <v>14.498100000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1">
+        <v>11.250299999999999</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1680</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10.4665</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2100</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.6965000000000003</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6.9287999999999998</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2100</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1440</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6.1341999999999999</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3.9087000000000001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2640</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1440</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7.0450999999999997</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1080</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
   <si>
     <t>名称</t>
   </si>
@@ -66,124 +66,145 @@
     <t>地域</t>
   </si>
   <si>
-    <t>情感</t>
-  </si>
-  <si>
-    <t>胡江超</t>
-  </si>
-  <si>
-    <t>X1712181337040001</t>
-  </si>
-  <si>
-    <t>健康养生指南</t>
-  </si>
-  <si>
-    <t>yangsheng114</t>
-  </si>
-  <si>
-    <t>车神笔记</t>
-  </si>
-  <si>
-    <t>shenbiji001</t>
-  </si>
-  <si>
-    <t>汽车展馆</t>
-  </si>
-  <si>
-    <t>weimeifengj</t>
-  </si>
-  <si>
-    <t>世界旅游名胜收录</t>
-  </si>
-  <si>
-    <t>lvyoumingsheng</t>
-  </si>
-  <si>
-    <t>zhichang114</t>
-  </si>
-  <si>
-    <t>黄子华笑看生活</t>
-  </si>
-  <si>
-    <t>huangzihuaxksh</t>
-  </si>
-  <si>
-    <t>唯美爱情</t>
-  </si>
-  <si>
-    <t>wmaq114</t>
-  </si>
-  <si>
-    <t>瞬间看地球</t>
-  </si>
-  <si>
-    <t>kdiqiu</t>
-  </si>
-  <si>
-    <t>云浮石材</t>
-  </si>
-  <si>
-    <t>yunfushicai114</t>
-  </si>
-  <si>
-    <t>母婴健康指南</t>
-  </si>
-  <si>
-    <t>muyingzn</t>
-  </si>
-  <si>
-    <t>一加一营销策划</t>
-  </si>
-  <si>
-    <t>oneandone11</t>
-  </si>
-  <si>
-    <t>妈妈育儿经</t>
-  </si>
-  <si>
-    <t>mamayej</t>
-  </si>
-  <si>
-    <t>最实用生活资讯</t>
-  </si>
-  <si>
-    <t>zuishiyongshzx</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>职场</t>
-  </si>
-  <si>
-    <t>幽默搞笑</t>
-  </si>
-  <si>
-    <t>生活</t>
-  </si>
-  <si>
-    <t>母婴</t>
-  </si>
-  <si>
-    <t>广告营销</t>
-  </si>
-  <si>
-    <t>X1801050844470868</t>
-  </si>
-  <si>
-    <t>成功职场宝典</t>
-  </si>
-  <si>
-    <t>爱生活爱旅行</t>
-  </si>
-  <si>
-    <t>aishenghuoailvxing</t>
+    <t>佛山吃喝玩乐直通车</t>
+  </si>
+  <si>
+    <t>fschihewanle</t>
+  </si>
+  <si>
+    <t>大佛山美食树</t>
+  </si>
+  <si>
+    <t>foodtree</t>
+  </si>
+  <si>
+    <t>佛山吃喝玩乐推介</t>
+  </si>
+  <si>
+    <t>fsshanbawangcan</t>
+  </si>
+  <si>
+    <t>大佛山美食</t>
+  </si>
+  <si>
+    <t>佛山着数</t>
+  </si>
+  <si>
+    <t>热门佛山</t>
+  </si>
+  <si>
+    <t>hotfoshan</t>
+  </si>
+  <si>
+    <t>佛山好消息</t>
+  </si>
+  <si>
+    <t>fsmsztc</t>
+  </si>
+  <si>
+    <t>佛山论坛</t>
+  </si>
+  <si>
+    <t>fsluntan</t>
+  </si>
+  <si>
+    <t>佛山美食娱乐资讯</t>
+  </si>
+  <si>
+    <t>fsmshi</t>
+  </si>
+  <si>
+    <t>佛山坚嘢</t>
+  </si>
+  <si>
+    <t>fsjianye</t>
+  </si>
+  <si>
+    <t>吃喝玩乐在佛山</t>
+  </si>
+  <si>
+    <t>foshan-520</t>
+  </si>
+  <si>
+    <t>佛山正嘢</t>
+  </si>
+  <si>
+    <t>fszyeah</t>
+  </si>
+  <si>
+    <t>八卦佛山</t>
+  </si>
+  <si>
+    <t>fsbagua</t>
+  </si>
+  <si>
+    <t>女神吃喝玩乐</t>
+  </si>
+  <si>
+    <t>lovefs0757</t>
+  </si>
+  <si>
+    <t>佛山辣妈</t>
+  </si>
+  <si>
+    <t>fslama</t>
+  </si>
+  <si>
+    <t>佛山招聘直通车</t>
+  </si>
+  <si>
+    <t>fsjzqzztc</t>
+  </si>
+  <si>
+    <t>佛山校园</t>
+  </si>
+  <si>
+    <t>xiaoyuanfoshan</t>
+  </si>
+  <si>
+    <t>顺德吃喝玩乐直通车</t>
+  </si>
+  <si>
+    <t>吃喝玩乐in禅城</t>
+  </si>
+  <si>
+    <t>fscc075</t>
+  </si>
+  <si>
+    <t>南海有嘢益街坊</t>
+  </si>
+  <si>
+    <t>南海潮生活</t>
+  </si>
+  <si>
+    <t>nhlife0757</t>
+  </si>
+  <si>
+    <t>南海着数</t>
+  </si>
+  <si>
+    <t>shizainanhai6</t>
+  </si>
+  <si>
+    <t>X1903181058212066</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>X1712181338330003</t>
+  </si>
+  <si>
+    <t>fs-food</t>
+  </si>
+  <si>
+    <t>fszhaoshu</t>
+  </si>
+  <si>
+    <t>sdchwl</t>
+  </si>
+  <si>
+    <t>fsplzyjf</t>
   </si>
 </sst>
 </file>
@@ -626,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -693,366 +714,640 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>9.8000000000000007</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>3000</v>
+        <v>8000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>5.6</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
+        <v>5500</v>
+      </c>
+      <c r="F3" s="1">
         <v>3000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>2.2999999999999998</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>2000</v>
+        <v>5500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3500</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
-        <v>6.5</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F5" s="1">
         <v>2500</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
-        <v>5.6</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F6" s="1">
         <v>2000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>5.4</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
-        <v>1500</v>
+        <v>3500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2000</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>5.6</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="1">
         <v>1500</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
-        <v>5.3</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="1">
         <v>1500</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="1">
         <v>1500</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F11" s="1">
         <v>2000</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>2.2000000000000002</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>800</v>
+        <v>2500</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1500</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>400</v>
+        <v>2500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1500</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>2.2999999999999998</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>800</v>
+        <v>1500</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1000</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="1">
         <v>800</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>500</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>16</v>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F23" s="1">
+        <v>800</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="200">
   <si>
     <t>名称</t>
   </si>
@@ -58,18 +58,6 @@
   </si>
   <si>
     <t>地域</t>
-  </si>
-  <si>
-    <t>佛山吃喝玩乐直通车</t>
-  </si>
-  <si>
-    <t>fschihewanle</t>
-  </si>
-  <si>
-    <t>X1903181058212066</t>
-  </si>
-  <si>
-    <t>刘玲</t>
   </si>
   <si>
     <t>Biz</t>
@@ -84,7 +72,559 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MjM5NzA1MDU3NQ==</t>
+    <t>羞羞的书库</t>
+  </si>
+  <si>
+    <t>xiuxiudeSK</t>
+  </si>
+  <si>
+    <t>MzUxNjk1MDEyNw==</t>
+  </si>
+  <si>
+    <t>校园</t>
+  </si>
+  <si>
+    <t>8折折后价</t>
+  </si>
+  <si>
+    <t>X1905161521277524</t>
+  </si>
+  <si>
+    <t>刘汉梅</t>
+  </si>
+  <si>
+    <t>阿泽带你看校花</t>
+  </si>
+  <si>
+    <t>AZDNKXH</t>
+  </si>
+  <si>
+    <t>MzUxNTk1MjczMw==</t>
+  </si>
+  <si>
+    <t>好男人读书笔记</t>
+  </si>
+  <si>
+    <t>SYkuixiaoshuo</t>
+  </si>
+  <si>
+    <t>MzUzNTkyMjIwMw==</t>
+  </si>
+  <si>
+    <t>好男人会说话</t>
+  </si>
+  <si>
+    <t>XDFBY233</t>
+  </si>
+  <si>
+    <t>MzU3MDY3MzM1OA==</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>蛋姐讲段子</t>
+  </si>
+  <si>
+    <t>DJJDZ233</t>
+  </si>
+  <si>
+    <t>Mzg3NTAxNjM2MQ==</t>
+  </si>
+  <si>
+    <t>十万个笑话</t>
+  </si>
+  <si>
+    <t>SWGXH233</t>
+  </si>
+  <si>
+    <t>Mzg3NzAyNDE3MA==</t>
+  </si>
+  <si>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>妮玛暴走视频</t>
+  </si>
+  <si>
+    <t>NMBZMH</t>
+  </si>
+  <si>
+    <t>MzUyNjk2MDU5Mg=</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>微女性</t>
+  </si>
+  <si>
+    <t>Mweinvxing</t>
+  </si>
+  <si>
+    <t>MzU5NzY2NTMwNA==</t>
+  </si>
+  <si>
+    <t>小姐姐穿衣搭配</t>
+  </si>
+  <si>
+    <t>xiaojiejieCYDP</t>
+  </si>
+  <si>
+    <t>MzUyOTkyNDUxOQ==</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>小姐姐时尚穿搭</t>
+  </si>
+  <si>
+    <t>xiaojiejieSSCD</t>
+  </si>
+  <si>
+    <t>MzU1NDkyNDIwMA==</t>
+  </si>
+  <si>
+    <t>歪姐伴你夜读</t>
+  </si>
+  <si>
+    <t>WJyedu</t>
+  </si>
+  <si>
+    <t>MzU4OTcxMjkxMw==</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>女人睡前闻书香</t>
+  </si>
+  <si>
+    <t>NRSQWSX</t>
+  </si>
+  <si>
+    <t>Mzg3MzAxNjE3NA==</t>
+  </si>
+  <si>
+    <t>Jessica穿衣打扮</t>
+  </si>
+  <si>
+    <t>JessicaCYDP</t>
+  </si>
+  <si>
+    <t>Mzg5MDAyMTk5Mg==</t>
+  </si>
+  <si>
+    <t>暖心汪叔</t>
+  </si>
+  <si>
+    <t>nuanxinWS</t>
+  </si>
+  <si>
+    <t>MzU4Mzc1Nzg5OA==</t>
+  </si>
+  <si>
+    <t>喵姐居酒屋</t>
+  </si>
+  <si>
+    <t>miaojiejujiuwu</t>
+  </si>
+  <si>
+    <t>Mzg4NzA0MDYwMQ==</t>
+  </si>
+  <si>
+    <t>有趣青年瑜伽</t>
+  </si>
+  <si>
+    <t>YQQNYJ</t>
+  </si>
+  <si>
+    <t>MzUxNjk2MTQwNQ==</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>爱美范</t>
+  </si>
+  <si>
+    <t>aimeifan2333</t>
+  </si>
+  <si>
+    <t>MzU2MTc1MzQwNg==</t>
+  </si>
+  <si>
+    <t>壹条短视频</t>
+  </si>
+  <si>
+    <t>YTDSP233</t>
+  </si>
+  <si>
+    <t>MzU5MTcyOTU4OA==</t>
+  </si>
+  <si>
+    <t>阿泽学长书院</t>
+  </si>
+  <si>
+    <t>AZXZSY</t>
+  </si>
+  <si>
+    <t>MzUxNzk1ODM2NQ=</t>
+  </si>
+  <si>
+    <t>二更小小视频</t>
+  </si>
+  <si>
+    <t>EGXXSP</t>
+  </si>
+  <si>
+    <t>Mzg4NDAyOTMxNw==</t>
+  </si>
+  <si>
+    <t>天天享瘦</t>
+  </si>
+  <si>
+    <t>xiangshou233</t>
+  </si>
+  <si>
+    <t>MzU5NjY2OTQxMQ==</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>美胸的技巧</t>
+  </si>
+  <si>
+    <t>MXDJQ233</t>
+  </si>
+  <si>
+    <t>MzU1Mjc5MzYzOA==</t>
+  </si>
+  <si>
+    <t>育儿指导手册</t>
+  </si>
+  <si>
+    <t>YEZDSC</t>
+  </si>
+  <si>
+    <t>MzU3MzU1MDYyOQ==</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>好父母must读</t>
+  </si>
+  <si>
+    <t>haofumumustdu</t>
+  </si>
+  <si>
+    <t>MzU4MDY3MDUyNw==</t>
+  </si>
+  <si>
+    <t>妈妈读心术</t>
+  </si>
+  <si>
+    <t>MMDXS6</t>
+  </si>
+  <si>
+    <t>MzUxNzkyMTU3Nw==</t>
+  </si>
+  <si>
+    <t>好父母必懂知识</t>
+  </si>
+  <si>
+    <t>hfmbidzs</t>
+  </si>
+  <si>
+    <t>MzU0MzkyMDQ0NQ==</t>
+  </si>
+  <si>
+    <t>三更爱情语录</t>
+  </si>
+  <si>
+    <t>YD3glove</t>
+  </si>
+  <si>
+    <t>MzU2NTU0OTQxOQ==</t>
+  </si>
+  <si>
+    <t>午夜轻声说</t>
+  </si>
+  <si>
+    <t>gh_76e948cde999</t>
+  </si>
+  <si>
+    <t>MzU4ODcyODczMQ==</t>
+  </si>
+  <si>
+    <t>懒人家常菜速成</t>
+  </si>
+  <si>
+    <t>LRJCCSC</t>
+  </si>
+  <si>
+    <t>MzU4OTc0NjQ2Mg==</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>深圳玩荟</t>
+  </si>
+  <si>
+    <t>SZWH233</t>
+  </si>
+  <si>
+    <t>MzUxMDkyMjk1Ng==</t>
+  </si>
+  <si>
+    <t>润想广州</t>
+  </si>
+  <si>
+    <t>runxiangguangzhou</t>
+  </si>
+  <si>
+    <t>MzUzMDc5NDI5Mw==</t>
+  </si>
+  <si>
+    <t>爆汁广州</t>
+  </si>
+  <si>
+    <t>BZguangzhou</t>
+  </si>
+  <si>
+    <t>MzU5NjY3NDkzMg==</t>
+  </si>
+  <si>
+    <t>佛爷最潮事</t>
+  </si>
+  <si>
+    <t>foshanZCS</t>
+  </si>
+  <si>
+    <t>MzUzNjk2ODg1Nw==</t>
+  </si>
+  <si>
+    <t>热搜东莞</t>
+  </si>
+  <si>
+    <t>RSdongguan</t>
+  </si>
+  <si>
+    <t>MzU0MzkyMjYxOQ==</t>
+  </si>
+  <si>
+    <t>珠海玩荟</t>
+  </si>
+  <si>
+    <t>WHzhuhai</t>
+  </si>
+  <si>
+    <t>MzU2MzY4MjQ4Ng==</t>
+  </si>
+  <si>
+    <t>莞城最潮事</t>
+  </si>
+  <si>
+    <t>dongguanZCS</t>
+  </si>
+  <si>
+    <t>MzU1OTc0MDMyOQ==</t>
+  </si>
+  <si>
+    <t>秒搜中山</t>
+  </si>
+  <si>
+    <t>MSzhongshan</t>
+  </si>
+  <si>
+    <t>MzU5NzY3MDg2OQ==</t>
+  </si>
+  <si>
+    <t>劲爆成都</t>
+  </si>
+  <si>
+    <t>jingbaocd</t>
+  </si>
+  <si>
+    <t>MzU3MTY3Nzc4Mg==</t>
+  </si>
+  <si>
+    <t>成都大道中</t>
+  </si>
+  <si>
+    <t>mcddadao</t>
+  </si>
+  <si>
+    <t>MzU1OTY2OTc4Nw==</t>
+  </si>
+  <si>
+    <t>最爱大蓉城</t>
+  </si>
+  <si>
+    <t>zuiaiDRC</t>
+  </si>
+  <si>
+    <t>MzU5NzgyMTU3OA==</t>
+  </si>
+  <si>
+    <t>重庆玩荟</t>
+  </si>
+  <si>
+    <t>WHchongqing</t>
+  </si>
+  <si>
+    <t>MzUzOTkzMzkyNw==</t>
+  </si>
+  <si>
+    <t>星城玩荟</t>
+  </si>
+  <si>
+    <t>mchangsha</t>
+  </si>
+  <si>
+    <t>MzUyMjkzNTAzMw==</t>
+  </si>
+  <si>
+    <t>长沙大道中</t>
+  </si>
+  <si>
+    <t>CSdadaozhong</t>
+  </si>
+  <si>
+    <t>MzU3MTY3MjcxOA==</t>
+  </si>
+  <si>
+    <t>长沙知多点</t>
+  </si>
+  <si>
+    <t>changshazdd</t>
+  </si>
+  <si>
+    <t>MzUzOTkyNzY4NQ==</t>
+  </si>
+  <si>
+    <t>长沙趣生活</t>
+  </si>
+  <si>
+    <t>changshalive</t>
+  </si>
+  <si>
+    <t>MzU2MDY2NjE5NQ==</t>
+  </si>
+  <si>
+    <t>长沙记事</t>
+  </si>
+  <si>
+    <t>JSChangSha</t>
+  </si>
+  <si>
+    <t>MzUyMTkzMzc5NA==</t>
+  </si>
+  <si>
+    <t>春城最潮事</t>
+  </si>
+  <si>
+    <t>chunchengZCS</t>
+  </si>
+  <si>
+    <t>MzU3MDY4MjUzNw==</t>
+  </si>
+  <si>
+    <t>昆明玩荟</t>
+  </si>
+  <si>
+    <t>KMwanhui</t>
+  </si>
+  <si>
+    <t>MzUyNDkzMzM1NA==</t>
+  </si>
+  <si>
+    <t>济南热搜</t>
+  </si>
+  <si>
+    <t>jinanresou</t>
+  </si>
+  <si>
+    <t>MzUyMTc5MzY2OQ==</t>
+  </si>
+  <si>
+    <t>泉城最潮事</t>
+  </si>
+  <si>
+    <t>quanchengZCS</t>
+  </si>
+  <si>
+    <t>MzU3Njc0ODQwMg==</t>
+  </si>
+  <si>
+    <t>Halo杭州</t>
+  </si>
+  <si>
+    <t>Halohangzhou</t>
+  </si>
+  <si>
+    <t>MzU3NjY3MzQxNw==</t>
+  </si>
+  <si>
+    <t>武汉秒搜</t>
+  </si>
+  <si>
+    <t>WuHanlive</t>
+  </si>
+  <si>
+    <t>MzU0OTkyNDE4OQ==</t>
+  </si>
+  <si>
+    <t>厦门小柠檬</t>
+  </si>
+  <si>
+    <t>xiamenningmeng</t>
+  </si>
+  <si>
+    <t>MzU2NDY3MDAzMA==</t>
+  </si>
+  <si>
+    <t>游乐福州</t>
+  </si>
+  <si>
+    <t>YLfuzhou</t>
+  </si>
+  <si>
+    <t>MzU4NzY3MDAyNw==</t>
+  </si>
+  <si>
+    <t>最美天津</t>
+  </si>
+  <si>
+    <t>zuimeitianjin</t>
+  </si>
+  <si>
+    <t>MzU4MjY3MjE2MQ==</t>
+  </si>
+  <si>
+    <t>金陵秒搜</t>
+  </si>
+  <si>
+    <t>jinlingmiaosou</t>
+  </si>
+  <si>
+    <t>MzU5MDY5Mjc4Mw==</t>
+  </si>
+  <si>
+    <t>南昌乐活派</t>
+  </si>
+  <si>
+    <t>nanchangLHP</t>
+  </si>
+  <si>
+    <t>MzU1MDkyMjA1NQ==</t>
+  </si>
+  <si>
+    <t>X1712181403400031</t>
   </si>
 </sst>
 </file>
@@ -527,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -557,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -593,36 +1133,2515 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
+        <v>6.0815999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2433</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.1365999999999996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2055</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.867</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3286</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.8170000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3818</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.2553999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>313</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17.807700000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1710</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5500</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17.0444</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1636</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.5872000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>789</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.6669</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.0275999999999996</v>
+      </c>
+      <c r="E11" s="1">
+        <v>731</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.3043999999999993</v>
+      </c>
+      <c r="E12" s="1">
+        <v>864</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8.0378000000000007</v>
+      </c>
+      <c r="E13" s="1">
+        <v>836</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.8856999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>404</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.4237000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>460</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.4319000000000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>357</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10.6882</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1283</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.2328999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>232</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17.889199999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1431</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13.3146</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1065</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.6623000000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>373</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.8219000000000003</v>
+      </c>
+      <c r="E22" s="1">
+        <v>386</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.8766999999999996</v>
+      </c>
+      <c r="E23" s="1">
+        <v>507</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.4242999999999997</v>
+      </c>
+      <c r="E24" s="1">
+        <v>594</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7.2423999999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>579</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6.2595000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>501</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11.5001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>920</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.8095999999999997</v>
+      </c>
+      <c r="E28" s="1">
+        <v>705</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10.074</v>
+      </c>
+      <c r="E29" s="1">
+        <v>806</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.9494999999999996</v>
+      </c>
+      <c r="E30" s="1">
+        <v>619</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9.7583000000000002</v>
+      </c>
+      <c r="E31" s="1">
+        <v>781</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
+      <c r="K31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8.8529999999999998</v>
+      </c>
+      <c r="E32" s="1">
+        <v>708</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.8755000000000006</v>
+      </c>
+      <c r="E33" s="1">
+        <v>790</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.9351000000000003</v>
+      </c>
+      <c r="E34" s="1">
+        <v>395</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7.5321999999999996</v>
+      </c>
+      <c r="E35" s="1">
+        <v>603</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.9348000000000001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>395</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.5882000000000005</v>
+      </c>
+      <c r="E37" s="1">
+        <v>767</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9.4207000000000001</v>
+      </c>
+      <c r="E38" s="1">
+        <v>754</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9.8742000000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>790</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8.6362000000000005</v>
+      </c>
+      <c r="E40" s="1">
+        <v>691</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7.0071000000000003</v>
+      </c>
+      <c r="E41" s="1">
+        <v>729</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8.0729000000000006</v>
+      </c>
+      <c r="E42" s="1">
+        <v>646</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10.3353</v>
+      </c>
+      <c r="E43" s="1">
+        <v>827</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.9402000000000008</v>
+      </c>
+      <c r="E44" s="1">
+        <v>795</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.6974999999999998</v>
+      </c>
+      <c r="E45" s="1">
+        <v>696</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9.1529000000000007</v>
+      </c>
+      <c r="E46" s="1">
+        <v>732</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10.128299999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1053</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10.377599999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>830</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="1">
+        <v>11.9491</v>
+      </c>
+      <c r="E49" s="1">
+        <v>956</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7.0411999999999999</v>
+      </c>
+      <c r="E50" s="1">
+        <v>563</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6.6543999999999999</v>
+      </c>
+      <c r="E51" s="1">
+        <v>692</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6.9715999999999996</v>
+      </c>
+      <c r="E52" s="1">
+        <v>558</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8.5580999999999996</v>
+      </c>
+      <c r="E53" s="1">
+        <v>685</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="1">
+        <v>15.2476</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1220</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10.3155</v>
+      </c>
+      <c r="E55" s="1">
+        <v>825</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7.0357000000000003</v>
+      </c>
+      <c r="E56" s="1">
+        <v>563</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="1">
+        <v>9.4649999999999999</v>
+      </c>
+      <c r="E57" s="1">
+        <v>757</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="1">
+        <v>7.9043999999999999</v>
+      </c>
+      <c r="E58" s="1">
+        <v>632</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weixin.xlsx
+++ b/Ada.Web/upload/weixin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="283">
   <si>
     <t>名称</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>归属</t>
-  </si>
-  <si>
-    <t>地域</t>
   </si>
   <si>
     <t>Biz</t>
@@ -72,559 +69,812 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>羞羞的书库</t>
-  </si>
-  <si>
-    <t>xiuxiudeSK</t>
-  </si>
-  <si>
-    <t>MzUxNjk1MDEyNw==</t>
-  </si>
-  <si>
-    <t>校园</t>
-  </si>
-  <si>
-    <t>8折折后价</t>
-  </si>
-  <si>
-    <t>X1905161521277524</t>
-  </si>
-  <si>
-    <t>刘汉梅</t>
-  </si>
-  <si>
-    <t>阿泽带你看校花</t>
-  </si>
-  <si>
-    <t>AZDNKXH</t>
-  </si>
-  <si>
-    <t>MzUxNTk1MjczMw==</t>
-  </si>
-  <si>
-    <t>好男人读书笔记</t>
-  </si>
-  <si>
-    <t>SYkuixiaoshuo</t>
-  </si>
-  <si>
-    <t>MzUzNTkyMjIwMw==</t>
-  </si>
-  <si>
-    <t>好男人会说话</t>
-  </si>
-  <si>
-    <t>XDFBY233</t>
-  </si>
-  <si>
-    <t>MzU3MDY3MzM1OA==</t>
-  </si>
-  <si>
     <t>生活</t>
   </si>
   <si>
-    <t>蛋姐讲段子</t>
-  </si>
-  <si>
-    <t>DJJDZ233</t>
-  </si>
-  <si>
-    <t>Mzg3NTAxNjM2MQ==</t>
-  </si>
-  <si>
-    <t>十万个笑话</t>
-  </si>
-  <si>
-    <t>SWGXH233</t>
-  </si>
-  <si>
-    <t>Mzg3NzAyNDE3MA==</t>
-  </si>
-  <si>
     <t>幽默搞笑</t>
   </si>
   <si>
-    <t>妮玛暴走视频</t>
-  </si>
-  <si>
-    <t>NMBZMH</t>
-  </si>
-  <si>
-    <t>MzUyNjk2MDU5Mg=</t>
-  </si>
-  <si>
-    <t>视频</t>
-  </si>
-  <si>
-    <t>微女性</t>
-  </si>
-  <si>
-    <t>Mweinvxing</t>
-  </si>
-  <si>
-    <t>MzU5NzY2NTMwNA==</t>
-  </si>
-  <si>
-    <t>小姐姐穿衣搭配</t>
-  </si>
-  <si>
-    <t>xiaojiejieCYDP</t>
-  </si>
-  <si>
-    <t>MzUyOTkyNDUxOQ==</t>
-  </si>
-  <si>
     <t>女性时尚</t>
   </si>
   <si>
-    <t>小姐姐时尚穿搭</t>
-  </si>
-  <si>
-    <t>xiaojiejieSSCD</t>
-  </si>
-  <si>
-    <t>MzU1NDkyNDIwMA==</t>
-  </si>
-  <si>
-    <t>歪姐伴你夜读</t>
-  </si>
-  <si>
-    <t>WJyedu</t>
-  </si>
-  <si>
-    <t>MzU4OTcxMjkxMw==</t>
-  </si>
-  <si>
     <t>情感</t>
   </si>
   <si>
-    <t>女人睡前闻书香</t>
-  </si>
-  <si>
-    <t>NRSQWSX</t>
-  </si>
-  <si>
-    <t>Mzg3MzAxNjE3NA==</t>
-  </si>
-  <si>
-    <t>Jessica穿衣打扮</t>
-  </si>
-  <si>
-    <t>JessicaCYDP</t>
-  </si>
-  <si>
-    <t>Mzg5MDAyMTk5Mg==</t>
-  </si>
-  <si>
-    <t>暖心汪叔</t>
-  </si>
-  <si>
-    <t>nuanxinWS</t>
-  </si>
-  <si>
-    <t>MzU4Mzc1Nzg5OA==</t>
-  </si>
-  <si>
-    <t>喵姐居酒屋</t>
-  </si>
-  <si>
-    <t>miaojiejujiuwu</t>
-  </si>
-  <si>
-    <t>Mzg4NzA0MDYwMQ==</t>
-  </si>
-  <si>
-    <t>有趣青年瑜伽</t>
-  </si>
-  <si>
-    <t>YQQNYJ</t>
-  </si>
-  <si>
-    <t>MzUxNjk2MTQwNQ==</t>
-  </si>
-  <si>
     <t>运动</t>
   </si>
   <si>
-    <t>爱美范</t>
-  </si>
-  <si>
-    <t>aimeifan2333</t>
-  </si>
-  <si>
-    <t>MzU2MTc1MzQwNg==</t>
-  </si>
-  <si>
-    <t>壹条短视频</t>
-  </si>
-  <si>
-    <t>YTDSP233</t>
-  </si>
-  <si>
-    <t>MzU5MTcyOTU4OA==</t>
-  </si>
-  <si>
-    <t>阿泽学长书院</t>
-  </si>
-  <si>
-    <t>AZXZSY</t>
-  </si>
-  <si>
-    <t>MzUxNzk1ODM2NQ=</t>
-  </si>
-  <si>
-    <t>二更小小视频</t>
-  </si>
-  <si>
-    <t>EGXXSP</t>
-  </si>
-  <si>
-    <t>Mzg4NDAyOTMxNw==</t>
-  </si>
-  <si>
-    <t>天天享瘦</t>
-  </si>
-  <si>
-    <t>xiangshou233</t>
-  </si>
-  <si>
-    <t>MzU5NjY2OTQxMQ==</t>
-  </si>
-  <si>
     <t>健康</t>
   </si>
   <si>
-    <t>美胸的技巧</t>
-  </si>
-  <si>
-    <t>MXDJQ233</t>
-  </si>
-  <si>
-    <t>MzU1Mjc5MzYzOA==</t>
-  </si>
-  <si>
-    <t>育儿指导手册</t>
-  </si>
-  <si>
-    <t>YEZDSC</t>
-  </si>
-  <si>
-    <t>MzU3MzU1MDYyOQ==</t>
-  </si>
-  <si>
-    <t>母婴</t>
-  </si>
-  <si>
-    <t>好父母must读</t>
-  </si>
-  <si>
-    <t>haofumumustdu</t>
-  </si>
-  <si>
-    <t>MzU4MDY3MDUyNw==</t>
-  </si>
-  <si>
-    <t>妈妈读心术</t>
-  </si>
-  <si>
-    <t>MMDXS6</t>
-  </si>
-  <si>
-    <t>MzUxNzkyMTU3Nw==</t>
-  </si>
-  <si>
-    <t>好父母必懂知识</t>
-  </si>
-  <si>
-    <t>hfmbidzs</t>
-  </si>
-  <si>
-    <t>MzU0MzkyMDQ0NQ==</t>
-  </si>
-  <si>
-    <t>三更爱情语录</t>
-  </si>
-  <si>
-    <t>YD3glove</t>
-  </si>
-  <si>
-    <t>MzU2NTU0OTQxOQ==</t>
-  </si>
-  <si>
-    <t>午夜轻声说</t>
-  </si>
-  <si>
-    <t>gh_76e948cde999</t>
-  </si>
-  <si>
-    <t>MzU4ODcyODczMQ==</t>
-  </si>
-  <si>
-    <t>懒人家常菜速成</t>
-  </si>
-  <si>
-    <t>LRJCCSC</t>
-  </si>
-  <si>
-    <t>MzU4OTc0NjQ2Mg==</t>
-  </si>
-  <si>
     <t>美食</t>
   </si>
   <si>
-    <t>深圳玩荟</t>
-  </si>
-  <si>
-    <t>SZWH233</t>
-  </si>
-  <si>
-    <t>MzUxMDkyMjk1Ng==</t>
-  </si>
-  <si>
-    <t>润想广州</t>
-  </si>
-  <si>
-    <t>runxiangguangzhou</t>
-  </si>
-  <si>
-    <t>MzUzMDc5NDI5Mw==</t>
-  </si>
-  <si>
-    <t>爆汁广州</t>
-  </si>
-  <si>
-    <t>BZguangzhou</t>
-  </si>
-  <si>
-    <t>MzU5NjY3NDkzMg==</t>
-  </si>
-  <si>
-    <t>佛爷最潮事</t>
-  </si>
-  <si>
-    <t>foshanZCS</t>
-  </si>
-  <si>
-    <t>MzUzNjk2ODg1Nw==</t>
-  </si>
-  <si>
-    <t>热搜东莞</t>
-  </si>
-  <si>
-    <t>RSdongguan</t>
-  </si>
-  <si>
-    <t>MzU0MzkyMjYxOQ==</t>
-  </si>
-  <si>
-    <t>珠海玩荟</t>
-  </si>
-  <si>
-    <t>WHzhuhai</t>
-  </si>
-  <si>
-    <t>MzU2MzY4MjQ4Ng==</t>
-  </si>
-  <si>
-    <t>莞城最潮事</t>
-  </si>
-  <si>
-    <t>dongguanZCS</t>
-  </si>
-  <si>
-    <t>MzU1OTc0MDMyOQ==</t>
-  </si>
-  <si>
-    <t>秒搜中山</t>
-  </si>
-  <si>
-    <t>MSzhongshan</t>
-  </si>
-  <si>
-    <t>MzU5NzY3MDg2OQ==</t>
-  </si>
-  <si>
-    <t>劲爆成都</t>
-  </si>
-  <si>
-    <t>jingbaocd</t>
-  </si>
-  <si>
-    <t>MzU3MTY3Nzc4Mg==</t>
-  </si>
-  <si>
-    <t>成都大道中</t>
-  </si>
-  <si>
-    <t>mcddadao</t>
-  </si>
-  <si>
-    <t>MzU1OTY2OTc4Nw==</t>
-  </si>
-  <si>
-    <t>最爱大蓉城</t>
-  </si>
-  <si>
-    <t>zuiaiDRC</t>
-  </si>
-  <si>
-    <t>MzU5NzgyMTU3OA==</t>
-  </si>
-  <si>
-    <t>重庆玩荟</t>
-  </si>
-  <si>
-    <t>WHchongqing</t>
-  </si>
-  <si>
-    <t>MzUzOTkzMzkyNw==</t>
-  </si>
-  <si>
-    <t>星城玩荟</t>
-  </si>
-  <si>
-    <t>mchangsha</t>
-  </si>
-  <si>
-    <t>MzUyMjkzNTAzMw==</t>
-  </si>
-  <si>
-    <t>长沙大道中</t>
-  </si>
-  <si>
-    <t>CSdadaozhong</t>
-  </si>
-  <si>
-    <t>MzU3MTY3MjcxOA==</t>
-  </si>
-  <si>
-    <t>长沙知多点</t>
-  </si>
-  <si>
-    <t>changshazdd</t>
-  </si>
-  <si>
-    <t>MzUzOTkyNzY4NQ==</t>
-  </si>
-  <si>
-    <t>长沙趣生活</t>
-  </si>
-  <si>
-    <t>changshalive</t>
-  </si>
-  <si>
-    <t>MzU2MDY2NjE5NQ==</t>
-  </si>
-  <si>
-    <t>长沙记事</t>
-  </si>
-  <si>
-    <t>JSChangSha</t>
-  </si>
-  <si>
-    <t>MzUyMTkzMzc5NA==</t>
-  </si>
-  <si>
-    <t>春城最潮事</t>
-  </si>
-  <si>
-    <t>chunchengZCS</t>
-  </si>
-  <si>
-    <t>MzU3MDY4MjUzNw==</t>
-  </si>
-  <si>
-    <t>昆明玩荟</t>
-  </si>
-  <si>
-    <t>KMwanhui</t>
-  </si>
-  <si>
-    <t>MzUyNDkzMzM1NA==</t>
-  </si>
-  <si>
-    <t>济南热搜</t>
-  </si>
-  <si>
-    <t>jinanresou</t>
-  </si>
-  <si>
-    <t>MzUyMTc5MzY2OQ==</t>
-  </si>
-  <si>
-    <t>泉城最潮事</t>
-  </si>
-  <si>
-    <t>quanchengZCS</t>
-  </si>
-  <si>
-    <t>MzU3Njc0ODQwMg==</t>
-  </si>
-  <si>
-    <t>Halo杭州</t>
-  </si>
-  <si>
-    <t>Halohangzhou</t>
-  </si>
-  <si>
-    <t>MzU3NjY3MzQxNw==</t>
-  </si>
-  <si>
-    <t>武汉秒搜</t>
-  </si>
-  <si>
-    <t>WuHanlive</t>
-  </si>
-  <si>
-    <t>MzU0OTkyNDE4OQ==</t>
-  </si>
-  <si>
-    <t>厦门小柠檬</t>
-  </si>
-  <si>
-    <t>xiamenningmeng</t>
-  </si>
-  <si>
-    <t>MzU2NDY3MDAzMA==</t>
-  </si>
-  <si>
-    <t>游乐福州</t>
-  </si>
-  <si>
-    <t>YLfuzhou</t>
-  </si>
-  <si>
-    <t>MzU4NzY3MDAyNw==</t>
-  </si>
-  <si>
-    <t>最美天津</t>
-  </si>
-  <si>
-    <t>zuimeitianjin</t>
-  </si>
-  <si>
-    <t>MzU4MjY3MjE2MQ==</t>
-  </si>
-  <si>
-    <t>金陵秒搜</t>
-  </si>
-  <si>
-    <t>jinlingmiaosou</t>
-  </si>
-  <si>
-    <t>MzU5MDY5Mjc4Mw==</t>
-  </si>
-  <si>
-    <t>南昌乐活派</t>
-  </si>
-  <si>
-    <t>nanchangLHP</t>
-  </si>
-  <si>
-    <t>MzU1MDkyMjA1NQ==</t>
-  </si>
-  <si>
-    <t>X1712181403400031</t>
+    <t>樱子瑜伽课堂</t>
+  </si>
+  <si>
+    <t>pptv260</t>
+  </si>
+  <si>
+    <t>MzIzMTEwNjQ5NQ==</t>
+  </si>
+  <si>
+    <t>X1803211110210061</t>
+  </si>
+  <si>
+    <t>邹春红</t>
+  </si>
+  <si>
+    <t>胖子瘦到90斤</t>
+  </si>
+  <si>
+    <t>vipbb11</t>
+  </si>
+  <si>
+    <t>MzI5MDE3MjQwMg==</t>
+  </si>
+  <si>
+    <t>轻声蜜语</t>
+  </si>
+  <si>
+    <t>sycx220</t>
+  </si>
+  <si>
+    <t>MzI3Nzg4NTg1Nw==</t>
+  </si>
+  <si>
+    <t>婚姻爱情微语录</t>
+  </si>
+  <si>
+    <t>hunyin202</t>
+  </si>
+  <si>
+    <t>MzIxNjAyNDMzNA==</t>
+  </si>
+  <si>
+    <t>恋爱小声说</t>
+  </si>
+  <si>
+    <t>wxs230</t>
+  </si>
+  <si>
+    <t>MzIzMjA5MzY1Mw==</t>
+  </si>
+  <si>
+    <t>精彩的小故事</t>
+  </si>
+  <si>
+    <t>jingcai560</t>
+  </si>
+  <si>
+    <t>MzI0NzY3NzUzOA==</t>
+  </si>
+  <si>
+    <t>cici时尚穿搭</t>
+  </si>
+  <si>
+    <t>ertai9988</t>
+  </si>
+  <si>
+    <t>MzU2NzIzMjMxMA==</t>
+  </si>
+  <si>
+    <t>美容养生宝典</t>
+  </si>
+  <si>
+    <t>mrys33</t>
+  </si>
+  <si>
+    <t>MzI4OTA5NzMzOQ==</t>
+  </si>
+  <si>
+    <t>养生</t>
+  </si>
+  <si>
+    <t>美白护肤小手册</t>
+  </si>
+  <si>
+    <t>bbip230</t>
+  </si>
+  <si>
+    <t>MzI4MzQ4MTcwOQ==</t>
+  </si>
+  <si>
+    <t>美丽护肤化妆术</t>
+  </si>
+  <si>
+    <t>piaoliang220</t>
+  </si>
+  <si>
+    <t>MzA5MzQzMjI4Ng==</t>
+  </si>
+  <si>
+    <t>学美白和祛斑</t>
+  </si>
+  <si>
+    <t>meibai220</t>
+  </si>
+  <si>
+    <t>MzI2MTUwODcxMg==</t>
+  </si>
+  <si>
+    <t>美白祛斑手册</t>
+  </si>
+  <si>
+    <t>ookk25</t>
+  </si>
+  <si>
+    <t>MzAxMjgyMzA1Ng==</t>
+  </si>
+  <si>
+    <t>做饭菜谱大全</t>
+  </si>
+  <si>
+    <t>caipu33</t>
+  </si>
+  <si>
+    <t>MzA4MTczMDQ0NQ==</t>
+  </si>
+  <si>
+    <t>教你学做饭菜</t>
+  </si>
+  <si>
+    <t>oopp266</t>
+  </si>
+  <si>
+    <t>MzI4NzE3MjQ1Mg==</t>
+  </si>
+  <si>
+    <t>学做家常菜谱</t>
+  </si>
+  <si>
+    <t>zuofan25</t>
+  </si>
+  <si>
+    <t>MzIwNjYzMTQ2NA==</t>
+  </si>
+  <si>
+    <t>美食家常食谱</t>
+  </si>
+  <si>
+    <t>chihuo268</t>
+  </si>
+  <si>
+    <t>MzI1ODA5NTU1Mw==</t>
+  </si>
+  <si>
+    <t>我与美食的日常</t>
+  </si>
+  <si>
+    <t>meis233</t>
+  </si>
+  <si>
+    <t>MzA5MzQzMjM2MQ==</t>
+  </si>
+  <si>
+    <t>教您学做饭菜</t>
+  </si>
+  <si>
+    <t>fancai235</t>
+  </si>
+  <si>
+    <t>MzI2MjUyMTkxOA==</t>
+  </si>
+  <si>
+    <t>瘦腰瘦腿瘦肚子</t>
+  </si>
+  <si>
+    <t>ccpp38</t>
+  </si>
+  <si>
+    <t>MzA3NDA5Njg0NA==</t>
+  </si>
+  <si>
+    <t>教你瘦大肚子</t>
+  </si>
+  <si>
+    <t>shou1288</t>
+  </si>
+  <si>
+    <t>MzI3MTM5ODE4NQ==</t>
+  </si>
+  <si>
+    <t>教你轻松瘦小肚子</t>
+  </si>
+  <si>
+    <t>meixiong33</t>
+  </si>
+  <si>
+    <t>MzAwMDgyMTg5Ng==</t>
+  </si>
+  <si>
+    <t>教你瘦小肚子</t>
+  </si>
+  <si>
+    <t>iipp88</t>
+  </si>
+  <si>
+    <t>MzIxMjIwNzk2OQ==</t>
+  </si>
+  <si>
+    <t>教你瘦掉肚子</t>
+  </si>
+  <si>
+    <t>meijia230</t>
+  </si>
+  <si>
+    <t>MzI5OTE3MDkzNQ==</t>
+  </si>
+  <si>
+    <t>教你轻松瘦肚子</t>
+  </si>
+  <si>
+    <t>mmyy266</t>
+  </si>
+  <si>
+    <t>MzI1NzE2NzI5Mw==</t>
+  </si>
+  <si>
+    <t>教你轻松瘦掉肚子</t>
+  </si>
+  <si>
+    <t>qipa06</t>
+  </si>
+  <si>
+    <t>MzI1ODA0MjQ4Nw==</t>
+  </si>
+  <si>
+    <t>教你瘦瘦瘦</t>
+  </si>
+  <si>
+    <t>viptt33</t>
+  </si>
+  <si>
+    <t>MzA3NDY2OTI0OQ==</t>
+  </si>
+  <si>
+    <t>健康瘦身秘籍</t>
+  </si>
+  <si>
+    <t>jkss230</t>
+  </si>
+  <si>
+    <t>MzA3NTQyNzE3Nw==</t>
+  </si>
+  <si>
+    <t>我的瘦身学堂</t>
+  </si>
+  <si>
+    <t>ssxt230</t>
+  </si>
+  <si>
+    <t>MzA4MTc2NTc5Mw==</t>
+  </si>
+  <si>
+    <t>教你瘦掉大肚子</t>
+  </si>
+  <si>
+    <t>ssbb120</t>
+  </si>
+  <si>
+    <t>MzIyNjAwNzU0Mg==</t>
+  </si>
+  <si>
+    <t>教你轻松瘦全身</t>
+  </si>
+  <si>
+    <t>shou278</t>
+  </si>
+  <si>
+    <t>MzI0MzEzMzY5MQ==</t>
+  </si>
+  <si>
+    <t>每天跟我瘦1斤</t>
+  </si>
+  <si>
+    <t>guangzhou115</t>
+  </si>
+  <si>
+    <t>MzA5NTEwODU0OQ==</t>
+  </si>
+  <si>
+    <t>教你三天瘦2斤</t>
+  </si>
+  <si>
+    <t>vipbb38</t>
+  </si>
+  <si>
+    <t>MzI0NjI4MDU5OA==</t>
+  </si>
+  <si>
+    <t>教你轻松减小肚子</t>
+  </si>
+  <si>
+    <t>rensheng020</t>
+  </si>
+  <si>
+    <t>MzA3OTA3MjM1NQ==</t>
+  </si>
+  <si>
+    <t>S曲线美馆</t>
+  </si>
+  <si>
+    <t>qipa380</t>
+  </si>
+  <si>
+    <t>MzA4NTcyNTU3MA==</t>
+  </si>
+  <si>
+    <t>美胸好技巧</t>
+  </si>
+  <si>
+    <t>meixiong122</t>
+  </si>
+  <si>
+    <t>MzI5NTUyMDQzOQ==</t>
+  </si>
+  <si>
+    <t>教您美胸秘诀</t>
+  </si>
+  <si>
+    <t>vipp256</t>
+  </si>
+  <si>
+    <t>MzI0MjM5MTMyOA==</t>
+  </si>
+  <si>
+    <t>好妈妈必懂知识</t>
+  </si>
+  <si>
+    <t>mmbaby230</t>
+  </si>
+  <si>
+    <t>MzIzODA4NDY5MA==</t>
+  </si>
+  <si>
+    <t>母婴育儿</t>
+  </si>
+  <si>
+    <t>好妈妈小手册</t>
+  </si>
+  <si>
+    <t>haomama35</t>
+  </si>
+  <si>
+    <t>MzIyMzY1NzE4MQ==</t>
+  </si>
+  <si>
+    <t>好妈妈百宝袋</t>
+  </si>
+  <si>
+    <t>ipp233</t>
+  </si>
+  <si>
+    <t>MzI3ODUzMTAwNw==</t>
+  </si>
+  <si>
+    <t>好妈妈必读手册</t>
+  </si>
+  <si>
+    <t>haomama25</t>
+  </si>
+  <si>
+    <t>MzI1MDMxMTQ4Mw==</t>
+  </si>
+  <si>
+    <t>妈妈必读手册</t>
+  </si>
+  <si>
+    <t>iipp35</t>
+  </si>
+  <si>
+    <t>MzIwNTQ1MDEzMg==</t>
+  </si>
+  <si>
+    <t>女人生理手册</t>
+  </si>
+  <si>
+    <t>jingdian233</t>
+  </si>
+  <si>
+    <t>MzA5NTA3Mjc0MQ==</t>
+  </si>
+  <si>
+    <t>女性生理知识</t>
+  </si>
+  <si>
+    <t>ipp250</t>
+  </si>
+  <si>
+    <t>MzAxNzgyMzkzNw==</t>
+  </si>
+  <si>
+    <t>女人养护小知识</t>
+  </si>
+  <si>
+    <t>sdyy22</t>
+  </si>
+  <si>
+    <t>MzIzNTAxOTI3Mg==</t>
+  </si>
+  <si>
+    <t>女人健康指南</t>
+  </si>
+  <si>
+    <t>vipcc250</t>
+  </si>
+  <si>
+    <t>MzIxODUxMjQzOQ==</t>
+  </si>
+  <si>
+    <t>卵巢调理常识</t>
+  </si>
+  <si>
+    <t>yanghu030</t>
+  </si>
+  <si>
+    <t>MzI4ODY5NTIzOQ==</t>
+  </si>
+  <si>
+    <t>经期调理常识</t>
+  </si>
+  <si>
+    <t>jingqi233</t>
+  </si>
+  <si>
+    <t>MzI4NjUyMzYxOQ==</t>
+  </si>
+  <si>
+    <t>遇见小小说</t>
+  </si>
+  <si>
+    <t>yrgl365</t>
+  </si>
+  <si>
+    <t>MzUxNTI5NTc0Ng==</t>
+  </si>
+  <si>
+    <t>米姐小小说</t>
+  </si>
+  <si>
+    <t>vipp210</t>
+  </si>
+  <si>
+    <t>MzIzMzY1MDE2NA==</t>
+  </si>
+  <si>
+    <t>婚姻爱情经典话语</t>
+  </si>
+  <si>
+    <t>hunyin230</t>
+  </si>
+  <si>
+    <t>MzA5NTA3NzA0NA==</t>
+  </si>
+  <si>
+    <t>伤感的爱情语录</t>
+  </si>
+  <si>
+    <t>iipp520</t>
+  </si>
+  <si>
+    <t>MzIxMjQ0OTAyMQ==</t>
+  </si>
+  <si>
+    <t>午夜小小说</t>
+  </si>
+  <si>
+    <t>wyxxs220</t>
+  </si>
+  <si>
+    <t>MzUyMDMzMTU0OA==</t>
+  </si>
+  <si>
+    <t>深夜控小说</t>
+  </si>
+  <si>
+    <t>syk2400</t>
+  </si>
+  <si>
+    <t>MzU5ODA1NjEyOA==</t>
+  </si>
+  <si>
+    <t>学会驾驭男人心</t>
+  </si>
+  <si>
+    <t>jypp288</t>
+  </si>
+  <si>
+    <t>MzIzMTExMzIyMA==</t>
+  </si>
+  <si>
+    <t>励志人生的语录</t>
+  </si>
+  <si>
+    <t>lizhi260</t>
+  </si>
+  <si>
+    <t>MzIxNjExNTE4Ng==</t>
+  </si>
+  <si>
+    <t>养花手册</t>
+  </si>
+  <si>
+    <t>yanghua266</t>
+  </si>
+  <si>
+    <t>MzIyMDUwMzQ2NA==</t>
+  </si>
+  <si>
+    <t>每日懂点养身</t>
+  </si>
+  <si>
+    <t>vips230</t>
+  </si>
+  <si>
+    <t>MzI1NDA4MDcyMA==</t>
+  </si>
+  <si>
+    <t>懂点居家小常识</t>
+  </si>
+  <si>
+    <t>yanghua260</t>
+  </si>
+  <si>
+    <t>MzI5OTQyNzA2MA==</t>
+  </si>
+  <si>
+    <t>实用百科小知识</t>
+  </si>
+  <si>
+    <t>yesid12</t>
+  </si>
+  <si>
+    <t>MzAwNTM4NzIyNw==</t>
+  </si>
+  <si>
+    <t>健康生活小知识</t>
+  </si>
+  <si>
+    <t>yesid66</t>
+  </si>
+  <si>
+    <t>MzAwMjM4NjIyMg==</t>
+  </si>
+  <si>
+    <t>居家生活小贴士</t>
+  </si>
+  <si>
+    <t>yanghua177</t>
+  </si>
+  <si>
+    <t>MzIxNjUxMTM5OQ==</t>
+  </si>
+  <si>
+    <t>智慧生活小知识</t>
+  </si>
+  <si>
+    <t>zhs230</t>
+  </si>
+  <si>
+    <t>MzAwNzI2MTA1MA==</t>
+  </si>
+  <si>
+    <t>时尚健康大全</t>
+  </si>
+  <si>
+    <t>ssjk88</t>
+  </si>
+  <si>
+    <t>MzAwMjMwOTAxMg==</t>
+  </si>
+  <si>
+    <t>生活健康小百科</t>
+  </si>
+  <si>
+    <t>yesid33</t>
+  </si>
+  <si>
+    <t>MzA5ODU1MTM4NQ==</t>
+  </si>
+  <si>
+    <t>健康养身必学</t>
+  </si>
+  <si>
+    <t>kkvip20</t>
+  </si>
+  <si>
+    <t>MzIxOTM5Mjg3Mw==</t>
+  </si>
+  <si>
+    <t>学点养身知识</t>
+  </si>
+  <si>
+    <t>vipp254</t>
+  </si>
+  <si>
+    <t>MzI2ODQwNTgwNw==</t>
+  </si>
+  <si>
+    <t>米妞时尚范</t>
+  </si>
+  <si>
+    <t>aelove214</t>
+  </si>
+  <si>
+    <t>MzU1MzM0MDY5OQ==</t>
+  </si>
+  <si>
+    <t>教你轻松学扎发</t>
+  </si>
+  <si>
+    <t>zhafa280</t>
+  </si>
+  <si>
+    <t>MzIzMzA3NzQwMA==</t>
+  </si>
+  <si>
+    <t>美妆</t>
+  </si>
+  <si>
+    <t>一分钟学扎发</t>
+  </si>
+  <si>
+    <t>zhafa25</t>
+  </si>
+  <si>
+    <t>MzI2MDMyNjMyMA==</t>
+  </si>
+  <si>
+    <t>高颜值穿搭手册</t>
+  </si>
+  <si>
+    <t>aiqing260</t>
+  </si>
+  <si>
+    <t>MzI4NjUxMTI1MQ==</t>
+  </si>
+  <si>
+    <t>穿搭</t>
+  </si>
+  <si>
+    <t>气质美翻天</t>
+  </si>
+  <si>
+    <t>paidu35</t>
+  </si>
+  <si>
+    <t>MzIxODYzMjQ2MQ==</t>
+  </si>
+  <si>
+    <t>懂点财运风水学</t>
+  </si>
+  <si>
+    <t>ddfs66</t>
+  </si>
+  <si>
+    <t>MzI4MzA4MDI5Mg==</t>
+  </si>
+  <si>
+    <t>星座</t>
+  </si>
+  <si>
+    <t>风水算命老先生</t>
+  </si>
+  <si>
+    <t>fssm77</t>
+  </si>
+  <si>
+    <t>MzIwMzExNTcxNg==</t>
+  </si>
+  <si>
+    <t>财运风水布局</t>
+  </si>
+  <si>
+    <t>caiyun234</t>
+  </si>
+  <si>
+    <t>MzI2OTExNzYzOQ==</t>
+  </si>
+  <si>
+    <t>财运风水知识</t>
+  </si>
+  <si>
+    <t>caiyun280</t>
+  </si>
+  <si>
+    <t>MzI3NTE2OTk3NA==</t>
+  </si>
+  <si>
+    <t>教你学会看风水</t>
+  </si>
+  <si>
+    <t>fengshui250</t>
+  </si>
+  <si>
+    <t>MzIxOTI4OTAwMQ==</t>
+  </si>
+  <si>
+    <t>易经风水算命学</t>
+  </si>
+  <si>
+    <t>fsmm20</t>
+  </si>
+  <si>
+    <t>MzI1NjMxMDY2Ng==</t>
+  </si>
+  <si>
+    <t>心灵禅话</t>
+  </si>
+  <si>
+    <t>xinling102</t>
+  </si>
+  <si>
+    <t>MzIxMTAxNDU2Nw==</t>
+  </si>
+  <si>
+    <t>修心禅语</t>
+  </si>
+  <si>
+    <t>foyan33</t>
+  </si>
+  <si>
+    <t>MzAwOTc2NzQ1MA==</t>
+  </si>
+  <si>
+    <t>每天一曲好音乐</t>
+  </si>
+  <si>
+    <t>haoyy77</t>
+  </si>
+  <si>
+    <t>MzIzMzExNDA3MQ==</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>米卡相册</t>
+  </si>
+  <si>
+    <t>mika1690</t>
+  </si>
+  <si>
+    <t>MzU3MjcxNjM4OQ==</t>
+  </si>
+  <si>
+    <t>全球都笑死了</t>
+  </si>
+  <si>
+    <t>qq23200</t>
+  </si>
+  <si>
+    <t>MjM5NzgyMjgwNg==</t>
+  </si>
+  <si>
+    <t>笑到肚子痛</t>
+  </si>
+  <si>
+    <t>xddzt66</t>
+  </si>
+  <si>
+    <t>MzAxMTIxMzU4Mg==</t>
+  </si>
+  <si>
+    <t>当时我惊呆了</t>
+  </si>
+  <si>
+    <t>jingdai230</t>
+  </si>
+  <si>
+    <t>MzA3NzczMDA4Ng==</t>
+  </si>
+  <si>
+    <t>邹春红</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1712181403060030</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1097,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1133,491 +1383,425 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
-        <v>6.0815999999999999</v>
+        <v>3.0918000000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>2433</v>
+        <v>1036</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
-        <v>5.1365999999999996</v>
+        <v>1.9235</v>
       </c>
       <c r="E3" s="1">
-        <v>2055</v>
+        <v>469</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
-        <v>5.867</v>
+        <v>13.7645</v>
       </c>
       <c r="E4" s="1">
-        <v>3286</v>
+        <v>4333</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>2380</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
-        <v>6.8170000000000002</v>
+        <v>7.7079000000000004</v>
       </c>
       <c r="E5" s="1">
-        <v>3818</v>
+        <v>2590</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
-        <v>3.2553999999999998</v>
+        <v>6.9526000000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>313</v>
+        <v>2338</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>17.807700000000001</v>
+        <v>0.81479999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>1710</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
-        <v>17.0444</v>
+        <v>12.1829</v>
       </c>
       <c r="E8" s="1">
-        <v>1636</v>
+        <v>3584</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
-        <v>7.5872000000000002</v>
+        <v>5.0270000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>789</v>
+        <v>686</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.2394999999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>532</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>294</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9.6669</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1005</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
-        <v>7.0275999999999996</v>
+        <v>4.5155000000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>731</v>
+        <v>378</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>8.3043999999999993</v>
+        <v>3.9207999999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>864</v>
+        <v>574</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1631,37 +1815,31 @@
         <v>59</v>
       </c>
       <c r="D13" s="1">
-        <v>8.0378000000000007</v>
+        <v>3.8713000000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>836</v>
+        <v>518</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1675,37 +1853,31 @@
         <v>62</v>
       </c>
       <c r="D14" s="1">
-        <v>3.8856999999999999</v>
+        <v>30.600300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>404</v>
+        <v>4067</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1719,37 +1891,31 @@
         <v>65</v>
       </c>
       <c r="D15" s="1">
-        <v>4.4237000000000002</v>
+        <v>13.049799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>460</v>
+        <v>1736</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1763,37 +1929,31 @@
         <v>68</v>
       </c>
       <c r="D16" s="1">
-        <v>3.4319000000000002</v>
+        <v>12.836</v>
       </c>
       <c r="E16" s="1">
-        <v>357</v>
+        <v>1708</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1807,1841 +1967,2615 @@
         <v>71</v>
       </c>
       <c r="D17" s="1">
-        <v>10.6882</v>
+        <v>12.008599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>1283</v>
+        <v>1428</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" s="1">
-        <v>2.2328999999999999</v>
+        <v>6.7529000000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>232</v>
+        <v>707</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D19" s="1">
-        <v>17.889199999999999</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>1431</v>
+        <v>721</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D20" s="1">
-        <v>13.3146</v>
+        <v>24.151599999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>1065</v>
+        <v>2961</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D21" s="1">
-        <v>4.6623000000000001</v>
+        <v>16.4819</v>
       </c>
       <c r="E21" s="1">
-        <v>373</v>
+        <v>1960</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D22" s="1">
-        <v>4.8219000000000003</v>
+        <v>16.8611</v>
       </c>
       <c r="E22" s="1">
-        <v>386</v>
+        <v>2009</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D23" s="1">
-        <v>4.8766999999999996</v>
+        <v>14.450100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>507</v>
+        <v>1771</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D24" s="1">
-        <v>7.4242999999999997</v>
+        <v>12.6828</v>
       </c>
       <c r="E24" s="1">
-        <v>594</v>
+        <v>1512</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1">
-        <v>7.2423999999999999</v>
+        <v>11.9627</v>
       </c>
       <c r="E25" s="1">
-        <v>579</v>
+        <v>1463</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1">
-        <v>6.2595000000000001</v>
+        <v>10.2248</v>
       </c>
       <c r="E26" s="1">
-        <v>501</v>
+        <v>1253</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1">
-        <v>11.5001</v>
+        <v>9.1232000000000006</v>
       </c>
       <c r="E27" s="1">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1">
-        <v>8.8095999999999997</v>
+        <v>7.63</v>
       </c>
       <c r="E28" s="1">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1">
-        <v>10.074</v>
+        <v>6.0454999999999997</v>
       </c>
       <c r="E29" s="1">
-        <v>806</v>
+        <v>595</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D30" s="1">
-        <v>5.9494999999999996</v>
+        <v>4.2990000000000004</v>
       </c>
       <c r="E30" s="1">
-        <v>619</v>
+        <v>497</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D31" s="1">
-        <v>9.7583000000000002</v>
+        <v>3.8715999999999999</v>
       </c>
       <c r="E31" s="1">
-        <v>781</v>
+        <v>504</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1">
-        <v>8.8529999999999998</v>
+        <v>3.1705000000000001</v>
       </c>
       <c r="E32" s="1">
-        <v>708</v>
+        <v>364</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1">
-        <v>9.8755000000000006</v>
+        <v>3.0668000000000002</v>
       </c>
       <c r="E33" s="1">
-        <v>790</v>
+        <v>378</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1">
-        <v>4.9351000000000003</v>
+        <v>2.9796</v>
       </c>
       <c r="E34" s="1">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1">
-        <v>7.5321999999999996</v>
+        <v>2.1356999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>603</v>
+        <v>308</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1">
-        <v>4.9348000000000001</v>
+        <v>3.4918999999999998</v>
       </c>
       <c r="E36" s="1">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D37" s="1">
-        <v>9.5882000000000005</v>
+        <v>2.9049</v>
       </c>
       <c r="E37" s="1">
-        <v>767</v>
+        <v>378</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1">
-        <v>9.4207000000000001</v>
+        <v>30.765799999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>754</v>
+        <v>3983</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>2191</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D39" s="1">
-        <v>9.8742000000000001</v>
+        <v>17.103999999999999</v>
       </c>
       <c r="E39" s="1">
-        <v>790</v>
+        <v>2275</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1253</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1">
-        <v>8.6362000000000005</v>
+        <v>12.587</v>
       </c>
       <c r="E40" s="1">
-        <v>691</v>
+        <v>1715</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1">
-        <v>7.0071000000000003</v>
+        <v>9.4055</v>
       </c>
       <c r="E41" s="1">
-        <v>729</v>
+        <v>1253</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D42" s="1">
-        <v>8.0729000000000006</v>
+        <v>8.1539999999999999</v>
       </c>
       <c r="E42" s="1">
-        <v>646</v>
+        <v>1029</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D43" s="1">
-        <v>10.3353</v>
+        <v>9.7144999999999992</v>
       </c>
       <c r="E43" s="1">
-        <v>827</v>
+        <v>1295</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D44" s="1">
-        <v>9.9402000000000008</v>
+        <v>8.8280999999999992</v>
       </c>
       <c r="E44" s="1">
-        <v>795</v>
+        <v>1295</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D45" s="1">
-        <v>8.6974999999999998</v>
+        <v>7.5705999999999998</v>
       </c>
       <c r="E45" s="1">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>9.1529000000000007</v>
+        <v>4.6558000000000002</v>
       </c>
       <c r="E46" s="1">
-        <v>732</v>
+        <v>616</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D47" s="1">
-        <v>10.128299999999999</v>
+        <v>3.7723</v>
       </c>
       <c r="E47" s="1">
-        <v>1053</v>
+        <v>539</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D48" s="1">
-        <v>10.377599999999999</v>
+        <v>2.9683999999999999</v>
       </c>
       <c r="E48" s="1">
-        <v>830</v>
+        <v>427</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
       <c r="J48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D49" s="1">
-        <v>11.9491</v>
+        <v>25.421800000000001</v>
       </c>
       <c r="E49" s="1">
-        <v>956</v>
+        <v>2667</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
       </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
       <c r="J49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D50" s="1">
-        <v>7.0411999999999999</v>
+        <v>23.646899999999999</v>
       </c>
       <c r="E50" s="1">
-        <v>563</v>
+        <v>2485</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
       <c r="J50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D51" s="1">
-        <v>6.6543999999999999</v>
+        <v>19.3871</v>
       </c>
       <c r="E51" s="1">
-        <v>692</v>
+        <v>1897</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
       </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D52" s="1">
-        <v>6.9715999999999996</v>
+        <v>7.8236999999999997</v>
       </c>
       <c r="E52" s="1">
-        <v>558</v>
+        <v>1043</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
       </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D53" s="1">
-        <v>8.5580999999999996</v>
+        <v>5.8922999999999996</v>
       </c>
       <c r="E53" s="1">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D54" s="1">
-        <v>15.2476</v>
+        <v>5.3064</v>
       </c>
       <c r="E54" s="1">
-        <v>1220</v>
+        <v>707</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
       <c r="J54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D55" s="1">
-        <v>10.3155</v>
+        <v>4.0121000000000002</v>
       </c>
       <c r="E55" s="1">
-        <v>825</v>
+        <v>532</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
       </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D56" s="1">
-        <v>7.0357000000000003</v>
+        <v>4.0674000000000001</v>
       </c>
       <c r="E56" s="1">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
       <c r="J56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D57" s="1">
-        <v>9.4649999999999999</v>
+        <v>23.910699999999999</v>
       </c>
       <c r="E57" s="1">
-        <v>757</v>
+        <v>3514</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="1">
+        <v>21.039200000000001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3094</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1701</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="1">
-        <v>7.9043999999999999</v>
-      </c>
-      <c r="E58" s="1">
-        <v>632</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="1" t="s">
+      <c r="D59" s="1">
+        <v>20.2624</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2982</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1638</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="1">
+        <v>14.696999999999999</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1645</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>903</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="1">
+        <v>11.221299999999999</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1372</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>756</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="1">
+        <v>10.034800000000001</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1372</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>756</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="E63" s="1">
+        <v>903</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>497</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5.9626000000000001</v>
+      </c>
+      <c r="E64" s="1">
+        <v>462</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>252</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>199</v>
+      <c r="L64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4.6271000000000004</v>
+      </c>
+      <c r="E65" s="1">
+        <v>483</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>266</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4.2091000000000003</v>
+      </c>
+      <c r="E66" s="1">
+        <v>574</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>315</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3.0186999999999999</v>
+      </c>
+      <c r="E67" s="1">
+        <v>413</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>224</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45.834400000000002</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4970</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2737</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5.0343</v>
+      </c>
+      <c r="E69" s="1">
+        <v>602</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>329</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4.1241000000000003</v>
+      </c>
+      <c r="E70" s="1">
+        <v>518</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>287</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.2848000000000002</v>
+      </c>
+      <c r="E71" s="1">
+        <v>462</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>252</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.9722</v>
+      </c>
+      <c r="E72" s="1">
+        <v>343</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>189</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="1">
+        <v>12.6812</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1820</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8.5629000000000008</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1232</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>679</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="1">
+        <v>6.0495999999999999</v>
+      </c>
+      <c r="E75" s="1">
+        <v>868</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>476</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="1">
+        <v>5.6871</v>
+      </c>
+      <c r="E76" s="1">
+        <v>819</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>448</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5.34</v>
+      </c>
+      <c r="E77" s="1">
+        <v>707</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>392</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5.0923999999999996</v>
+      </c>
+      <c r="E78" s="1">
+        <v>728</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>399</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="E79" s="1">
+        <v>420</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>231</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2.8976999999999999</v>
+      </c>
+      <c r="E80" s="1">
+        <v>385</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>210</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="1">
+        <v>56.472700000000003</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5537</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3045</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8.0908999999999995</v>
+      </c>
+      <c r="E82" s="1">
+        <v>679</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>371</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="1">
+        <v>13.252700000000001</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1022</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>560</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="1">
+        <v>10.903</v>
+      </c>
+      <c r="E84" s="1">
+        <v>840</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>462</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" s="1">
+        <v>4.5187999999999997</v>
+      </c>
+      <c r="E85" s="1">
+        <v>350</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>196</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
